--- a/StructureDefinition-PPLMedicinalProductDefinition.xlsx
+++ b/StructureDefinition-PPLMedicinalProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-21T23:00:19+00:00</t>
+    <t>2022-10-21T23:01:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLMedicinalProductDefinition.xlsx
+++ b/StructureDefinition-PPLMedicinalProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-21T23:01:56+00:00</t>
+    <t>2022-10-21T23:10:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLMedicinalProductDefinition.xlsx
+++ b/StructureDefinition-PPLMedicinalProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-21T23:10:36+00:00</t>
+    <t>2022-10-21T23:24:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLMedicinalProductDefinition.xlsx
+++ b/StructureDefinition-PPLMedicinalProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-21T23:24:13+00:00</t>
+    <t>2022-10-23T08:50:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLMedicinalProductDefinition.xlsx
+++ b/StructureDefinition-PPLMedicinalProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-23T08:50:48+00:00</t>
+    <t>2022-10-23T08:58:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLMedicinalProductDefinition.xlsx
+++ b/StructureDefinition-PPLMedicinalProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-23T08:58:51+00:00</t>
+    <t>2022-10-23T16:03:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLMedicinalProductDefinition.xlsx
+++ b/StructureDefinition-PPLMedicinalProductDefinition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6180" uniqueCount="628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6800" uniqueCount="633">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-23T18:15:07+00:00</t>
+    <t>2022-10-23T19:27:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1656,6 +1656,15 @@
     <t>MedicinalProductDefinition.name.usage.country.coding</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>EMA or ISO codes for country</t>
+  </si>
+  <si>
+    <t>ema</t>
+  </si>
+  <si>
     <t>MedicinalProductDefinition.name.usage.country.coding.id</t>
   </si>
   <si>
@@ -1680,6 +1689,9 @@
     <t>MedicinalProductDefinition.name.usage.country.coding.userSelected</t>
   </si>
   <si>
+    <t>iso</t>
+  </si>
+  <si>
     <t>MedicinalProductDefinition.name.usage.country.text</t>
   </si>
   <si>
@@ -1744,6 +1756,9 @@
   </si>
   <si>
     <t>MedicinalProductDefinition.name.usage.language.coding.userSelected</t>
+  </si>
+  <si>
+    <t>bcp</t>
   </si>
   <si>
     <t>MedicinalProductDefinition.name.usage.language.text</t>
@@ -2256,7 +2271,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL182"/>
+  <dimension ref="A1:AL200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -17363,7 +17378,7 @@
       </c>
       <c r="D141" s="2"/>
       <c r="E141" t="s" s="2">
-        <v>74</v>
+        <v>527</v>
       </c>
       <c r="F141" t="s" s="2">
         <v>75</v>
@@ -17381,7 +17396,7 @@
         <v>241</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>242</v>
+        <v>528</v>
       </c>
       <c r="L141" t="s" s="2">
         <v>243</v>
@@ -17427,16 +17442,14 @@
         <v>73</v>
       </c>
       <c r="AA141" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB141" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="AB141" s="2"/>
       <c r="AC141" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD141" t="s" s="2">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="AE141" t="s" s="2">
         <v>246</v>
@@ -17465,15 +17478,17 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="B142" s="2"/>
+        <v>526</v>
+      </c>
+      <c r="B142" t="s" s="2">
+        <v>529</v>
+      </c>
       <c r="C142" t="s" s="2">
         <v>73</v>
       </c>
       <c r="D142" s="2"/>
       <c r="E142" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F142" t="s" s="2">
         <v>82</v>
@@ -17485,19 +17500,23 @@
         <v>73</v>
       </c>
       <c r="I142" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J142" t="s" s="2">
-        <v>84</v>
+        <v>241</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>153</v>
+        <v>242</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="M142" s="2"/>
-      <c r="N142" s="2"/>
+        <v>243</v>
+      </c>
+      <c r="M142" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="N142" t="s" s="2">
+        <v>245</v>
+      </c>
       <c r="O142" t="s" s="2">
         <v>73</v>
       </c>
@@ -17545,22 +17564,22 @@
         <v>73</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>155</v>
+        <v>246</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG142" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH142" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI142" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AJ142" t="s" s="2">
-        <v>156</v>
+        <v>247</v>
       </c>
       <c r="AK142" t="s" s="2">
         <v>73</v>
@@ -17571,18 +17590,18 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F143" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G143" t="s" s="2">
         <v>73</v>
@@ -17594,17 +17613,15 @@
         <v>73</v>
       </c>
       <c r="J143" t="s" s="2">
-        <v>128</v>
+        <v>84</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="M143" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="M143" s="2"/>
       <c r="N143" s="2"/>
       <c r="O143" t="s" s="2">
         <v>73</v>
@@ -17641,31 +17658,31 @@
         <v>73</v>
       </c>
       <c r="AA143" t="s" s="2">
-        <v>159</v>
+        <v>73</v>
       </c>
       <c r="AB143" t="s" s="2">
-        <v>160</v>
+        <v>73</v>
       </c>
       <c r="AC143" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD143" t="s" s="2">
-        <v>145</v>
+        <v>73</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG143" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH143" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI143" t="s" s="2">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="AJ143" t="s" s="2">
         <v>156</v>
@@ -17679,18 +17696,18 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="D144" s="2"/>
       <c r="E144" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F144" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G144" t="s" s="2">
         <v>73</v>
@@ -17699,23 +17716,21 @@
         <v>73</v>
       </c>
       <c r="I144" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J144" t="s" s="2">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>251</v>
+        <v>129</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>252</v>
+        <v>158</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N144" t="s" s="2">
-        <v>254</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="N144" s="2"/>
       <c r="O144" t="s" s="2">
         <v>73</v>
       </c>
@@ -17724,7 +17739,7 @@
         <v>73</v>
       </c>
       <c r="R144" t="s" s="2">
-        <v>530</v>
+        <v>73</v>
       </c>
       <c r="S144" t="s" s="2">
         <v>73</v>
@@ -17751,34 +17766,34 @@
         <v>73</v>
       </c>
       <c r="AA144" t="s" s="2">
-        <v>73</v>
+        <v>159</v>
       </c>
       <c r="AB144" t="s" s="2">
-        <v>73</v>
+        <v>160</v>
       </c>
       <c r="AC144" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD144" t="s" s="2">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>256</v>
+        <v>161</v>
       </c>
       <c r="AF144" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG144" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH144" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI144" t="s" s="2">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="AJ144" t="s" s="2">
-        <v>257</v>
+        <v>156</v>
       </c>
       <c r="AK144" t="s" s="2">
         <v>73</v>
@@ -17789,7 +17804,7 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -17797,7 +17812,7 @@
       </c>
       <c r="D145" s="2"/>
       <c r="E145" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F145" t="s" s="2">
         <v>82</v>
@@ -17812,18 +17827,20 @@
         <v>83</v>
       </c>
       <c r="J145" t="s" s="2">
-        <v>190</v>
+        <v>96</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N145" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="N145" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="O145" t="s" s="2">
         <v>73</v>
       </c>
@@ -17832,7 +17849,7 @@
         <v>73</v>
       </c>
       <c r="R145" t="s" s="2">
-        <v>73</v>
+        <v>533</v>
       </c>
       <c r="S145" t="s" s="2">
         <v>73</v>
@@ -17871,7 +17888,7 @@
         <v>73</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="AF145" t="s" s="2">
         <v>74</v>
@@ -17886,7 +17903,7 @@
         <v>94</v>
       </c>
       <c r="AJ145" t="s" s="2">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="AK145" t="s" s="2">
         <v>73</v>
@@ -17897,7 +17914,7 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
@@ -17920,18 +17937,18 @@
         <v>83</v>
       </c>
       <c r="J146" t="s" s="2">
-        <v>102</v>
+        <v>190</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="M146" s="2"/>
-      <c r="N146" t="s" s="2">
-        <v>267</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="M146" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="N146" s="2"/>
       <c r="O146" t="s" s="2">
         <v>73</v>
       </c>
@@ -17979,7 +17996,7 @@
         <v>73</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="AF146" t="s" s="2">
         <v>74</v>
@@ -17994,7 +18011,7 @@
         <v>94</v>
       </c>
       <c r="AJ146" t="s" s="2">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="AK146" t="s" s="2">
         <v>73</v>
@@ -18005,7 +18022,7 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
@@ -18028,17 +18045,17 @@
         <v>83</v>
       </c>
       <c r="J147" t="s" s="2">
-        <v>190</v>
+        <v>102</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="M147" s="2"/>
       <c r="N147" t="s" s="2">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="O147" t="s" s="2">
         <v>73</v>
@@ -18087,7 +18104,7 @@
         <v>73</v>
       </c>
       <c r="AE147" t="s" s="2">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="AF147" t="s" s="2">
         <v>74</v>
@@ -18102,7 +18119,7 @@
         <v>94</v>
       </c>
       <c r="AJ147" t="s" s="2">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="AK147" t="s" s="2">
         <v>73</v>
@@ -18113,7 +18130,7 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -18136,19 +18153,17 @@
         <v>83</v>
       </c>
       <c r="J148" t="s" s="2">
-        <v>277</v>
+        <v>190</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="M148" t="s" s="2">
-        <v>280</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="M148" s="2"/>
       <c r="N148" t="s" s="2">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="O148" t="s" s="2">
         <v>73</v>
@@ -18197,7 +18212,7 @@
         <v>73</v>
       </c>
       <c r="AE148" t="s" s="2">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AF148" t="s" s="2">
         <v>74</v>
@@ -18212,7 +18227,7 @@
         <v>94</v>
       </c>
       <c r="AJ148" t="s" s="2">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="AK148" t="s" s="2">
         <v>73</v>
@@ -18223,7 +18238,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
@@ -18246,19 +18261,19 @@
         <v>83</v>
       </c>
       <c r="J149" t="s" s="2">
-        <v>190</v>
+        <v>277</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="N149" t="s" s="2">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="O149" t="s" s="2">
         <v>73</v>
@@ -18307,7 +18322,7 @@
         <v>73</v>
       </c>
       <c r="AE149" t="s" s="2">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="AF149" t="s" s="2">
         <v>74</v>
@@ -18322,7 +18337,7 @@
         <v>94</v>
       </c>
       <c r="AJ149" t="s" s="2">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="AK149" t="s" s="2">
         <v>73</v>
@@ -18333,15 +18348,17 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="B150" s="2"/>
+        <v>526</v>
+      </c>
+      <c r="B150" t="s" s="2">
+        <v>538</v>
+      </c>
       <c r="C150" t="s" s="2">
         <v>73</v>
       </c>
       <c r="D150" s="2"/>
       <c r="E150" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F150" t="s" s="2">
         <v>82</v>
@@ -18356,16 +18373,20 @@
         <v>83</v>
       </c>
       <c r="J150" t="s" s="2">
-        <v>172</v>
+        <v>241</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>537</v>
+        <v>242</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="M150" s="2"/>
-      <c r="N150" s="2"/>
+        <v>243</v>
+      </c>
+      <c r="M150" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="N150" t="s" s="2">
+        <v>245</v>
+      </c>
       <c r="O150" t="s" s="2">
         <v>73</v>
       </c>
@@ -18389,13 +18410,13 @@
         <v>73</v>
       </c>
       <c r="W150" t="s" s="2">
-        <v>217</v>
+        <v>73</v>
       </c>
       <c r="X150" t="s" s="2">
-        <v>520</v>
+        <v>73</v>
       </c>
       <c r="Y150" t="s" s="2">
-        <v>539</v>
+        <v>73</v>
       </c>
       <c r="Z150" t="s" s="2">
         <v>73</v>
@@ -18413,13 +18434,13 @@
         <v>73</v>
       </c>
       <c r="AE150" t="s" s="2">
-        <v>536</v>
+        <v>246</v>
       </c>
       <c r="AF150" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG150" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH150" t="s" s="2">
         <v>73</v>
@@ -18428,10 +18449,10 @@
         <v>94</v>
       </c>
       <c r="AJ150" t="s" s="2">
-        <v>522</v>
+        <v>247</v>
       </c>
       <c r="AK150" t="s" s="2">
-        <v>540</v>
+        <v>73</v>
       </c>
       <c r="AL150" t="s" s="2">
         <v>73</v>
@@ -18439,7 +18460,7 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
@@ -18447,7 +18468,7 @@
       </c>
       <c r="D151" s="2"/>
       <c r="E151" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F151" t="s" s="2">
         <v>82</v>
@@ -18459,16 +18480,16 @@
         <v>73</v>
       </c>
       <c r="I151" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J151" t="s" s="2">
-        <v>172</v>
+        <v>84</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>542</v>
+        <v>153</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>543</v>
+        <v>154</v>
       </c>
       <c r="M151" s="2"/>
       <c r="N151" s="2"/>
@@ -18495,13 +18516,13 @@
         <v>73</v>
       </c>
       <c r="W151" t="s" s="2">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="X151" t="s" s="2">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="Y151" t="s" s="2">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="Z151" t="s" s="2">
         <v>73</v>
@@ -18519,10 +18540,10 @@
         <v>73</v>
       </c>
       <c r="AE151" t="s" s="2">
-        <v>541</v>
+        <v>155</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>82</v>
@@ -18531,13 +18552,13 @@
         <v>73</v>
       </c>
       <c r="AI151" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ151" t="s" s="2">
-        <v>544</v>
+        <v>156</v>
       </c>
       <c r="AK151" t="s" s="2">
-        <v>545</v>
+        <v>73</v>
       </c>
       <c r="AL151" t="s" s="2">
         <v>73</v>
@@ -18545,18 +18566,18 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>546</v>
+        <v>531</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F152" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G152" t="s" s="2">
         <v>73</v>
@@ -18568,15 +18589,17 @@
         <v>73</v>
       </c>
       <c r="J152" t="s" s="2">
-        <v>84</v>
+        <v>128</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="M152" s="2"/>
+        <v>158</v>
+      </c>
+      <c r="M152" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="N152" s="2"/>
       <c r="O152" t="s" s="2">
         <v>73</v>
@@ -18613,31 +18636,31 @@
         <v>73</v>
       </c>
       <c r="AA152" t="s" s="2">
-        <v>73</v>
+        <v>159</v>
       </c>
       <c r="AB152" t="s" s="2">
-        <v>73</v>
+        <v>160</v>
       </c>
       <c r="AC152" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD152" t="s" s="2">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="AE152" t="s" s="2">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="AF152" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG152" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH152" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI152" t="s" s="2">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="AJ152" t="s" s="2">
         <v>156</v>
@@ -18651,18 +18674,18 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>547</v>
+        <v>532</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D153" s="2"/>
       <c r="E153" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F153" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G153" t="s" s="2">
         <v>73</v>
@@ -18671,21 +18694,23 @@
         <v>73</v>
       </c>
       <c r="I153" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J153" t="s" s="2">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>129</v>
+        <v>251</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>158</v>
+        <v>252</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N153" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="N153" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="O153" t="s" s="2">
         <v>73</v>
       </c>
@@ -18694,7 +18719,7 @@
         <v>73</v>
       </c>
       <c r="R153" t="s" s="2">
-        <v>73</v>
+        <v>386</v>
       </c>
       <c r="S153" t="s" s="2">
         <v>73</v>
@@ -18721,34 +18746,34 @@
         <v>73</v>
       </c>
       <c r="AA153" t="s" s="2">
-        <v>159</v>
+        <v>73</v>
       </c>
       <c r="AB153" t="s" s="2">
-        <v>160</v>
+        <v>73</v>
       </c>
       <c r="AC153" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD153" t="s" s="2">
-        <v>145</v>
+        <v>73</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>161</v>
+        <v>256</v>
       </c>
       <c r="AF153" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG153" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH153" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI153" t="s" s="2">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="AJ153" t="s" s="2">
-        <v>156</v>
+        <v>257</v>
       </c>
       <c r="AK153" t="s" s="2">
         <v>73</v>
@@ -18759,7 +18784,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>548</v>
+        <v>534</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -18770,7 +18795,7 @@
         <v>74</v>
       </c>
       <c r="F154" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G154" t="s" s="2">
         <v>73</v>
@@ -18782,20 +18807,18 @@
         <v>83</v>
       </c>
       <c r="J154" t="s" s="2">
-        <v>241</v>
+        <v>190</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="N154" t="s" s="2">
-        <v>245</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="N154" s="2"/>
       <c r="O154" t="s" s="2">
         <v>73</v>
       </c>
@@ -18843,13 +18866,13 @@
         <v>73</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="AF154" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG154" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH154" t="s" s="2">
         <v>73</v>
@@ -18858,7 +18881,7 @@
         <v>94</v>
       </c>
       <c r="AJ154" t="s" s="2">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="AK154" t="s" s="2">
         <v>73</v>
@@ -18869,7 +18892,7 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>549</v>
+        <v>535</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -18889,19 +18912,21 @@
         <v>73</v>
       </c>
       <c r="I155" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J155" t="s" s="2">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>153</v>
+        <v>265</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>154</v>
+        <v>266</v>
       </c>
       <c r="M155" s="2"/>
-      <c r="N155" s="2"/>
+      <c r="N155" t="s" s="2">
+        <v>267</v>
+      </c>
       <c r="O155" t="s" s="2">
         <v>73</v>
       </c>
@@ -18949,7 +18974,7 @@
         <v>73</v>
       </c>
       <c r="AE155" t="s" s="2">
-        <v>155</v>
+        <v>268</v>
       </c>
       <c r="AF155" t="s" s="2">
         <v>74</v>
@@ -18961,10 +18986,10 @@
         <v>73</v>
       </c>
       <c r="AI155" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AJ155" t="s" s="2">
-        <v>156</v>
+        <v>269</v>
       </c>
       <c r="AK155" t="s" s="2">
         <v>73</v>
@@ -18975,18 +19000,18 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>550</v>
+        <v>536</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D156" s="2"/>
       <c r="E156" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F156" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G156" t="s" s="2">
         <v>73</v>
@@ -18995,21 +19020,21 @@
         <v>73</v>
       </c>
       <c r="I156" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J156" t="s" s="2">
-        <v>128</v>
+        <v>190</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>129</v>
+        <v>271</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="M156" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N156" s="2"/>
+        <v>272</v>
+      </c>
+      <c r="M156" s="2"/>
+      <c r="N156" t="s" s="2">
+        <v>273</v>
+      </c>
       <c r="O156" t="s" s="2">
         <v>73</v>
       </c>
@@ -19045,34 +19070,34 @@
         <v>73</v>
       </c>
       <c r="AA156" t="s" s="2">
-        <v>159</v>
+        <v>73</v>
       </c>
       <c r="AB156" t="s" s="2">
-        <v>160</v>
+        <v>73</v>
       </c>
       <c r="AC156" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD156" t="s" s="2">
-        <v>145</v>
+        <v>73</v>
       </c>
       <c r="AE156" t="s" s="2">
-        <v>161</v>
+        <v>274</v>
       </c>
       <c r="AF156" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG156" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH156" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI156" t="s" s="2">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="AJ156" t="s" s="2">
-        <v>156</v>
+        <v>275</v>
       </c>
       <c r="AK156" t="s" s="2">
         <v>73</v>
@@ -19083,7 +19108,7 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>551</v>
+        <v>537</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -19106,19 +19131,19 @@
         <v>83</v>
       </c>
       <c r="J157" t="s" s="2">
-        <v>96</v>
+        <v>277</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>253</v>
+        <v>280</v>
       </c>
       <c r="N157" t="s" s="2">
-        <v>254</v>
+        <v>281</v>
       </c>
       <c r="O157" t="s" s="2">
         <v>73</v>
@@ -19128,7 +19153,7 @@
         <v>73</v>
       </c>
       <c r="R157" t="s" s="2">
-        <v>552</v>
+        <v>73</v>
       </c>
       <c r="S157" t="s" s="2">
         <v>73</v>
@@ -19167,7 +19192,7 @@
         <v>73</v>
       </c>
       <c r="AE157" t="s" s="2">
-        <v>256</v>
+        <v>282</v>
       </c>
       <c r="AF157" t="s" s="2">
         <v>74</v>
@@ -19182,7 +19207,7 @@
         <v>94</v>
       </c>
       <c r="AJ157" t="s" s="2">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="AK157" t="s" s="2">
         <v>73</v>
@@ -19193,7 +19218,7 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>553</v>
+        <v>539</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -19219,15 +19244,17 @@
         <v>190</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N158" s="2"/>
+        <v>287</v>
+      </c>
+      <c r="N158" t="s" s="2">
+        <v>288</v>
+      </c>
       <c r="O158" t="s" s="2">
         <v>73</v>
       </c>
@@ -19275,7 +19302,7 @@
         <v>73</v>
       </c>
       <c r="AE158" t="s" s="2">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="AF158" t="s" s="2">
         <v>74</v>
@@ -19290,7 +19317,7 @@
         <v>94</v>
       </c>
       <c r="AJ158" t="s" s="2">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="AK158" t="s" s="2">
         <v>73</v>
@@ -19301,7 +19328,7 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>554</v>
+        <v>540</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -19324,18 +19351,16 @@
         <v>83</v>
       </c>
       <c r="J159" t="s" s="2">
-        <v>102</v>
+        <v>172</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>265</v>
+        <v>541</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>266</v>
+        <v>542</v>
       </c>
       <c r="M159" s="2"/>
-      <c r="N159" t="s" s="2">
-        <v>267</v>
-      </c>
+      <c r="N159" s="2"/>
       <c r="O159" t="s" s="2">
         <v>73</v>
       </c>
@@ -19359,13 +19384,13 @@
         <v>73</v>
       </c>
       <c r="W159" t="s" s="2">
-        <v>73</v>
+        <v>217</v>
       </c>
       <c r="X159" t="s" s="2">
-        <v>73</v>
+        <v>520</v>
       </c>
       <c r="Y159" t="s" s="2">
-        <v>73</v>
+        <v>543</v>
       </c>
       <c r="Z159" t="s" s="2">
         <v>73</v>
@@ -19383,7 +19408,7 @@
         <v>73</v>
       </c>
       <c r="AE159" t="s" s="2">
-        <v>268</v>
+        <v>540</v>
       </c>
       <c r="AF159" t="s" s="2">
         <v>74</v>
@@ -19398,10 +19423,10 @@
         <v>94</v>
       </c>
       <c r="AJ159" t="s" s="2">
-        <v>269</v>
+        <v>522</v>
       </c>
       <c r="AK159" t="s" s="2">
-        <v>73</v>
+        <v>544</v>
       </c>
       <c r="AL159" t="s" s="2">
         <v>73</v>
@@ -19409,7 +19434,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -19417,7 +19442,7 @@
       </c>
       <c r="D160" s="2"/>
       <c r="E160" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F160" t="s" s="2">
         <v>82</v>
@@ -19432,18 +19457,16 @@
         <v>83</v>
       </c>
       <c r="J160" t="s" s="2">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>271</v>
+        <v>546</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>272</v>
+        <v>547</v>
       </c>
       <c r="M160" s="2"/>
-      <c r="N160" t="s" s="2">
-        <v>273</v>
-      </c>
+      <c r="N160" s="2"/>
       <c r="O160" t="s" s="2">
         <v>73</v>
       </c>
@@ -19467,13 +19490,13 @@
         <v>73</v>
       </c>
       <c r="W160" t="s" s="2">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="X160" t="s" s="2">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="Y160" t="s" s="2">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="Z160" t="s" s="2">
         <v>73</v>
@@ -19491,10 +19514,10 @@
         <v>73</v>
       </c>
       <c r="AE160" t="s" s="2">
-        <v>274</v>
+        <v>545</v>
       </c>
       <c r="AF160" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="AG160" t="s" s="2">
         <v>82</v>
@@ -19506,10 +19529,10 @@
         <v>94</v>
       </c>
       <c r="AJ160" t="s" s="2">
-        <v>275</v>
+        <v>548</v>
       </c>
       <c r="AK160" t="s" s="2">
-        <v>73</v>
+        <v>549</v>
       </c>
       <c r="AL160" t="s" s="2">
         <v>73</v>
@@ -19517,7 +19540,7 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -19537,23 +19560,19 @@
         <v>73</v>
       </c>
       <c r="I161" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J161" t="s" s="2">
-        <v>277</v>
+        <v>84</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>278</v>
+        <v>153</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="M161" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N161" t="s" s="2">
-        <v>281</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="M161" s="2"/>
+      <c r="N161" s="2"/>
       <c r="O161" t="s" s="2">
         <v>73</v>
       </c>
@@ -19601,7 +19620,7 @@
         <v>73</v>
       </c>
       <c r="AE161" t="s" s="2">
-        <v>282</v>
+        <v>155</v>
       </c>
       <c r="AF161" t="s" s="2">
         <v>74</v>
@@ -19613,10 +19632,10 @@
         <v>73</v>
       </c>
       <c r="AI161" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ161" t="s" s="2">
-        <v>283</v>
+        <v>156</v>
       </c>
       <c r="AK161" t="s" s="2">
         <v>73</v>
@@ -19627,18 +19646,18 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="D162" s="2"/>
       <c r="E162" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F162" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G162" t="s" s="2">
         <v>73</v>
@@ -19647,23 +19666,21 @@
         <v>73</v>
       </c>
       <c r="I162" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J162" t="s" s="2">
-        <v>190</v>
+        <v>128</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>285</v>
+        <v>129</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>286</v>
+        <v>158</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="N162" t="s" s="2">
-        <v>288</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="N162" s="2"/>
       <c r="O162" t="s" s="2">
         <v>73</v>
       </c>
@@ -19699,34 +19716,34 @@
         <v>73</v>
       </c>
       <c r="AA162" t="s" s="2">
-        <v>73</v>
+        <v>159</v>
       </c>
       <c r="AB162" t="s" s="2">
-        <v>73</v>
+        <v>160</v>
       </c>
       <c r="AC162" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD162" t="s" s="2">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="AE162" t="s" s="2">
-        <v>289</v>
+        <v>161</v>
       </c>
       <c r="AF162" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG162" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH162" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI162" t="s" s="2">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="AJ162" t="s" s="2">
-        <v>290</v>
+        <v>156</v>
       </c>
       <c r="AK162" t="s" s="2">
         <v>73</v>
@@ -19737,7 +19754,7 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
@@ -19745,7 +19762,7 @@
       </c>
       <c r="D163" s="2"/>
       <c r="E163" t="s" s="2">
-        <v>74</v>
+        <v>527</v>
       </c>
       <c r="F163" t="s" s="2">
         <v>75</v>
@@ -19760,16 +19777,20 @@
         <v>83</v>
       </c>
       <c r="J163" t="s" s="2">
-        <v>434</v>
+        <v>241</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>559</v>
+        <v>528</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="M163" s="2"/>
-      <c r="N163" s="2"/>
+        <v>243</v>
+      </c>
+      <c r="M163" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="N163" t="s" s="2">
+        <v>245</v>
+      </c>
       <c r="O163" t="s" s="2">
         <v>73</v>
       </c>
@@ -19805,19 +19826,17 @@
         <v>73</v>
       </c>
       <c r="AA163" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB163" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="AB163" s="2"/>
       <c r="AC163" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD163" t="s" s="2">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="AE163" t="s" s="2">
-        <v>558</v>
+        <v>246</v>
       </c>
       <c r="AF163" t="s" s="2">
         <v>74</v>
@@ -19832,10 +19851,10 @@
         <v>94</v>
       </c>
       <c r="AJ163" t="s" s="2">
-        <v>561</v>
+        <v>247</v>
       </c>
       <c r="AK163" t="s" s="2">
-        <v>562</v>
+        <v>73</v>
       </c>
       <c r="AL163" t="s" s="2">
         <v>73</v>
@@ -19843,15 +19862,17 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="B164" s="2"/>
+        <v>552</v>
+      </c>
+      <c r="B164" t="s" s="2">
+        <v>529</v>
+      </c>
       <c r="C164" t="s" s="2">
         <v>73</v>
       </c>
       <c r="D164" s="2"/>
       <c r="E164" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F164" t="s" s="2">
         <v>82</v>
@@ -19863,19 +19884,23 @@
         <v>73</v>
       </c>
       <c r="I164" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J164" t="s" s="2">
-        <v>190</v>
+        <v>241</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>153</v>
+        <v>242</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="M164" s="2"/>
-      <c r="N164" s="2"/>
+        <v>243</v>
+      </c>
+      <c r="M164" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="N164" t="s" s="2">
+        <v>245</v>
+      </c>
       <c r="O164" t="s" s="2">
         <v>73</v>
       </c>
@@ -19923,22 +19948,22 @@
         <v>73</v>
       </c>
       <c r="AE164" t="s" s="2">
-        <v>155</v>
+        <v>246</v>
       </c>
       <c r="AF164" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG164" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH164" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI164" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AJ164" t="s" s="2">
-        <v>156</v>
+        <v>247</v>
       </c>
       <c r="AK164" t="s" s="2">
         <v>73</v>
@@ -19949,18 +19974,18 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>564</v>
+        <v>553</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D165" s="2"/>
       <c r="E165" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F165" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G165" t="s" s="2">
         <v>73</v>
@@ -19972,17 +19997,15 @@
         <v>73</v>
       </c>
       <c r="J165" t="s" s="2">
-        <v>128</v>
+        <v>84</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="M165" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="M165" s="2"/>
       <c r="N165" s="2"/>
       <c r="O165" t="s" s="2">
         <v>73</v>
@@ -20031,19 +20054,19 @@
         <v>73</v>
       </c>
       <c r="AE165" t="s" s="2">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="AF165" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG165" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH165" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI165" t="s" s="2">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="AJ165" t="s" s="2">
         <v>156</v>
@@ -20057,11 +20080,11 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
-        <v>441</v>
+        <v>127</v>
       </c>
       <c r="D166" s="2"/>
       <c r="E166" t="s" s="2">
@@ -20074,26 +20097,24 @@
         <v>73</v>
       </c>
       <c r="H166" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I166" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J166" t="s" s="2">
         <v>128</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>442</v>
+        <v>129</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>443</v>
+        <v>158</v>
       </c>
       <c r="M166" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="N166" t="s" s="2">
-        <v>137</v>
-      </c>
+      <c r="N166" s="2"/>
       <c r="O166" t="s" s="2">
         <v>73</v>
       </c>
@@ -20129,19 +20150,19 @@
         <v>73</v>
       </c>
       <c r="AA166" t="s" s="2">
-        <v>73</v>
+        <v>159</v>
       </c>
       <c r="AB166" t="s" s="2">
-        <v>73</v>
+        <v>160</v>
       </c>
       <c r="AC166" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD166" t="s" s="2">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="AE166" t="s" s="2">
-        <v>444</v>
+        <v>161</v>
       </c>
       <c r="AF166" t="s" s="2">
         <v>74</v>
@@ -20156,7 +20177,7 @@
         <v>133</v>
       </c>
       <c r="AJ166" t="s" s="2">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="AK166" t="s" s="2">
         <v>73</v>
@@ -20167,7 +20188,7 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>566</v>
+        <v>555</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -20190,16 +20211,20 @@
         <v>83</v>
       </c>
       <c r="J167" t="s" s="2">
-        <v>567</v>
+        <v>96</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>559</v>
+        <v>251</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="M167" s="2"/>
-      <c r="N167" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="M167" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="N167" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="O167" t="s" s="2">
         <v>73</v>
       </c>
@@ -20208,7 +20233,7 @@
         <v>73</v>
       </c>
       <c r="R167" t="s" s="2">
-        <v>73</v>
+        <v>556</v>
       </c>
       <c r="S167" t="s" s="2">
         <v>73</v>
@@ -20247,10 +20272,10 @@
         <v>73</v>
       </c>
       <c r="AE167" t="s" s="2">
-        <v>566</v>
+        <v>256</v>
       </c>
       <c r="AF167" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AG167" t="s" s="2">
         <v>82</v>
@@ -20262,10 +20287,10 @@
         <v>94</v>
       </c>
       <c r="AJ167" t="s" s="2">
-        <v>569</v>
+        <v>257</v>
       </c>
       <c r="AK167" t="s" s="2">
-        <v>562</v>
+        <v>73</v>
       </c>
       <c r="AL167" t="s" s="2">
         <v>73</v>
@@ -20273,7 +20298,7 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>570</v>
+        <v>557</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
@@ -20296,15 +20321,17 @@
         <v>83</v>
       </c>
       <c r="J168" t="s" s="2">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>571</v>
+        <v>259</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="M168" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="M168" t="s" s="2">
+        <v>261</v>
+      </c>
       <c r="N168" s="2"/>
       <c r="O168" t="s" s="2">
         <v>73</v>
@@ -20329,13 +20356,13 @@
         <v>73</v>
       </c>
       <c r="W168" t="s" s="2">
-        <v>217</v>
+        <v>73</v>
       </c>
       <c r="X168" t="s" s="2">
-        <v>448</v>
+        <v>73</v>
       </c>
       <c r="Y168" t="s" s="2">
-        <v>573</v>
+        <v>73</v>
       </c>
       <c r="Z168" t="s" s="2">
         <v>73</v>
@@ -20353,7 +20380,7 @@
         <v>73</v>
       </c>
       <c r="AE168" t="s" s="2">
-        <v>570</v>
+        <v>262</v>
       </c>
       <c r="AF168" t="s" s="2">
         <v>74</v>
@@ -20368,10 +20395,10 @@
         <v>94</v>
       </c>
       <c r="AJ168" t="s" s="2">
-        <v>574</v>
+        <v>263</v>
       </c>
       <c r="AK168" t="s" s="2">
-        <v>562</v>
+        <v>73</v>
       </c>
       <c r="AL168" t="s" s="2">
         <v>73</v>
@@ -20379,7 +20406,7 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>575</v>
+        <v>558</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
@@ -20390,7 +20417,7 @@
         <v>74</v>
       </c>
       <c r="F169" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G169" t="s" s="2">
         <v>73</v>
@@ -20402,16 +20429,18 @@
         <v>83</v>
       </c>
       <c r="J169" t="s" s="2">
-        <v>434</v>
+        <v>102</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>576</v>
+        <v>265</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>577</v>
+        <v>266</v>
       </c>
       <c r="M169" s="2"/>
-      <c r="N169" s="2"/>
+      <c r="N169" t="s" s="2">
+        <v>267</v>
+      </c>
       <c r="O169" t="s" s="2">
         <v>73</v>
       </c>
@@ -20459,13 +20488,13 @@
         <v>73</v>
       </c>
       <c r="AE169" t="s" s="2">
-        <v>575</v>
+        <v>268</v>
       </c>
       <c r="AF169" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG169" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH169" t="s" s="2">
         <v>73</v>
@@ -20474,10 +20503,10 @@
         <v>94</v>
       </c>
       <c r="AJ169" t="s" s="2">
-        <v>578</v>
+        <v>269</v>
       </c>
       <c r="AK169" t="s" s="2">
-        <v>579</v>
+        <v>73</v>
       </c>
       <c r="AL169" t="s" s="2">
         <v>73</v>
@@ -20485,7 +20514,7 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>580</v>
+        <v>559</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
@@ -20505,19 +20534,21 @@
         <v>73</v>
       </c>
       <c r="I170" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J170" t="s" s="2">
         <v>190</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>153</v>
+        <v>271</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>154</v>
+        <v>272</v>
       </c>
       <c r="M170" s="2"/>
-      <c r="N170" s="2"/>
+      <c r="N170" t="s" s="2">
+        <v>273</v>
+      </c>
       <c r="O170" t="s" s="2">
         <v>73</v>
       </c>
@@ -20565,7 +20596,7 @@
         <v>73</v>
       </c>
       <c r="AE170" t="s" s="2">
-        <v>155</v>
+        <v>274</v>
       </c>
       <c r="AF170" t="s" s="2">
         <v>74</v>
@@ -20577,10 +20608,10 @@
         <v>73</v>
       </c>
       <c r="AI170" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AJ170" t="s" s="2">
-        <v>156</v>
+        <v>275</v>
       </c>
       <c r="AK170" t="s" s="2">
         <v>73</v>
@@ -20591,18 +20622,18 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>581</v>
+        <v>560</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D171" s="2"/>
       <c r="E171" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F171" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G171" t="s" s="2">
         <v>73</v>
@@ -20611,21 +20642,23 @@
         <v>73</v>
       </c>
       <c r="I171" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J171" t="s" s="2">
-        <v>128</v>
+        <v>277</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>129</v>
+        <v>278</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>158</v>
+        <v>279</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N171" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="N171" t="s" s="2">
+        <v>281</v>
+      </c>
       <c r="O171" t="s" s="2">
         <v>73</v>
       </c>
@@ -20673,22 +20706,22 @@
         <v>73</v>
       </c>
       <c r="AE171" t="s" s="2">
-        <v>161</v>
+        <v>282</v>
       </c>
       <c r="AF171" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG171" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH171" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI171" t="s" s="2">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="AJ171" t="s" s="2">
-        <v>156</v>
+        <v>283</v>
       </c>
       <c r="AK171" t="s" s="2">
         <v>73</v>
@@ -20699,42 +20732,44 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="B172" s="2"/>
+        <v>552</v>
+      </c>
+      <c r="B172" t="s" s="2">
+        <v>561</v>
+      </c>
       <c r="C172" t="s" s="2">
-        <v>441</v>
+        <v>73</v>
       </c>
       <c r="D172" s="2"/>
       <c r="E172" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F172" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G172" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H172" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I172" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J172" t="s" s="2">
-        <v>128</v>
+        <v>241</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>442</v>
+        <v>242</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>443</v>
+        <v>243</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>131</v>
+        <v>244</v>
       </c>
       <c r="N172" t="s" s="2">
-        <v>137</v>
+        <v>245</v>
       </c>
       <c r="O172" t="s" s="2">
         <v>73</v>
@@ -20783,7 +20818,7 @@
         <v>73</v>
       </c>
       <c r="AE172" t="s" s="2">
-        <v>444</v>
+        <v>246</v>
       </c>
       <c r="AF172" t="s" s="2">
         <v>74</v>
@@ -20795,10 +20830,10 @@
         <v>73</v>
       </c>
       <c r="AI172" t="s" s="2">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="AJ172" t="s" s="2">
-        <v>125</v>
+        <v>247</v>
       </c>
       <c r="AK172" t="s" s="2">
         <v>73</v>
@@ -20809,7 +20844,7 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>583</v>
+        <v>553</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
@@ -20829,16 +20864,16 @@
         <v>73</v>
       </c>
       <c r="I173" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J173" t="s" s="2">
-        <v>584</v>
+        <v>84</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>585</v>
+        <v>153</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>586</v>
+        <v>154</v>
       </c>
       <c r="M173" s="2"/>
       <c r="N173" s="2"/>
@@ -20889,7 +20924,7 @@
         <v>73</v>
       </c>
       <c r="AE173" t="s" s="2">
-        <v>583</v>
+        <v>155</v>
       </c>
       <c r="AF173" t="s" s="2">
         <v>74</v>
@@ -20901,13 +20936,13 @@
         <v>73</v>
       </c>
       <c r="AI173" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ173" t="s" s="2">
-        <v>587</v>
+        <v>156</v>
       </c>
       <c r="AK173" t="s" s="2">
-        <v>588</v>
+        <v>73</v>
       </c>
       <c r="AL173" t="s" s="2">
         <v>73</v>
@@ -20915,18 +20950,18 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>589</v>
+        <v>554</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="D174" s="2"/>
       <c r="E174" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F174" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G174" t="s" s="2">
         <v>73</v>
@@ -20935,18 +20970,20 @@
         <v>73</v>
       </c>
       <c r="I174" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J174" t="s" s="2">
-        <v>198</v>
+        <v>128</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>590</v>
+        <v>129</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="M174" s="2"/>
+        <v>158</v>
+      </c>
+      <c r="M174" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="N174" s="2"/>
       <c r="O174" t="s" s="2">
         <v>73</v>
@@ -20983,37 +21020,37 @@
         <v>73</v>
       </c>
       <c r="AA174" t="s" s="2">
-        <v>73</v>
+        <v>159</v>
       </c>
       <c r="AB174" t="s" s="2">
-        <v>73</v>
+        <v>160</v>
       </c>
       <c r="AC174" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD174" t="s" s="2">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="AE174" t="s" s="2">
-        <v>589</v>
+        <v>161</v>
       </c>
       <c r="AF174" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG174" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH174" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI174" t="s" s="2">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="AJ174" t="s" s="2">
-        <v>592</v>
+        <v>156</v>
       </c>
       <c r="AK174" t="s" s="2">
-        <v>593</v>
+        <v>73</v>
       </c>
       <c r="AL174" t="s" s="2">
         <v>73</v>
@@ -21021,7 +21058,7 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>594</v>
+        <v>555</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -21029,10 +21066,10 @@
       </c>
       <c r="D175" s="2"/>
       <c r="E175" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F175" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G175" t="s" s="2">
         <v>73</v>
@@ -21044,16 +21081,20 @@
         <v>83</v>
       </c>
       <c r="J175" t="s" s="2">
-        <v>204</v>
+        <v>96</v>
       </c>
       <c r="K175" t="s" s="2">
-        <v>595</v>
+        <v>251</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="M175" s="2"/>
-      <c r="N175" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="M175" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="N175" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="O175" t="s" s="2">
         <v>73</v>
       </c>
@@ -21062,7 +21103,7 @@
         <v>73</v>
       </c>
       <c r="R175" t="s" s="2">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="S175" t="s" s="2">
         <v>73</v>
@@ -21101,13 +21142,13 @@
         <v>73</v>
       </c>
       <c r="AE175" t="s" s="2">
-        <v>594</v>
+        <v>256</v>
       </c>
       <c r="AF175" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG175" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH175" t="s" s="2">
         <v>73</v>
@@ -21116,10 +21157,10 @@
         <v>94</v>
       </c>
       <c r="AJ175" t="s" s="2">
-        <v>597</v>
+        <v>257</v>
       </c>
       <c r="AK175" t="s" s="2">
-        <v>598</v>
+        <v>73</v>
       </c>
       <c r="AL175" t="s" s="2">
         <v>73</v>
@@ -21127,7 +21168,7 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>599</v>
+        <v>557</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" t="s" s="2">
@@ -21150,15 +21191,17 @@
         <v>83</v>
       </c>
       <c r="J176" t="s" s="2">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="K176" t="s" s="2">
-        <v>600</v>
+        <v>259</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="M176" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="M176" t="s" s="2">
+        <v>261</v>
+      </c>
       <c r="N176" s="2"/>
       <c r="O176" t="s" s="2">
         <v>73</v>
@@ -21183,13 +21226,13 @@
         <v>73</v>
       </c>
       <c r="W176" t="s" s="2">
-        <v>217</v>
+        <v>73</v>
       </c>
       <c r="X176" t="s" s="2">
-        <v>602</v>
+        <v>73</v>
       </c>
       <c r="Y176" t="s" s="2">
-        <v>603</v>
+        <v>73</v>
       </c>
       <c r="Z176" t="s" s="2">
         <v>73</v>
@@ -21207,7 +21250,7 @@
         <v>73</v>
       </c>
       <c r="AE176" t="s" s="2">
-        <v>599</v>
+        <v>262</v>
       </c>
       <c r="AF176" t="s" s="2">
         <v>74</v>
@@ -21222,10 +21265,10 @@
         <v>94</v>
       </c>
       <c r="AJ176" t="s" s="2">
-        <v>604</v>
+        <v>263</v>
       </c>
       <c r="AK176" t="s" s="2">
-        <v>605</v>
+        <v>73</v>
       </c>
       <c r="AL176" t="s" s="2">
         <v>73</v>
@@ -21233,7 +21276,7 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>606</v>
+        <v>558</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
@@ -21244,7 +21287,7 @@
         <v>74</v>
       </c>
       <c r="F177" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G177" t="s" s="2">
         <v>73</v>
@@ -21256,16 +21299,18 @@
         <v>83</v>
       </c>
       <c r="J177" t="s" s="2">
-        <v>434</v>
+        <v>102</v>
       </c>
       <c r="K177" t="s" s="2">
-        <v>607</v>
+        <v>265</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>608</v>
+        <v>266</v>
       </c>
       <c r="M177" s="2"/>
-      <c r="N177" s="2"/>
+      <c r="N177" t="s" s="2">
+        <v>267</v>
+      </c>
       <c r="O177" t="s" s="2">
         <v>73</v>
       </c>
@@ -21313,13 +21358,13 @@
         <v>73</v>
       </c>
       <c r="AE177" t="s" s="2">
-        <v>606</v>
+        <v>268</v>
       </c>
       <c r="AF177" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG177" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH177" t="s" s="2">
         <v>73</v>
@@ -21328,10 +21373,10 @@
         <v>94</v>
       </c>
       <c r="AJ177" t="s" s="2">
-        <v>609</v>
+        <v>269</v>
       </c>
       <c r="AK177" t="s" s="2">
-        <v>610</v>
+        <v>73</v>
       </c>
       <c r="AL177" t="s" s="2">
         <v>73</v>
@@ -21339,7 +21384,7 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>611</v>
+        <v>559</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
@@ -21359,19 +21404,21 @@
         <v>73</v>
       </c>
       <c r="I178" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J178" t="s" s="2">
         <v>190</v>
       </c>
       <c r="K178" t="s" s="2">
-        <v>153</v>
+        <v>271</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>154</v>
+        <v>272</v>
       </c>
       <c r="M178" s="2"/>
-      <c r="N178" s="2"/>
+      <c r="N178" t="s" s="2">
+        <v>273</v>
+      </c>
       <c r="O178" t="s" s="2">
         <v>73</v>
       </c>
@@ -21419,7 +21466,7 @@
         <v>73</v>
       </c>
       <c r="AE178" t="s" s="2">
-        <v>155</v>
+        <v>274</v>
       </c>
       <c r="AF178" t="s" s="2">
         <v>74</v>
@@ -21431,10 +21478,10 @@
         <v>73</v>
       </c>
       <c r="AI178" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AJ178" t="s" s="2">
-        <v>156</v>
+        <v>275</v>
       </c>
       <c r="AK178" t="s" s="2">
         <v>73</v>
@@ -21445,18 +21492,18 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>612</v>
+        <v>560</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D179" s="2"/>
       <c r="E179" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F179" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G179" t="s" s="2">
         <v>73</v>
@@ -21465,21 +21512,23 @@
         <v>73</v>
       </c>
       <c r="I179" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J179" t="s" s="2">
-        <v>128</v>
+        <v>277</v>
       </c>
       <c r="K179" t="s" s="2">
-        <v>129</v>
+        <v>278</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>158</v>
+        <v>279</v>
       </c>
       <c r="M179" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N179" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="N179" t="s" s="2">
+        <v>281</v>
+      </c>
       <c r="O179" t="s" s="2">
         <v>73</v>
       </c>
@@ -21527,22 +21576,22 @@
         <v>73</v>
       </c>
       <c r="AE179" t="s" s="2">
-        <v>161</v>
+        <v>282</v>
       </c>
       <c r="AF179" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG179" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH179" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI179" t="s" s="2">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="AJ179" t="s" s="2">
-        <v>156</v>
+        <v>283</v>
       </c>
       <c r="AK179" t="s" s="2">
         <v>73</v>
@@ -21553,42 +21602,42 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>613</v>
+        <v>562</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" t="s" s="2">
-        <v>441</v>
+        <v>73</v>
       </c>
       <c r="D180" s="2"/>
       <c r="E180" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F180" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G180" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H180" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I180" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J180" t="s" s="2">
-        <v>128</v>
+        <v>190</v>
       </c>
       <c r="K180" t="s" s="2">
-        <v>442</v>
+        <v>285</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>443</v>
+        <v>286</v>
       </c>
       <c r="M180" t="s" s="2">
-        <v>131</v>
+        <v>287</v>
       </c>
       <c r="N180" t="s" s="2">
-        <v>137</v>
+        <v>288</v>
       </c>
       <c r="O180" t="s" s="2">
         <v>73</v>
@@ -21637,22 +21686,22 @@
         <v>73</v>
       </c>
       <c r="AE180" t="s" s="2">
-        <v>444</v>
+        <v>289</v>
       </c>
       <c r="AF180" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG180" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH180" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI180" t="s" s="2">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="AJ180" t="s" s="2">
-        <v>125</v>
+        <v>290</v>
       </c>
       <c r="AK180" t="s" s="2">
         <v>73</v>
@@ -21663,7 +21712,7 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>614</v>
+        <v>563</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" t="s" s="2">
@@ -21671,10 +21720,10 @@
       </c>
       <c r="D181" s="2"/>
       <c r="E181" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F181" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G181" t="s" s="2">
         <v>73</v>
@@ -21686,13 +21735,13 @@
         <v>83</v>
       </c>
       <c r="J181" t="s" s="2">
-        <v>172</v>
+        <v>434</v>
       </c>
       <c r="K181" t="s" s="2">
-        <v>615</v>
+        <v>564</v>
       </c>
       <c r="L181" t="s" s="2">
-        <v>616</v>
+        <v>565</v>
       </c>
       <c r="M181" s="2"/>
       <c r="N181" s="2"/>
@@ -21719,13 +21768,13 @@
         <v>73</v>
       </c>
       <c r="W181" t="s" s="2">
-        <v>217</v>
+        <v>73</v>
       </c>
       <c r="X181" t="s" s="2">
-        <v>617</v>
+        <v>73</v>
       </c>
       <c r="Y181" t="s" s="2">
-        <v>618</v>
+        <v>73</v>
       </c>
       <c r="Z181" t="s" s="2">
         <v>73</v>
@@ -21743,13 +21792,13 @@
         <v>73</v>
       </c>
       <c r="AE181" t="s" s="2">
-        <v>614</v>
+        <v>563</v>
       </c>
       <c r="AF181" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AG181" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH181" t="s" s="2">
         <v>73</v>
@@ -21758,10 +21807,10 @@
         <v>94</v>
       </c>
       <c r="AJ181" t="s" s="2">
-        <v>619</v>
+        <v>566</v>
       </c>
       <c r="AK181" t="s" s="2">
-        <v>620</v>
+        <v>567</v>
       </c>
       <c r="AL181" t="s" s="2">
         <v>73</v>
@@ -21769,7 +21818,7 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>621</v>
+        <v>568</v>
       </c>
       <c r="B182" s="2"/>
       <c r="C182" t="s" s="2">
@@ -21789,20 +21838,18 @@
         <v>73</v>
       </c>
       <c r="I182" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J182" t="s" s="2">
-        <v>622</v>
+        <v>190</v>
       </c>
       <c r="K182" t="s" s="2">
-        <v>623</v>
+        <v>153</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>624</v>
-      </c>
-      <c r="M182" t="s" s="2">
-        <v>625</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="M182" s="2"/>
       <c r="N182" s="2"/>
       <c r="O182" t="s" s="2">
         <v>73</v>
@@ -21851,27 +21898,1955 @@
         <v>73</v>
       </c>
       <c r="AE182" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AF182" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG182" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH182" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI182" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ182" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="AK182" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL182" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="B183" s="2"/>
+      <c r="C183" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="D183" s="2"/>
+      <c r="E183" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F183" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G183" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H183" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I183" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J183" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K183" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L183" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M183" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N183" s="2"/>
+      <c r="O183" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P183" s="2"/>
+      <c r="Q183" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R183" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S183" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T183" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U183" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V183" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W183" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X183" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y183" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z183" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA183" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB183" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC183" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD183" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE183" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AF183" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG183" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH183" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI183" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AJ183" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="AK183" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL183" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="B184" s="2"/>
+      <c r="C184" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="D184" s="2"/>
+      <c r="E184" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F184" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G184" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H184" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I184" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J184" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K184" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="L184" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="M184" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N184" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="O184" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P184" s="2"/>
+      <c r="Q184" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R184" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S184" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T184" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U184" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V184" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W184" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X184" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y184" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z184" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA184" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB184" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC184" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD184" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE184" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AF184" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG184" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH184" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI184" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AJ184" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AK184" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL184" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="B185" s="2"/>
+      <c r="C185" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D185" s="2"/>
+      <c r="E185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="F185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G185" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H185" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I185" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J185" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="K185" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="L185" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="M185" s="2"/>
+      <c r="N185" s="2"/>
+      <c r="O185" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P185" s="2"/>
+      <c r="Q185" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R185" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S185" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T185" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U185" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V185" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W185" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X185" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y185" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z185" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA185" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB185" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC185" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD185" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE185" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="AF185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AG185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH185" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI185" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ185" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="AK185" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="AL185" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="B186" s="2"/>
+      <c r="C186" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D186" s="2"/>
+      <c r="E186" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F186" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G186" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H186" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I186" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J186" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="K186" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="L186" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="M186" s="2"/>
+      <c r="N186" s="2"/>
+      <c r="O186" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P186" s="2"/>
+      <c r="Q186" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R186" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S186" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T186" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U186" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V186" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W186" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="X186" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="Y186" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="Z186" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA186" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB186" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC186" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD186" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE186" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="AF186" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG186" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH186" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI186" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ186" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="AK186" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="AL186" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="B187" s="2"/>
+      <c r="C187" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D187" s="2"/>
+      <c r="E187" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F187" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G187" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H187" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I187" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J187" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="K187" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="L187" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="M187" s="2"/>
+      <c r="N187" s="2"/>
+      <c r="O187" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P187" s="2"/>
+      <c r="Q187" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R187" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S187" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T187" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U187" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V187" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W187" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X187" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y187" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z187" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA187" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB187" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC187" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD187" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE187" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="AF187" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG187" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH187" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI187" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ187" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="AK187" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="AL187" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="B188" s="2"/>
+      <c r="C188" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D188" s="2"/>
+      <c r="E188" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F188" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G188" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H188" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I188" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J188" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="K188" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="L188" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="M188" s="2"/>
+      <c r="N188" s="2"/>
+      <c r="O188" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P188" s="2"/>
+      <c r="Q188" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R188" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S188" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T188" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U188" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V188" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W188" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X188" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y188" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z188" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA188" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB188" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC188" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD188" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE188" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AF188" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG188" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH188" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI188" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ188" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="AK188" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL188" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="B189" s="2"/>
+      <c r="C189" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="D189" s="2"/>
+      <c r="E189" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F189" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G189" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H189" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I189" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J189" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K189" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L189" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M189" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N189" s="2"/>
+      <c r="O189" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P189" s="2"/>
+      <c r="Q189" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R189" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S189" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T189" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U189" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V189" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W189" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X189" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y189" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z189" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA189" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB189" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC189" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD189" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE189" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AF189" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG189" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH189" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI189" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AJ189" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="AK189" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL189" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="B190" s="2"/>
+      <c r="C190" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="D190" s="2"/>
+      <c r="E190" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F190" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G190" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H190" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I190" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J190" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K190" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="L190" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="M190" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N190" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="O190" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P190" s="2"/>
+      <c r="Q190" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R190" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S190" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T190" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U190" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V190" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W190" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X190" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y190" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z190" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA190" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB190" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC190" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD190" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE190" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AF190" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG190" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH190" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI190" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AJ190" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AK190" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL190" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="B191" s="2"/>
+      <c r="C191" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D191" s="2"/>
+      <c r="E191" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F191" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G191" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H191" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I191" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J191" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="K191" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="L191" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="M191" s="2"/>
+      <c r="N191" s="2"/>
+      <c r="O191" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P191" s="2"/>
+      <c r="Q191" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R191" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S191" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T191" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U191" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V191" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W191" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X191" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y191" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z191" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA191" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB191" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC191" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD191" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE191" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="AF191" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG191" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH191" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI191" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ191" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="AK191" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="AL191" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="B192" s="2"/>
+      <c r="C192" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D192" s="2"/>
+      <c r="E192" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F192" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G192" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H192" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I192" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J192" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="K192" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="L192" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="M192" s="2"/>
+      <c r="N192" s="2"/>
+      <c r="O192" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P192" s="2"/>
+      <c r="Q192" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R192" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S192" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T192" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U192" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V192" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W192" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X192" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y192" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z192" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA192" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB192" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC192" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD192" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE192" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="AF192" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG192" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH192" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI192" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ192" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="AK192" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="AL192" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="B193" s="2"/>
+      <c r="C193" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D193" s="2"/>
+      <c r="E193" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F193" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G193" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H193" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I193" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J193" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="K193" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="L193" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="M193" s="2"/>
+      <c r="N193" s="2"/>
+      <c r="O193" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P193" s="2"/>
+      <c r="Q193" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R193" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S193" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T193" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U193" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V193" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W193" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X193" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y193" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z193" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA193" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB193" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC193" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD193" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE193" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="AF193" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG193" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH193" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI193" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ193" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="AK193" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="AL193" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="B194" s="2"/>
+      <c r="C194" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D194" s="2"/>
+      <c r="E194" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F194" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G194" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H194" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I194" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J194" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="K194" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="L194" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="M194" s="2"/>
+      <c r="N194" s="2"/>
+      <c r="O194" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P194" s="2"/>
+      <c r="Q194" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R194" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S194" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T194" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U194" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V194" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W194" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="X194" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="Y194" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="Z194" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA194" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB194" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC194" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD194" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE194" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="AF194" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG194" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH194" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI194" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ194" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="AK194" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="AL194" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="B195" s="2"/>
+      <c r="C195" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D195" s="2"/>
+      <c r="E195" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F195" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G195" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H195" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I195" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J195" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="K195" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="L195" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="M195" s="2"/>
+      <c r="N195" s="2"/>
+      <c r="O195" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P195" s="2"/>
+      <c r="Q195" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R195" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S195" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T195" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U195" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V195" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W195" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X195" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y195" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z195" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA195" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB195" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC195" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD195" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE195" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="AF195" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG195" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH195" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI195" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ195" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="AK195" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="AL195" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="B196" s="2"/>
+      <c r="C196" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D196" s="2"/>
+      <c r="E196" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F196" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G196" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H196" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I196" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J196" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="K196" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="L196" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="M196" s="2"/>
+      <c r="N196" s="2"/>
+      <c r="O196" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P196" s="2"/>
+      <c r="Q196" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R196" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S196" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T196" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U196" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V196" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W196" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X196" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y196" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z196" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA196" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB196" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC196" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD196" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE196" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AF196" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG196" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH196" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI196" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ196" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="AK196" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL196" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="B197" s="2"/>
+      <c r="C197" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="D197" s="2"/>
+      <c r="E197" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F197" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G197" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H197" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I197" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J197" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K197" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L197" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M197" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N197" s="2"/>
+      <c r="O197" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P197" s="2"/>
+      <c r="Q197" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R197" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S197" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T197" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U197" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V197" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W197" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X197" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y197" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z197" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA197" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB197" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC197" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD197" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE197" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AF197" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG197" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH197" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI197" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AJ197" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="AK197" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL197" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="B198" s="2"/>
+      <c r="C198" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="D198" s="2"/>
+      <c r="E198" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F198" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G198" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H198" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I198" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J198" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K198" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="L198" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="M198" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N198" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="O198" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P198" s="2"/>
+      <c r="Q198" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R198" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S198" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T198" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U198" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V198" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W198" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X198" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y198" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z198" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA198" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB198" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC198" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD198" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE198" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AF198" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG198" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH198" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI198" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AJ198" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AK198" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL198" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="B199" s="2"/>
+      <c r="C199" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D199" s="2"/>
+      <c r="E199" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="F199" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G199" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H199" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I199" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J199" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="K199" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="L199" t="s" s="2">
         <v>621</v>
       </c>
-      <c r="AF182" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG182" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH182" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI182" t="s" s="2">
+      <c r="M199" s="2"/>
+      <c r="N199" s="2"/>
+      <c r="O199" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P199" s="2"/>
+      <c r="Q199" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R199" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S199" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T199" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U199" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V199" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W199" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="X199" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="Y199" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="Z199" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA199" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB199" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC199" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD199" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE199" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="AF199" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AG199" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH199" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI199" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="AJ182" t="s" s="2">
+      <c r="AJ199" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="AK199" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="AL199" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s" s="2">
         <v>626</v>
       </c>
-      <c r="AK182" t="s" s="2">
+      <c r="B200" s="2"/>
+      <c r="C200" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D200" s="2"/>
+      <c r="E200" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F200" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G200" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H200" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I200" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J200" t="s" s="2">
         <v>627</v>
       </c>
-      <c r="AL182" t="s" s="2">
+      <c r="K200" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="L200" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="M200" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="N200" s="2"/>
+      <c r="O200" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P200" s="2"/>
+      <c r="Q200" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R200" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S200" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T200" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U200" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V200" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W200" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X200" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y200" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z200" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA200" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB200" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC200" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD200" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE200" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="AF200" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG200" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH200" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI200" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ200" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="AK200" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="AL200" t="s" s="2">
         <v>73</v>
       </c>
     </row>

--- a/StructureDefinition-PPLMedicinalProductDefinition.xlsx
+++ b/StructureDefinition-PPLMedicinalProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-23T19:27:30+00:00</t>
+    <t>2022-10-23T19:35:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLMedicinalProductDefinition.xlsx
+++ b/StructureDefinition-PPLMedicinalProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-23T19:35:12+00:00</t>
+    <t>2022-10-23T20:13:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLMedicinalProductDefinition.xlsx
+++ b/StructureDefinition-PPLMedicinalProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-23T20:13:34+00:00</t>
+    <t>2022-10-25T12:14:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLMedicinalProductDefinition.xlsx
+++ b/StructureDefinition-PPLMedicinalProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-25T12:14:01+00:00</t>
+    <t>2022-10-25T13:47:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLMedicinalProductDefinition.xlsx
+++ b/StructureDefinition-PPLMedicinalProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-25T13:47:24+00:00</t>
+    <t>2022-10-30T17:01:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLMedicinalProductDefinition.xlsx
+++ b/StructureDefinition-PPLMedicinalProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-30T18:15:34+00:00</t>
+    <t>2022-10-30T20:04:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLMedicinalProductDefinition.xlsx
+++ b/StructureDefinition-PPLMedicinalProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-30T20:04:00+00:00</t>
+    <t>2022-10-30T21:50:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLMedicinalProductDefinition.xlsx
+++ b/StructureDefinition-PPLMedicinalProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-30T21:50:47+00:00</t>
+    <t>2022-10-30T22:04:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLMedicinalProductDefinition.xlsx
+++ b/StructureDefinition-PPLMedicinalProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-30T22:04:36+00:00</t>
+    <t>2022-10-30T22:13:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLMedicinalProductDefinition.xlsx
+++ b/StructureDefinition-PPLMedicinalProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-30T22:13:17+00:00</t>
+    <t>2022-11-02T06:16:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLMedicinalProductDefinition.xlsx
+++ b/StructureDefinition-PPLMedicinalProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-02T06:16:24+00:00</t>
+    <t>2022-11-02T20:48:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -949,7 +949,7 @@
     <t>MedicinalProductDefinition.combinedPharmaceuticalDoseForm</t>
   </si>
   <si>
-    <t>Authorised dose form for the product</t>
+    <t>Authorised dose form for the product, incl combination package dose forms</t>
   </si>
   <si>
     <t>Authorised dose form for the whole product. As applicable in one of the SPOR RMS list Combined pharmaceutical dose form, Pharmaceutical dose form, Combined term, Combination Package</t>

--- a/StructureDefinition-PPLMedicinalProductDefinition.xlsx
+++ b/StructureDefinition-PPLMedicinalProductDefinition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7110" uniqueCount="635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7110" uniqueCount="636">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-02T20:48:31+00:00</t>
+    <t>2022-11-03T14:07:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1765,6 +1765,9 @@
   </si>
   <si>
     <t>bcp</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/all-languages</t>
   </si>
   <si>
     <t>MedicinalProductDefinition.name.usage.language.text</t>
@@ -22089,7 +22092,7 @@
         <v>73</v>
       </c>
       <c r="R184" t="s" s="2">
-        <v>108</v>
+        <v>564</v>
       </c>
       <c r="S184" t="s" s="2">
         <v>73</v>
@@ -22588,7 +22591,7 @@
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" t="s" s="2">
@@ -22698,7 +22701,7 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B190" s="2"/>
       <c r="C190" t="s" s="2">
@@ -22724,10 +22727,10 @@
         <v>437</v>
       </c>
       <c r="K190" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="L190" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="M190" s="2"/>
       <c r="N190" s="2"/>
@@ -22778,7 +22781,7 @@
         <v>73</v>
       </c>
       <c r="AE190" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AF190" t="s" s="2">
         <v>74</v>
@@ -22793,10 +22796,10 @@
         <v>94</v>
       </c>
       <c r="AJ190" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AK190" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AL190" t="s" s="2">
         <v>73</v>
@@ -22804,7 +22807,7 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B191" s="2"/>
       <c r="C191" t="s" s="2">
@@ -22910,7 +22913,7 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" t="s" s="2">
@@ -23018,7 +23021,7 @@
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B193" s="2"/>
       <c r="C193" t="s" s="2">
@@ -23128,7 +23131,7 @@
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B194" s="2"/>
       <c r="C194" t="s" s="2">
@@ -23151,13 +23154,13 @@
         <v>83</v>
       </c>
       <c r="J194" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="K194" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="L194" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="M194" s="2"/>
       <c r="N194" s="2"/>
@@ -23208,7 +23211,7 @@
         <v>73</v>
       </c>
       <c r="AE194" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AF194" t="s" s="2">
         <v>82</v>
@@ -23223,10 +23226,10 @@
         <v>94</v>
       </c>
       <c r="AJ194" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AK194" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AL194" t="s" s="2">
         <v>73</v>
@@ -23234,7 +23237,7 @@
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B195" s="2"/>
       <c r="C195" t="s" s="2">
@@ -23260,10 +23263,10 @@
         <v>172</v>
       </c>
       <c r="K195" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="L195" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="M195" s="2"/>
       <c r="N195" s="2"/>
@@ -23296,7 +23299,7 @@
         <v>451</v>
       </c>
       <c r="Y195" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="Z195" t="s" s="2">
         <v>73</v>
@@ -23314,7 +23317,7 @@
         <v>73</v>
       </c>
       <c r="AE195" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AF195" t="s" s="2">
         <v>74</v>
@@ -23329,10 +23332,10 @@
         <v>94</v>
       </c>
       <c r="AJ195" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AK195" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AL195" t="s" s="2">
         <v>73</v>
@@ -23340,7 +23343,7 @@
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B196" s="2"/>
       <c r="C196" t="s" s="2">
@@ -23366,10 +23369,10 @@
         <v>437</v>
       </c>
       <c r="K196" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="L196" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="M196" s="2"/>
       <c r="N196" s="2"/>
@@ -23420,7 +23423,7 @@
         <v>73</v>
       </c>
       <c r="AE196" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AF196" t="s" s="2">
         <v>74</v>
@@ -23435,10 +23438,10 @@
         <v>94</v>
       </c>
       <c r="AJ196" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AK196" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AL196" t="s" s="2">
         <v>73</v>
@@ -23446,7 +23449,7 @@
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B197" s="2"/>
       <c r="C197" t="s" s="2">
@@ -23552,7 +23555,7 @@
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B198" s="2"/>
       <c r="C198" t="s" s="2">
@@ -23660,7 +23663,7 @@
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B199" s="2"/>
       <c r="C199" t="s" s="2">
@@ -23770,7 +23773,7 @@
     </row>
     <row r="200">
       <c r="A200" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B200" s="2"/>
       <c r="C200" t="s" s="2">
@@ -23793,13 +23796,13 @@
         <v>83</v>
       </c>
       <c r="J200" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="K200" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="L200" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="M200" s="2"/>
       <c r="N200" s="2"/>
@@ -23850,7 +23853,7 @@
         <v>73</v>
       </c>
       <c r="AE200" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AF200" t="s" s="2">
         <v>74</v>
@@ -23865,10 +23868,10 @@
         <v>94</v>
       </c>
       <c r="AJ200" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AK200" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AL200" t="s" s="2">
         <v>73</v>
@@ -23876,7 +23879,7 @@
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B201" s="2"/>
       <c r="C201" t="s" s="2">
@@ -23902,10 +23905,10 @@
         <v>198</v>
       </c>
       <c r="K201" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="L201" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="M201" s="2"/>
       <c r="N201" s="2"/>
@@ -23956,7 +23959,7 @@
         <v>73</v>
       </c>
       <c r="AE201" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AF201" t="s" s="2">
         <v>74</v>
@@ -23971,10 +23974,10 @@
         <v>94</v>
       </c>
       <c r="AJ201" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AK201" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AL201" t="s" s="2">
         <v>73</v>
@@ -23982,7 +23985,7 @@
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B202" s="2"/>
       <c r="C202" t="s" s="2">
@@ -24008,10 +24011,10 @@
         <v>204</v>
       </c>
       <c r="K202" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="L202" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="M202" s="2"/>
       <c r="N202" s="2"/>
@@ -24062,7 +24065,7 @@
         <v>73</v>
       </c>
       <c r="AE202" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AF202" t="s" s="2">
         <v>74</v>
@@ -24077,10 +24080,10 @@
         <v>94</v>
       </c>
       <c r="AJ202" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AK202" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AL202" t="s" s="2">
         <v>73</v>
@@ -24088,7 +24091,7 @@
     </row>
     <row r="203">
       <c r="A203" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B203" s="2"/>
       <c r="C203" t="s" s="2">
@@ -24114,10 +24117,10 @@
         <v>172</v>
       </c>
       <c r="K203" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="L203" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="M203" s="2"/>
       <c r="N203" s="2"/>
@@ -24147,10 +24150,10 @@
         <v>217</v>
       </c>
       <c r="X203" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="Y203" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="Z203" t="s" s="2">
         <v>73</v>
@@ -24168,7 +24171,7 @@
         <v>73</v>
       </c>
       <c r="AE203" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AF203" t="s" s="2">
         <v>74</v>
@@ -24183,10 +24186,10 @@
         <v>94</v>
       </c>
       <c r="AJ203" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AK203" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AL203" t="s" s="2">
         <v>73</v>
@@ -24194,7 +24197,7 @@
     </row>
     <row r="204">
       <c r="A204" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B204" s="2"/>
       <c r="C204" t="s" s="2">
@@ -24220,10 +24223,10 @@
         <v>437</v>
       </c>
       <c r="K204" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="L204" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="M204" s="2"/>
       <c r="N204" s="2"/>
@@ -24274,7 +24277,7 @@
         <v>73</v>
       </c>
       <c r="AE204" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AF204" t="s" s="2">
         <v>74</v>
@@ -24289,10 +24292,10 @@
         <v>94</v>
       </c>
       <c r="AJ204" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AK204" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AL204" t="s" s="2">
         <v>73</v>
@@ -24300,7 +24303,7 @@
     </row>
     <row r="205">
       <c r="A205" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B205" s="2"/>
       <c r="C205" t="s" s="2">
@@ -24406,7 +24409,7 @@
     </row>
     <row r="206">
       <c r="A206" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B206" s="2"/>
       <c r="C206" t="s" s="2">
@@ -24514,7 +24517,7 @@
     </row>
     <row r="207">
       <c r="A207" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B207" s="2"/>
       <c r="C207" t="s" s="2">
@@ -24624,7 +24627,7 @@
     </row>
     <row r="208">
       <c r="A208" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B208" s="2"/>
       <c r="C208" t="s" s="2">
@@ -24650,10 +24653,10 @@
         <v>172</v>
       </c>
       <c r="K208" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="L208" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="M208" s="2"/>
       <c r="N208" s="2"/>
@@ -24683,10 +24686,10 @@
         <v>217</v>
       </c>
       <c r="X208" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="Y208" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="Z208" t="s" s="2">
         <v>73</v>
@@ -24704,7 +24707,7 @@
         <v>73</v>
       </c>
       <c r="AE208" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AF208" t="s" s="2">
         <v>82</v>
@@ -24719,10 +24722,10 @@
         <v>94</v>
       </c>
       <c r="AJ208" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="AK208" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="AL208" t="s" s="2">
         <v>73</v>
@@ -24730,7 +24733,7 @@
     </row>
     <row r="209">
       <c r="A209" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B209" s="2"/>
       <c r="C209" t="s" s="2">
@@ -24753,16 +24756,16 @@
         <v>83</v>
       </c>
       <c r="J209" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="K209" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="L209" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="M209" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="N209" s="2"/>
       <c r="O209" t="s" s="2">
@@ -24812,7 +24815,7 @@
         <v>73</v>
       </c>
       <c r="AE209" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AF209" t="s" s="2">
         <v>74</v>
@@ -24827,10 +24830,10 @@
         <v>94</v>
       </c>
       <c r="AJ209" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AK209" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="AL209" t="s" s="2">
         <v>73</v>

--- a/StructureDefinition-PPLMedicinalProductDefinition.xlsx
+++ b/StructureDefinition-PPLMedicinalProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-05T15:30:00+00:00</t>
+    <t>2022-11-05T15:35:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLMedicinalProductDefinition.xlsx
+++ b/StructureDefinition-PPLMedicinalProductDefinition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7110" uniqueCount="636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7110" uniqueCount="641">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-05T15:35:25+00:00</t>
+    <t>2022-11-06T17:03:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -459,7 +459,7 @@
     <t>Identifier for the medicinal product: MPID, EMA PMS ID, national ID, or other</t>
   </si>
   <si>
-    <t>Identifier for the medicinal product: MPID, EMA PMS ID, national ID, or other. Not to be used for package or pharmaceutical product identifiers.</t>
+    <t>EMA IG 1.2 &amp; 1.3. Identifier for the medicinal product: MPID, EMA PMS ID, national ID, or other. Not to be used for package or pharmaceutical product identifiers.</t>
   </si>
   <si>
     <t xml:space="preserve">pattern:system}
@@ -484,7 +484,7 @@
     <t>MPID</t>
   </si>
   <si>
-    <t xml:space="preserve">MPID if exists. For UNICOM testing data fake MPIDs are used (Country code + MAH LocID + unique code). </t>
+    <t xml:space="preserve">EMA IG 1.2. MPID if exists. For UNICOM testing data fake MPIDs are used (Country code + MAH LocID + unique code). </t>
   </si>
   <si>
     <t>MedicinalProductDefinition.identifier.id</t>
@@ -672,7 +672,7 @@
     <t>PMS ID</t>
   </si>
   <si>
-    <t>EMA Product Management System identifier if exists. For UNICOM testing data fake PMS IDs can be used</t>
+    <t>EMA IG 1.1. EMA Product Management System identifier if exists. For UNICOM testing data fake PMS IDs can be used</t>
   </si>
   <si>
     <t>http://ema.europa.eu/fhir/pmsId</t>
@@ -708,7 +708,7 @@
     <t>If this medicine applies to human or veterinary uses</t>
   </si>
   <si>
-    <t>If this medicine applies to human or veterinary uses.</t>
+    <t>EMA IG 1.3</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
@@ -952,7 +952,7 @@
     <t>Authorised dose form for the product, incl combination package dose forms</t>
   </si>
   <si>
-    <t>Authorised dose form for the whole product. As applicable in one of the SPOR RMS list Combined pharmaceutical dose form, Pharmaceutical dose form, Combined term, Combination Package</t>
+    <t>EMA IG 1.5 &amp; 1.6. Authorised dose form for the whole product. As applicable in one of the SPOR RMS list Combined pharmaceutical dose form, Pharmaceutical dose form, Combined term, Combination Package</t>
   </si>
   <si>
     <t>Dose forms for a product as a whole, considering all individual parts, but before any mixing</t>
@@ -1045,7 +1045,7 @@
     <t>Legal status of supply on the medicinal product level.</t>
   </si>
   <si>
-    <t>Legal status of supply on the medicinal product level. The same information can be repeated/differentiated on the package level</t>
+    <t>EMA IG 1.7. Legal status of supply on the medicinal product level. The same information can be repeated/differentiated on the package level</t>
   </si>
   <si>
     <t>The prescription supply types appropriate to a medicinal product</t>
@@ -1162,7 +1162,7 @@
     <t>ATC or other classification</t>
   </si>
   <si>
-    <t>Allows the product to be classified by various systems, commonly WHO ATC.</t>
+    <t>EMA IG 1.13</t>
   </si>
   <si>
     <t>This value set includes codes from the Anatomical Therapeutic Chemical Classification System - provided as an exemplar value set.</t>
@@ -1187,6 +1187,9 @@
     <t>Allows the product to be classified by various systems</t>
   </si>
   <si>
+    <t>Allows the product to be classified by various systems, commonly WHO ATC.</t>
+  </si>
+  <si>
     <t>MedicinalProductDefinition.classification.id</t>
   </si>
   <si>
@@ -1196,9 +1199,18 @@
     <t>MedicinalProductDefinition.classification.coding</t>
   </si>
   <si>
+    <t>ATC classification</t>
+  </si>
+  <si>
+    <t>EMA IG 1.13.3</t>
+  </si>
+  <si>
     <t>ema</t>
   </si>
   <si>
+    <t>ATC classification as EMA SPOR code</t>
+  </si>
+  <si>
     <t>MedicinalProductDefinition.classification.coding.id</t>
   </si>
   <si>
@@ -1224,6 +1236,9 @@
   </si>
   <si>
     <t>who</t>
+  </si>
+  <si>
+    <t>ATC classification as WHO ATC code</t>
   </si>
   <si>
     <t>http://www.whocc.no/atc</t>
@@ -1463,7 +1478,7 @@
     <t>The product's name, including full name and possibly coded parts</t>
   </si>
   <si>
-    <t>The product's name, including full name and possibly coded parts.</t>
+    <t>EMA IG 1.14</t>
   </si>
   <si>
     <t>ManufacturedProduct[classCode='MANU'].manufacturedProduct.name</t>
@@ -1487,7 +1502,7 @@
     <t>The full product name</t>
   </si>
   <si>
-    <t>The full product name.</t>
+    <t>EMA IG 1.14.1</t>
   </si>
   <si>
     <t>Medicinal Product Name.Full Name</t>
@@ -1517,7 +1532,7 @@
     <t>Medicinal product name part</t>
   </si>
   <si>
-    <t>Name part. Product names are usually combined of these three parts. More parts can be defined and strength and dose form parts can be omitted.</t>
+    <t>EMA IG 1.14.3. Name part. Product names are usually combined of these three parts. More parts can be defined and strength and dose form parts can be omitted.</t>
   </si>
   <si>
     <t xml:space="preserve">pattern:type.coding.code}
@@ -1617,7 +1632,7 @@
     <t>Country and jurisdiction where the name applies</t>
   </si>
   <si>
-    <t>Country and jurisdiction where the name applies, and associated language.</t>
+    <t>EMA IG 1.14.2</t>
   </si>
   <si>
     <t>ManufacturedProduct[classCode='MANU'].manufacturedProduct.asNamedEntity</t>
@@ -10550,7 +10565,7 @@
         <v>379</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -10627,7 +10642,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10733,7 +10748,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10841,7 +10856,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10867,10 +10882,10 @@
         <v>241</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>243</v>
+        <v>385</v>
       </c>
       <c r="M80" t="s" s="2">
         <v>244</v>
@@ -10949,10 +10964,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C81" t="s" s="2">
         <v>73</v>
@@ -10977,7 +10992,7 @@
         <v>241</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>242</v>
+        <v>387</v>
       </c>
       <c r="L81" t="s" s="2">
         <v>243</v>
@@ -11061,7 +11076,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11167,7 +11182,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11275,7 +11290,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11320,7 +11335,7 @@
         <v>73</v>
       </c>
       <c r="R84" t="s" s="2">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="S84" t="s" s="2">
         <v>73</v>
@@ -11385,7 +11400,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11493,7 +11508,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11601,7 +11616,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11709,7 +11724,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11819,10 +11834,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="C89" t="s" s="2">
         <v>73</v>
@@ -11847,7 +11862,7 @@
         <v>241</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>242</v>
+        <v>397</v>
       </c>
       <c r="L89" t="s" s="2">
         <v>243</v>
@@ -11931,7 +11946,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12037,7 +12052,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12145,7 +12160,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12190,7 +12205,7 @@
         <v>73</v>
       </c>
       <c r="R92" t="s" s="2">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="S92" t="s" s="2">
         <v>73</v>
@@ -12255,7 +12270,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12363,7 +12378,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12471,7 +12486,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -12579,7 +12594,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -12689,7 +12704,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -12799,7 +12814,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -12822,13 +12837,13 @@
         <v>83</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
@@ -12879,7 +12894,7 @@
         <v>73</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>74</v>
@@ -12894,10 +12909,10 @@
         <v>94</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>73</v>
@@ -12905,7 +12920,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -12931,10 +12946,10 @@
         <v>172</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="M99" s="2"/>
       <c r="N99" s="2"/>
@@ -12964,10 +12979,10 @@
         <v>217</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="Z99" t="s" s="2">
         <v>73</v>
@@ -12985,7 +13000,7 @@
         <v>73</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>74</v>
@@ -13000,10 +13015,10 @@
         <v>94</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>73</v>
@@ -13011,7 +13026,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -13034,13 +13049,13 @@
         <v>83</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="M100" s="2"/>
       <c r="N100" s="2"/>
@@ -13091,7 +13106,7 @@
         <v>73</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>74</v>
@@ -13106,10 +13121,10 @@
         <v>94</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>73</v>
@@ -13117,7 +13132,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -13143,10 +13158,10 @@
         <v>172</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="M101" s="2"/>
       <c r="N101" s="2"/>
@@ -13176,10 +13191,10 @@
         <v>217</v>
       </c>
       <c r="X101" t="s" s="2">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="Y101" t="s" s="2">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="Z101" t="s" s="2">
         <v>73</v>
@@ -13197,7 +13212,7 @@
         <v>73</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>74</v>
@@ -13212,10 +13227,10 @@
         <v>94</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="AL101" t="s" s="2">
         <v>73</v>
@@ -13223,7 +13238,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -13246,13 +13261,13 @@
         <v>83</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="M102" s="2"/>
       <c r="N102" s="2"/>
@@ -13282,10 +13297,10 @@
         <v>217</v>
       </c>
       <c r="X102" t="s" s="2">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="Z102" t="s" s="2">
         <v>73</v>
@@ -13303,7 +13318,7 @@
         <v>73</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>74</v>
@@ -13318,7 +13333,7 @@
         <v>94</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>156</v>
@@ -13329,7 +13344,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -13352,13 +13367,13 @@
         <v>83</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="M103" s="2"/>
       <c r="N103" s="2"/>
@@ -13409,7 +13424,7 @@
         <v>73</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>74</v>
@@ -13424,10 +13439,10 @@
         <v>94</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>73</v>
@@ -13435,7 +13450,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -13458,13 +13473,13 @@
         <v>83</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="M104" s="2"/>
       <c r="N104" s="2"/>
@@ -13515,7 +13530,7 @@
         <v>73</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>74</v>
@@ -13530,10 +13545,10 @@
         <v>94</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="AL104" t="s" s="2">
         <v>73</v>
@@ -13541,7 +13556,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -13564,13 +13579,13 @@
         <v>83</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="M105" s="2"/>
       <c r="N105" s="2"/>
@@ -13621,7 +13636,7 @@
         <v>73</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>74</v>
@@ -13636,7 +13651,7 @@
         <v>94</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="AK105" t="s" s="2">
         <v>156</v>
@@ -13647,7 +13662,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -13753,7 +13768,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -13861,11 +13876,11 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s" s="2">
@@ -13887,10 +13902,10 @@
         <v>128</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="M108" t="s" s="2">
         <v>131</v>
@@ -13945,7 +13960,7 @@
         <v>73</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>74</v>
@@ -13971,7 +13986,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -13997,10 +14012,10 @@
         <v>172</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="M109" s="2"/>
       <c r="N109" s="2"/>
@@ -14030,10 +14045,10 @@
         <v>217</v>
       </c>
       <c r="X109" t="s" s="2">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="Y109" t="s" s="2">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="Z109" t="s" s="2">
         <v>73</v>
@@ -14051,7 +14066,7 @@
         <v>73</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>74</v>
@@ -14066,7 +14081,7 @@
         <v>94</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="AK109" t="s" s="2">
         <v>156</v>
@@ -14077,7 +14092,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -14100,13 +14115,13 @@
         <v>83</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="M110" s="2"/>
       <c r="N110" s="2"/>
@@ -14157,7 +14172,7 @@
         <v>73</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>82</v>
@@ -14172,7 +14187,7 @@
         <v>94</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="AK110" t="s" s="2">
         <v>156</v>
@@ -14183,7 +14198,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -14206,13 +14221,13 @@
         <v>83</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="M111" s="2"/>
       <c r="N111" s="2"/>
@@ -14263,7 +14278,7 @@
         <v>73</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>74</v>
@@ -14278,10 +14293,10 @@
         <v>94</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="AL111" t="s" s="2">
         <v>73</v>
@@ -14289,7 +14304,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -14315,10 +14330,10 @@
         <v>241</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="M112" s="2"/>
       <c r="N112" s="2"/>
@@ -14348,10 +14363,10 @@
         <v>217</v>
       </c>
       <c r="X112" t="s" s="2">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="Y112" t="s" s="2">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="Z112" t="s" s="2">
         <v>73</v>
@@ -14369,7 +14384,7 @@
         <v>73</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>74</v>
@@ -14395,7 +14410,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -14418,13 +14433,13 @@
         <v>83</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="M113" s="2"/>
       <c r="N113" s="2"/>
@@ -14475,7 +14490,7 @@
         <v>73</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>82</v>
@@ -14490,10 +14505,10 @@
         <v>94</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="AL113" t="s" s="2">
         <v>73</v>
@@ -14501,7 +14516,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -14607,7 +14622,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -14715,11 +14730,11 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" t="s" s="2">
@@ -14741,10 +14756,10 @@
         <v>128</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="M116" t="s" s="2">
         <v>131</v>
@@ -14799,7 +14814,7 @@
         <v>73</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>74</v>
@@ -14825,7 +14840,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -14851,10 +14866,10 @@
         <v>190</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="M117" s="2"/>
       <c r="N117" s="2"/>
@@ -14905,7 +14920,7 @@
         <v>73</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>82</v>
@@ -14920,10 +14935,10 @@
         <v>94</v>
       </c>
       <c r="AJ117" t="s" s="2">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="AL117" t="s" s="2">
         <v>73</v>
@@ -14931,7 +14946,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -14957,10 +14972,10 @@
         <v>172</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="M118" s="2"/>
       <c r="N118" s="2"/>
@@ -14990,10 +15005,10 @@
         <v>217</v>
       </c>
       <c r="X118" t="s" s="2">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="Y118" t="s" s="2">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="Z118" t="s" s="2">
         <v>73</v>
@@ -15011,7 +15026,7 @@
         <v>73</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>74</v>
@@ -15026,7 +15041,7 @@
         <v>94</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="AK118" t="s" s="2">
         <v>156</v>
@@ -15037,7 +15052,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -15060,13 +15075,13 @@
         <v>83</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="M119" s="2"/>
       <c r="N119" s="2"/>
@@ -15105,7 +15120,7 @@
         <v>73</v>
       </c>
       <c r="AA119" t="s" s="2">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="AB119" s="2"/>
       <c r="AC119" t="s" s="2">
@@ -15115,7 +15130,7 @@
         <v>145</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>74</v>
@@ -15130,10 +15145,10 @@
         <v>94</v>
       </c>
       <c r="AJ119" t="s" s="2">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="AL119" t="s" s="2">
         <v>73</v>
@@ -15141,7 +15156,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -15247,7 +15262,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -15355,11 +15370,11 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" t="s" s="2">
@@ -15381,10 +15396,10 @@
         <v>128</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="M122" t="s" s="2">
         <v>131</v>
@@ -15439,7 +15454,7 @@
         <v>73</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>74</v>
@@ -15465,7 +15480,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -15491,10 +15506,10 @@
         <v>190</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="M123" s="2"/>
       <c r="N123" s="2"/>
@@ -15545,7 +15560,7 @@
         <v>73</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>82</v>
@@ -15560,10 +15575,10 @@
         <v>94</v>
       </c>
       <c r="AJ123" t="s" s="2">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="AL123" t="s" s="2">
         <v>73</v>
@@ -15571,7 +15586,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -15597,10 +15612,10 @@
         <v>172</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="M124" s="2"/>
       <c r="N124" s="2"/>
@@ -15630,10 +15645,10 @@
         <v>217</v>
       </c>
       <c r="X124" t="s" s="2">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="Y124" t="s" s="2">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="Z124" t="s" s="2">
         <v>73</v>
@@ -15651,7 +15666,7 @@
         <v>73</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>82</v>
@@ -15666,10 +15681,10 @@
         <v>94</v>
       </c>
       <c r="AJ124" t="s" s="2">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="AL124" t="s" s="2">
         <v>73</v>
@@ -15677,10 +15692,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="C125" t="s" s="2">
         <v>73</v>
@@ -15702,13 +15717,13 @@
         <v>83</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="M125" s="2"/>
       <c r="N125" s="2"/>
@@ -15759,7 +15774,7 @@
         <v>73</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>74</v>
@@ -15774,10 +15789,10 @@
         <v>94</v>
       </c>
       <c r="AJ125" t="s" s="2">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="AL125" t="s" s="2">
         <v>73</v>
@@ -15785,7 +15800,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -15891,7 +15906,7 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -15999,11 +16014,11 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" t="s" s="2">
@@ -16025,10 +16040,10 @@
         <v>128</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="M128" t="s" s="2">
         <v>131</v>
@@ -16083,7 +16098,7 @@
         <v>73</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>74</v>
@@ -16109,7 +16124,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -16135,10 +16150,10 @@
         <v>190</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="M129" s="2"/>
       <c r="N129" s="2"/>
@@ -16189,7 +16204,7 @@
         <v>73</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>82</v>
@@ -16204,10 +16219,10 @@
         <v>94</v>
       </c>
       <c r="AJ129" t="s" s="2">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="AK129" t="s" s="2">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="AL129" t="s" s="2">
         <v>73</v>
@@ -16215,7 +16230,7 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -16241,10 +16256,10 @@
         <v>172</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="M130" s="2"/>
       <c r="N130" s="2"/>
@@ -16256,7 +16271,7 @@
         <v>73</v>
       </c>
       <c r="R130" t="s" s="2">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="S130" t="s" s="2">
         <v>73</v>
@@ -16274,10 +16289,10 @@
         <v>217</v>
       </c>
       <c r="X130" t="s" s="2">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="Y130" t="s" s="2">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="Z130" t="s" s="2">
         <v>73</v>
@@ -16295,7 +16310,7 @@
         <v>73</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>82</v>
@@ -16310,10 +16325,10 @@
         <v>94</v>
       </c>
       <c r="AJ130" t="s" s="2">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="AK130" t="s" s="2">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="AL130" t="s" s="2">
         <v>73</v>
@@ -16321,10 +16336,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="C131" t="s" s="2">
         <v>73</v>
@@ -16346,13 +16361,13 @@
         <v>83</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="M131" s="2"/>
       <c r="N131" s="2"/>
@@ -16403,7 +16418,7 @@
         <v>73</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>74</v>
@@ -16418,10 +16433,10 @@
         <v>94</v>
       </c>
       <c r="AJ131" t="s" s="2">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="AK131" t="s" s="2">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="AL131" t="s" s="2">
         <v>73</v>
@@ -16429,7 +16444,7 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -16535,7 +16550,7 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -16643,11 +16658,11 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" t="s" s="2">
@@ -16669,10 +16684,10 @@
         <v>128</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="M134" t="s" s="2">
         <v>131</v>
@@ -16727,7 +16742,7 @@
         <v>73</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>74</v>
@@ -16753,7 +16768,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -16779,10 +16794,10 @@
         <v>190</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="M135" s="2"/>
       <c r="N135" s="2"/>
@@ -16833,7 +16848,7 @@
         <v>73</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>82</v>
@@ -16848,10 +16863,10 @@
         <v>94</v>
       </c>
       <c r="AJ135" t="s" s="2">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="AK135" t="s" s="2">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="AL135" t="s" s="2">
         <v>73</v>
@@ -16859,7 +16874,7 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -16885,10 +16900,10 @@
         <v>172</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="M136" s="2"/>
       <c r="N136" s="2"/>
@@ -16900,7 +16915,7 @@
         <v>73</v>
       </c>
       <c r="R136" t="s" s="2">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="S136" t="s" s="2">
         <v>73</v>
@@ -16918,10 +16933,10 @@
         <v>217</v>
       </c>
       <c r="X136" t="s" s="2">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="Y136" t="s" s="2">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="Z136" t="s" s="2">
         <v>73</v>
@@ -16939,7 +16954,7 @@
         <v>73</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>82</v>
@@ -16954,10 +16969,10 @@
         <v>94</v>
       </c>
       <c r="AJ136" t="s" s="2">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="AK136" t="s" s="2">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="AL136" t="s" s="2">
         <v>73</v>
@@ -16965,10 +16980,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="C137" t="s" s="2">
         <v>73</v>
@@ -16990,13 +17005,13 @@
         <v>83</v>
       </c>
       <c r="J137" t="s" s="2">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="M137" s="2"/>
       <c r="N137" s="2"/>
@@ -17047,7 +17062,7 @@
         <v>73</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>74</v>
@@ -17062,10 +17077,10 @@
         <v>94</v>
       </c>
       <c r="AJ137" t="s" s="2">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="AK137" t="s" s="2">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="AL137" t="s" s="2">
         <v>73</v>
@@ -17073,7 +17088,7 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
@@ -17179,7 +17194,7 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -17287,11 +17302,11 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" t="s" s="2">
@@ -17313,10 +17328,10 @@
         <v>128</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="M140" t="s" s="2">
         <v>131</v>
@@ -17371,7 +17386,7 @@
         <v>73</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>74</v>
@@ -17397,7 +17412,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -17423,10 +17438,10 @@
         <v>190</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="M141" s="2"/>
       <c r="N141" s="2"/>
@@ -17477,7 +17492,7 @@
         <v>73</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>82</v>
@@ -17492,10 +17507,10 @@
         <v>94</v>
       </c>
       <c r="AJ141" t="s" s="2">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="AK141" t="s" s="2">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="AL141" t="s" s="2">
         <v>73</v>
@@ -17503,7 +17518,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -17529,10 +17544,10 @@
         <v>172</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="M142" s="2"/>
       <c r="N142" s="2"/>
@@ -17544,7 +17559,7 @@
         <v>73</v>
       </c>
       <c r="R142" t="s" s="2">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="S142" t="s" s="2">
         <v>73</v>
@@ -17562,10 +17577,10 @@
         <v>217</v>
       </c>
       <c r="X142" t="s" s="2">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="Y142" t="s" s="2">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="Z142" t="s" s="2">
         <v>73</v>
@@ -17583,7 +17598,7 @@
         <v>73</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>82</v>
@@ -17598,10 +17613,10 @@
         <v>94</v>
       </c>
       <c r="AJ142" t="s" s="2">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="AK142" t="s" s="2">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="AL142" t="s" s="2">
         <v>73</v>
@@ -17609,7 +17624,7 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -17632,13 +17647,13 @@
         <v>83</v>
       </c>
       <c r="J143" t="s" s="2">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="M143" s="2"/>
       <c r="N143" s="2"/>
@@ -17689,7 +17704,7 @@
         <v>73</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>74</v>
@@ -17704,10 +17719,10 @@
         <v>94</v>
       </c>
       <c r="AJ143" t="s" s="2">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="AK143" t="s" s="2">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="AL143" t="s" s="2">
         <v>73</v>
@@ -17715,7 +17730,7 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -17821,7 +17836,7 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -17929,11 +17944,11 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="D146" s="2"/>
       <c r="E146" t="s" s="2">
@@ -17955,10 +17970,10 @@
         <v>128</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="M146" t="s" s="2">
         <v>131</v>
@@ -18013,7 +18028,7 @@
         <v>73</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="AF146" t="s" s="2">
         <v>74</v>
@@ -18039,7 +18054,7 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
@@ -18065,10 +18080,10 @@
         <v>172</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="M147" s="2"/>
       <c r="N147" s="2"/>
@@ -18098,10 +18113,10 @@
         <v>217</v>
       </c>
       <c r="X147" t="s" s="2">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="Y147" t="s" s="2">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="Z147" t="s" s="2">
         <v>73</v>
@@ -18119,7 +18134,7 @@
         <v>73</v>
       </c>
       <c r="AE147" t="s" s="2">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="AF147" t="s" s="2">
         <v>82</v>
@@ -18134,10 +18149,10 @@
         <v>94</v>
       </c>
       <c r="AJ147" t="s" s="2">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="AK147" t="s" s="2">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="AL147" t="s" s="2">
         <v>73</v>
@@ -18145,7 +18160,7 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -18251,7 +18266,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
@@ -18359,7 +18374,7 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
@@ -18385,7 +18400,7 @@
         <v>241</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="L150" t="s" s="2">
         <v>243</v>
@@ -18467,10 +18482,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C151" t="s" s="2">
         <v>73</v>
@@ -18579,7 +18594,7 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
@@ -18685,7 +18700,7 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
@@ -18793,7 +18808,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -18838,7 +18853,7 @@
         <v>73</v>
       </c>
       <c r="R154" t="s" s="2">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="S154" t="s" s="2">
         <v>73</v>
@@ -18903,7 +18918,7 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -19011,7 +19026,7 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
@@ -19119,7 +19134,7 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -19227,7 +19242,7 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -19337,10 +19352,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="C159" t="s" s="2">
         <v>73</v>
@@ -19449,7 +19464,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -19555,7 +19570,7 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -19663,7 +19678,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
@@ -19708,7 +19723,7 @@
         <v>73</v>
       </c>
       <c r="R162" t="s" s="2">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="S162" t="s" s="2">
         <v>73</v>
@@ -19773,7 +19788,7 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
@@ -19881,7 +19896,7 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -19989,7 +20004,7 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
@@ -20097,7 +20112,7 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -20207,7 +20222,7 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -20317,7 +20332,7 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
@@ -20343,10 +20358,10 @@
         <v>172</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="M168" s="2"/>
       <c r="N168" s="2"/>
@@ -20376,10 +20391,10 @@
         <v>217</v>
       </c>
       <c r="X168" t="s" s="2">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="Y168" t="s" s="2">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="Z168" t="s" s="2">
         <v>73</v>
@@ -20397,7 +20412,7 @@
         <v>73</v>
       </c>
       <c r="AE168" t="s" s="2">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="AF168" t="s" s="2">
         <v>74</v>
@@ -20412,10 +20427,10 @@
         <v>94</v>
       </c>
       <c r="AJ168" t="s" s="2">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="AK168" t="s" s="2">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="AL168" t="s" s="2">
         <v>73</v>
@@ -20423,7 +20438,7 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
@@ -20449,10 +20464,10 @@
         <v>172</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="M169" s="2"/>
       <c r="N169" s="2"/>
@@ -20503,7 +20518,7 @@
         <v>73</v>
       </c>
       <c r="AE169" t="s" s="2">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="AF169" t="s" s="2">
         <v>82</v>
@@ -20518,10 +20533,10 @@
         <v>94</v>
       </c>
       <c r="AJ169" t="s" s="2">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="AK169" t="s" s="2">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="AL169" t="s" s="2">
         <v>73</v>
@@ -20529,7 +20544,7 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
@@ -20635,7 +20650,7 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
@@ -20743,7 +20758,7 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
@@ -20769,7 +20784,7 @@
         <v>241</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="L172" t="s" s="2">
         <v>243</v>
@@ -20851,10 +20866,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C173" t="s" s="2">
         <v>73</v>
@@ -20963,7 +20978,7 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
@@ -21069,7 +21084,7 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -21177,7 +21192,7 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" t="s" s="2">
@@ -21222,7 +21237,7 @@
         <v>73</v>
       </c>
       <c r="R176" t="s" s="2">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="S176" t="s" s="2">
         <v>73</v>
@@ -21287,7 +21302,7 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
@@ -21395,7 +21410,7 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
@@ -21503,7 +21518,7 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" t="s" s="2">
@@ -21611,7 +21626,7 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" t="s" s="2">
@@ -21721,10 +21736,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="C181" t="s" s="2">
         <v>73</v>
@@ -21833,7 +21848,7 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="B182" s="2"/>
       <c r="C182" t="s" s="2">
@@ -21939,7 +21954,7 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" t="s" s="2">
@@ -22047,7 +22062,7 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="B184" s="2"/>
       <c r="C184" t="s" s="2">
@@ -22092,7 +22107,7 @@
         <v>73</v>
       </c>
       <c r="R184" t="s" s="2">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="S184" t="s" s="2">
         <v>73</v>
@@ -22157,7 +22172,7 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="B185" s="2"/>
       <c r="C185" t="s" s="2">
@@ -22265,7 +22280,7 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" t="s" s="2">
@@ -22373,7 +22388,7 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="B187" s="2"/>
       <c r="C187" t="s" s="2">
@@ -22481,7 +22496,7 @@
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="B188" s="2"/>
       <c r="C188" t="s" s="2">
@@ -22591,7 +22606,7 @@
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" t="s" s="2">
@@ -22701,7 +22716,7 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="B190" s="2"/>
       <c r="C190" t="s" s="2">
@@ -22724,13 +22739,13 @@
         <v>83</v>
       </c>
       <c r="J190" t="s" s="2">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="K190" t="s" s="2">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="L190" t="s" s="2">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="M190" s="2"/>
       <c r="N190" s="2"/>
@@ -22781,7 +22796,7 @@
         <v>73</v>
       </c>
       <c r="AE190" t="s" s="2">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="AF190" t="s" s="2">
         <v>74</v>
@@ -22796,10 +22811,10 @@
         <v>94</v>
       </c>
       <c r="AJ190" t="s" s="2">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="AK190" t="s" s="2">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="AL190" t="s" s="2">
         <v>73</v>
@@ -22807,7 +22822,7 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="B191" s="2"/>
       <c r="C191" t="s" s="2">
@@ -22913,7 +22928,7 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" t="s" s="2">
@@ -23021,11 +23036,11 @@
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="B193" s="2"/>
       <c r="C193" t="s" s="2">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="D193" s="2"/>
       <c r="E193" t="s" s="2">
@@ -23047,10 +23062,10 @@
         <v>128</v>
       </c>
       <c r="K193" t="s" s="2">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="M193" t="s" s="2">
         <v>131</v>
@@ -23105,7 +23120,7 @@
         <v>73</v>
       </c>
       <c r="AE193" t="s" s="2">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="AF193" t="s" s="2">
         <v>74</v>
@@ -23131,7 +23146,7 @@
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="B194" s="2"/>
       <c r="C194" t="s" s="2">
@@ -23154,13 +23169,13 @@
         <v>83</v>
       </c>
       <c r="J194" t="s" s="2">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="K194" t="s" s="2">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="L194" t="s" s="2">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="M194" s="2"/>
       <c r="N194" s="2"/>
@@ -23211,7 +23226,7 @@
         <v>73</v>
       </c>
       <c r="AE194" t="s" s="2">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="AF194" t="s" s="2">
         <v>82</v>
@@ -23226,10 +23241,10 @@
         <v>94</v>
       </c>
       <c r="AJ194" t="s" s="2">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="AK194" t="s" s="2">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="AL194" t="s" s="2">
         <v>73</v>
@@ -23237,7 +23252,7 @@
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="B195" s="2"/>
       <c r="C195" t="s" s="2">
@@ -23263,10 +23278,10 @@
         <v>172</v>
       </c>
       <c r="K195" t="s" s="2">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="L195" t="s" s="2">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="M195" s="2"/>
       <c r="N195" s="2"/>
@@ -23296,10 +23311,10 @@
         <v>217</v>
       </c>
       <c r="X195" t="s" s="2">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="Y195" t="s" s="2">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="Z195" t="s" s="2">
         <v>73</v>
@@ -23317,7 +23332,7 @@
         <v>73</v>
       </c>
       <c r="AE195" t="s" s="2">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="AF195" t="s" s="2">
         <v>74</v>
@@ -23332,10 +23347,10 @@
         <v>94</v>
       </c>
       <c r="AJ195" t="s" s="2">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="AK195" t="s" s="2">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="AL195" t="s" s="2">
         <v>73</v>
@@ -23343,7 +23358,7 @@
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="B196" s="2"/>
       <c r="C196" t="s" s="2">
@@ -23366,13 +23381,13 @@
         <v>83</v>
       </c>
       <c r="J196" t="s" s="2">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="K196" t="s" s="2">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="L196" t="s" s="2">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="M196" s="2"/>
       <c r="N196" s="2"/>
@@ -23423,7 +23438,7 @@
         <v>73</v>
       </c>
       <c r="AE196" t="s" s="2">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="AF196" t="s" s="2">
         <v>74</v>
@@ -23438,10 +23453,10 @@
         <v>94</v>
       </c>
       <c r="AJ196" t="s" s="2">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="AK196" t="s" s="2">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="AL196" t="s" s="2">
         <v>73</v>
@@ -23449,7 +23464,7 @@
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="B197" s="2"/>
       <c r="C197" t="s" s="2">
@@ -23555,7 +23570,7 @@
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="B198" s="2"/>
       <c r="C198" t="s" s="2">
@@ -23663,11 +23678,11 @@
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="B199" s="2"/>
       <c r="C199" t="s" s="2">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="D199" s="2"/>
       <c r="E199" t="s" s="2">
@@ -23689,10 +23704,10 @@
         <v>128</v>
       </c>
       <c r="K199" t="s" s="2">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="L199" t="s" s="2">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="M199" t="s" s="2">
         <v>131</v>
@@ -23747,7 +23762,7 @@
         <v>73</v>
       </c>
       <c r="AE199" t="s" s="2">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="AF199" t="s" s="2">
         <v>74</v>
@@ -23773,7 +23788,7 @@
     </row>
     <row r="200">
       <c r="A200" t="s" s="2">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="B200" s="2"/>
       <c r="C200" t="s" s="2">
@@ -23796,13 +23811,13 @@
         <v>83</v>
       </c>
       <c r="J200" t="s" s="2">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="K200" t="s" s="2">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="L200" t="s" s="2">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="M200" s="2"/>
       <c r="N200" s="2"/>
@@ -23853,7 +23868,7 @@
         <v>73</v>
       </c>
       <c r="AE200" t="s" s="2">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="AF200" t="s" s="2">
         <v>74</v>
@@ -23868,10 +23883,10 @@
         <v>94</v>
       </c>
       <c r="AJ200" t="s" s="2">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="AK200" t="s" s="2">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="AL200" t="s" s="2">
         <v>73</v>
@@ -23879,7 +23894,7 @@
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="B201" s="2"/>
       <c r="C201" t="s" s="2">
@@ -23905,10 +23920,10 @@
         <v>198</v>
       </c>
       <c r="K201" t="s" s="2">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="L201" t="s" s="2">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="M201" s="2"/>
       <c r="N201" s="2"/>
@@ -23959,7 +23974,7 @@
         <v>73</v>
       </c>
       <c r="AE201" t="s" s="2">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="AF201" t="s" s="2">
         <v>74</v>
@@ -23974,10 +23989,10 @@
         <v>94</v>
       </c>
       <c r="AJ201" t="s" s="2">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="AK201" t="s" s="2">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="AL201" t="s" s="2">
         <v>73</v>
@@ -23985,7 +24000,7 @@
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="B202" s="2"/>
       <c r="C202" t="s" s="2">
@@ -24011,10 +24026,10 @@
         <v>204</v>
       </c>
       <c r="K202" t="s" s="2">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="L202" t="s" s="2">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="M202" s="2"/>
       <c r="N202" s="2"/>
@@ -24065,7 +24080,7 @@
         <v>73</v>
       </c>
       <c r="AE202" t="s" s="2">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="AF202" t="s" s="2">
         <v>74</v>
@@ -24080,10 +24095,10 @@
         <v>94</v>
       </c>
       <c r="AJ202" t="s" s="2">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="AK202" t="s" s="2">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="AL202" t="s" s="2">
         <v>73</v>
@@ -24091,7 +24106,7 @@
     </row>
     <row r="203">
       <c r="A203" t="s" s="2">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="B203" s="2"/>
       <c r="C203" t="s" s="2">
@@ -24117,10 +24132,10 @@
         <v>172</v>
       </c>
       <c r="K203" t="s" s="2">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="L203" t="s" s="2">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="M203" s="2"/>
       <c r="N203" s="2"/>
@@ -24150,10 +24165,10 @@
         <v>217</v>
       </c>
       <c r="X203" t="s" s="2">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="Y203" t="s" s="2">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="Z203" t="s" s="2">
         <v>73</v>
@@ -24171,7 +24186,7 @@
         <v>73</v>
       </c>
       <c r="AE203" t="s" s="2">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="AF203" t="s" s="2">
         <v>74</v>
@@ -24186,10 +24201,10 @@
         <v>94</v>
       </c>
       <c r="AJ203" t="s" s="2">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="AK203" t="s" s="2">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="AL203" t="s" s="2">
         <v>73</v>
@@ -24197,7 +24212,7 @@
     </row>
     <row r="204">
       <c r="A204" t="s" s="2">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="B204" s="2"/>
       <c r="C204" t="s" s="2">
@@ -24220,13 +24235,13 @@
         <v>83</v>
       </c>
       <c r="J204" t="s" s="2">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="K204" t="s" s="2">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="L204" t="s" s="2">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="M204" s="2"/>
       <c r="N204" s="2"/>
@@ -24277,7 +24292,7 @@
         <v>73</v>
       </c>
       <c r="AE204" t="s" s="2">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="AF204" t="s" s="2">
         <v>74</v>
@@ -24292,10 +24307,10 @@
         <v>94</v>
       </c>
       <c r="AJ204" t="s" s="2">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="AK204" t="s" s="2">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="AL204" t="s" s="2">
         <v>73</v>
@@ -24303,7 +24318,7 @@
     </row>
     <row r="205">
       <c r="A205" t="s" s="2">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="B205" s="2"/>
       <c r="C205" t="s" s="2">
@@ -24409,7 +24424,7 @@
     </row>
     <row r="206">
       <c r="A206" t="s" s="2">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="B206" s="2"/>
       <c r="C206" t="s" s="2">
@@ -24517,11 +24532,11 @@
     </row>
     <row r="207">
       <c r="A207" t="s" s="2">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="B207" s="2"/>
       <c r="C207" t="s" s="2">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="D207" s="2"/>
       <c r="E207" t="s" s="2">
@@ -24543,10 +24558,10 @@
         <v>128</v>
       </c>
       <c r="K207" t="s" s="2">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="L207" t="s" s="2">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="M207" t="s" s="2">
         <v>131</v>
@@ -24601,7 +24616,7 @@
         <v>73</v>
       </c>
       <c r="AE207" t="s" s="2">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="AF207" t="s" s="2">
         <v>74</v>
@@ -24627,7 +24642,7 @@
     </row>
     <row r="208">
       <c r="A208" t="s" s="2">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="B208" s="2"/>
       <c r="C208" t="s" s="2">
@@ -24653,10 +24668,10 @@
         <v>172</v>
       </c>
       <c r="K208" t="s" s="2">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="L208" t="s" s="2">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="M208" s="2"/>
       <c r="N208" s="2"/>
@@ -24686,10 +24701,10 @@
         <v>217</v>
       </c>
       <c r="X208" t="s" s="2">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="Y208" t="s" s="2">
-        <v>626</v>
+        <v>631</v>
       </c>
       <c r="Z208" t="s" s="2">
         <v>73</v>
@@ -24707,7 +24722,7 @@
         <v>73</v>
       </c>
       <c r="AE208" t="s" s="2">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="AF208" t="s" s="2">
         <v>82</v>
@@ -24722,10 +24737,10 @@
         <v>94</v>
       </c>
       <c r="AJ208" t="s" s="2">
-        <v>627</v>
+        <v>632</v>
       </c>
       <c r="AK208" t="s" s="2">
-        <v>628</v>
+        <v>633</v>
       </c>
       <c r="AL208" t="s" s="2">
         <v>73</v>
@@ -24733,7 +24748,7 @@
     </row>
     <row r="209">
       <c r="A209" t="s" s="2">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="B209" s="2"/>
       <c r="C209" t="s" s="2">
@@ -24756,16 +24771,16 @@
         <v>83</v>
       </c>
       <c r="J209" t="s" s="2">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="K209" t="s" s="2">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="L209" t="s" s="2">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="M209" t="s" s="2">
-        <v>633</v>
+        <v>638</v>
       </c>
       <c r="N209" s="2"/>
       <c r="O209" t="s" s="2">
@@ -24815,7 +24830,7 @@
         <v>73</v>
       </c>
       <c r="AE209" t="s" s="2">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="AF209" t="s" s="2">
         <v>74</v>
@@ -24830,10 +24845,10 @@
         <v>94</v>
       </c>
       <c r="AJ209" t="s" s="2">
-        <v>634</v>
+        <v>639</v>
       </c>
       <c r="AK209" t="s" s="2">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="AL209" t="s" s="2">
         <v>73</v>

--- a/StructureDefinition-PPLMedicinalProductDefinition.xlsx
+++ b/StructureDefinition-PPLMedicinalProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-07T21:05:10+00:00</t>
+    <t>2022-11-07T21:23:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLMedicinalProductDefinition.xlsx
+++ b/StructureDefinition-PPLMedicinalProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-07T21:23:46+00:00</t>
+    <t>2022-11-07T21:31:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -985,13 +985,13 @@
     <t>MedicinalProductDefinition.combinedPharmaceuticalDoseForm.coding.system</t>
   </si>
   <si>
+    <t>MedicinalProductDefinition.combinedPharmaceuticalDoseForm.coding.version</t>
+  </si>
+  <si>
+    <t>MedicinalProductDefinition.combinedPharmaceuticalDoseForm.coding.code</t>
+  </si>
+  <si>
     <t>http://unicom-project.eu/fhir/ValueSet/authorised-doseform-vs</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.combinedPharmaceuticalDoseForm.coding.version</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.combinedPharmaceuticalDoseForm.coding.code</t>
   </si>
   <si>
     <t>MedicinalProductDefinition.combinedPharmaceuticalDoseForm.coding.display</t>
@@ -8008,11 +8008,13 @@
         <v>73</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="X53" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="Y53" t="s" s="2">
-        <v>313</v>
+        <v>73</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>73</v>
@@ -8056,7 +8058,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8164,7 +8166,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8222,13 +8224,11 @@
         <v>73</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="X55" s="2"/>
       <c r="Y55" t="s" s="2">
-        <v>73</v>
+        <v>315</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>73</v>

--- a/StructureDefinition-PPLMedicinalProductDefinition.xlsx
+++ b/StructureDefinition-PPLMedicinalProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-07T21:31:45+00:00</t>
+    <t>2022-11-08T20:50:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLMedicinalProductDefinition.xlsx
+++ b/StructureDefinition-PPLMedicinalProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-11T12:45:51+00:00</t>
+    <t>2022-11-11T12:48:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLMedicinalProductDefinition.xlsx
+++ b/StructureDefinition-PPLMedicinalProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-11T12:48:43+00:00</t>
+    <t>2022-11-11T13:10:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLMedicinalProductDefinition.xlsx
+++ b/StructureDefinition-PPLMedicinalProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-12T19:50:48+00:00</t>
+    <t>2022-11-12T20:00:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLMedicinalProductDefinition.xlsx
+++ b/StructureDefinition-PPLMedicinalProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-16T21:11:51+00:00</t>
+    <t>2022-11-16T21:23:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLMedicinalProductDefinition.xlsx
+++ b/StructureDefinition-PPLMedicinalProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-16T21:23:11+00:00</t>
+    <t>2022-11-17T06:36:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLMedicinalProductDefinition.xlsx
+++ b/StructureDefinition-PPLMedicinalProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-18T19:44:59+00:00</t>
+    <t>2022-11-18T19:50:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLMedicinalProductDefinition.xlsx
+++ b/StructureDefinition-PPLMedicinalProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-18T19:50:12+00:00</t>
+    <t>2022-11-18T19:51:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLMedicinalProductDefinition.xlsx
+++ b/StructureDefinition-PPLMedicinalProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-18T19:51:53+00:00</t>
+    <t>2022-11-18T19:52:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLMedicinalProductDefinition.xlsx
+++ b/StructureDefinition-PPLMedicinalProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-18T19:52:09+00:00</t>
+    <t>2022-11-18T19:57:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLMedicinalProductDefinition.xlsx
+++ b/StructureDefinition-PPLMedicinalProductDefinition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7075" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7076" uniqueCount="600">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-18T19:57:45+00:00</t>
+    <t>2022-11-19T06:10:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1458,8 +1458,11 @@
     <t>EMA IG 1.14.3. Name part. Product names are usually combined of these three parts. More parts can be defined and strength and dose form parts can be omitted.</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:part.type.coding.code}
+    <t xml:space="preserve">pattern:type}
 </t>
+  </si>
+  <si>
+    <t>Slicing on the name part</t>
   </si>
   <si>
     <t>(any and all of the name parts e.g. Medicinal Product Name.Formulation Part)</t>
@@ -2205,7 +2208,7 @@
     <col min="24" max="24" width="122.328125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="63.3203125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="29.75" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.9375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
@@ -14889,7 +14892,9 @@
       <c r="AA118" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="AB118" s="2"/>
+      <c r="AB118" t="s" s="2">
+        <v>468</v>
+      </c>
       <c r="AC118" t="s" s="2">
         <v>83</v>
       </c>
@@ -14912,7 +14917,7 @@
         <v>423</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AK118" t="s" s="2">
         <v>73</v>
@@ -14923,7 +14928,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -15029,7 +15034,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -15137,7 +15142,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -15247,7 +15252,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -15273,10 +15278,10 @@
         <v>189</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M122" s="2"/>
       <c r="N122" s="2"/>
@@ -15327,7 +15332,7 @@
         <v>73</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>82</v>
@@ -15342,7 +15347,7 @@
         <v>94</v>
       </c>
       <c r="AJ122" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AK122" t="s" s="2">
         <v>73</v>
@@ -15353,7 +15358,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -15379,10 +15384,10 @@
         <v>171</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M123" s="2"/>
       <c r="N123" s="2"/>
@@ -15412,10 +15417,10 @@
         <v>216</v>
       </c>
       <c r="X123" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="Y123" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="Z123" t="s" s="2">
         <v>73</v>
@@ -15433,7 +15438,7 @@
         <v>73</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>82</v>
@@ -15448,7 +15453,7 @@
         <v>94</v>
       </c>
       <c r="AJ123" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AK123" t="s" s="2">
         <v>73</v>
@@ -15462,7 +15467,7 @@
         <v>464</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C124" t="s" s="2">
         <v>73</v>
@@ -15487,10 +15492,10 @@
         <v>420</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M124" s="2"/>
       <c r="N124" s="2"/>
@@ -15556,7 +15561,7 @@
         <v>423</v>
       </c>
       <c r="AJ124" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AK124" t="s" s="2">
         <v>73</v>
@@ -15567,7 +15572,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -15673,7 +15678,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -15781,7 +15786,7 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -15891,7 +15896,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -15917,10 +15922,10 @@
         <v>189</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M128" s="2"/>
       <c r="N128" s="2"/>
@@ -15971,7 +15976,7 @@
         <v>73</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>82</v>
@@ -15986,7 +15991,7 @@
         <v>94</v>
       </c>
       <c r="AJ128" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AK128" t="s" s="2">
         <v>73</v>
@@ -15997,7 +16002,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -16023,10 +16028,10 @@
         <v>171</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M129" s="2"/>
       <c r="N129" s="2"/>
@@ -16038,7 +16043,7 @@
         <v>73</v>
       </c>
       <c r="R129" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="S129" t="s" s="2">
         <v>73</v>
@@ -16056,10 +16061,10 @@
         <v>216</v>
       </c>
       <c r="X129" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="Y129" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="Z129" t="s" s="2">
         <v>73</v>
@@ -16077,7 +16082,7 @@
         <v>73</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>82</v>
@@ -16092,7 +16097,7 @@
         <v>94</v>
       </c>
       <c r="AJ129" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AK129" t="s" s="2">
         <v>73</v>
@@ -16106,7 +16111,7 @@
         <v>464</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C130" t="s" s="2">
         <v>73</v>
@@ -16131,10 +16136,10 @@
         <v>420</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M130" s="2"/>
       <c r="N130" s="2"/>
@@ -16200,7 +16205,7 @@
         <v>423</v>
       </c>
       <c r="AJ130" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AK130" t="s" s="2">
         <v>73</v>
@@ -16211,7 +16216,7 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -16317,7 +16322,7 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -16425,7 +16430,7 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -16535,7 +16540,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -16561,10 +16566,10 @@
         <v>189</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M134" s="2"/>
       <c r="N134" s="2"/>
@@ -16615,7 +16620,7 @@
         <v>73</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>82</v>
@@ -16630,7 +16635,7 @@
         <v>94</v>
       </c>
       <c r="AJ134" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AK134" t="s" s="2">
         <v>73</v>
@@ -16641,7 +16646,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -16667,10 +16672,10 @@
         <v>171</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M135" s="2"/>
       <c r="N135" s="2"/>
@@ -16682,7 +16687,7 @@
         <v>73</v>
       </c>
       <c r="R135" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="S135" t="s" s="2">
         <v>73</v>
@@ -16700,10 +16705,10 @@
         <v>216</v>
       </c>
       <c r="X135" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="Y135" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="Z135" t="s" s="2">
         <v>73</v>
@@ -16721,7 +16726,7 @@
         <v>73</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>82</v>
@@ -16736,7 +16741,7 @@
         <v>94</v>
       </c>
       <c r="AJ135" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AK135" t="s" s="2">
         <v>73</v>
@@ -16750,7 +16755,7 @@
         <v>464</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C136" t="s" s="2">
         <v>73</v>
@@ -16775,10 +16780,10 @@
         <v>420</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M136" s="2"/>
       <c r="N136" s="2"/>
@@ -16844,7 +16849,7 @@
         <v>423</v>
       </c>
       <c r="AJ136" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AK136" t="s" s="2">
         <v>73</v>
@@ -16855,7 +16860,7 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -16961,7 +16966,7 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
@@ -17069,7 +17074,7 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -17179,7 +17184,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -17205,10 +17210,10 @@
         <v>189</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M140" s="2"/>
       <c r="N140" s="2"/>
@@ -17259,7 +17264,7 @@
         <v>73</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>82</v>
@@ -17274,7 +17279,7 @@
         <v>94</v>
       </c>
       <c r="AJ140" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AK140" t="s" s="2">
         <v>73</v>
@@ -17285,7 +17290,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -17311,10 +17316,10 @@
         <v>171</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M141" s="2"/>
       <c r="N141" s="2"/>
@@ -17326,7 +17331,7 @@
         <v>73</v>
       </c>
       <c r="R141" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="S141" t="s" s="2">
         <v>73</v>
@@ -17344,10 +17349,10 @@
         <v>216</v>
       </c>
       <c r="X141" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="Y141" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="Z141" t="s" s="2">
         <v>73</v>
@@ -17365,7 +17370,7 @@
         <v>73</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>82</v>
@@ -17380,7 +17385,7 @@
         <v>94</v>
       </c>
       <c r="AJ141" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AK141" t="s" s="2">
         <v>73</v>
@@ -17391,7 +17396,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -17417,10 +17422,10 @@
         <v>420</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="M142" s="2"/>
       <c r="N142" s="2"/>
@@ -17471,7 +17476,7 @@
         <v>73</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>74</v>
@@ -17486,7 +17491,7 @@
         <v>423</v>
       </c>
       <c r="AJ142" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AK142" t="s" s="2">
         <v>73</v>
@@ -17497,7 +17502,7 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -17603,7 +17608,7 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -17711,7 +17716,7 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -17821,7 +17826,7 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
@@ -17847,10 +17852,10 @@
         <v>171</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="M146" s="2"/>
       <c r="N146" s="2"/>
@@ -17880,10 +17885,10 @@
         <v>216</v>
       </c>
       <c r="X146" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="Y146" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="Z146" t="s" s="2">
         <v>73</v>
@@ -17901,7 +17906,7 @@
         <v>73</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AF146" t="s" s="2">
         <v>82</v>
@@ -17916,7 +17921,7 @@
         <v>94</v>
       </c>
       <c r="AJ146" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AK146" t="s" s="2">
         <v>73</v>
@@ -17927,7 +17932,7 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
@@ -18033,7 +18038,7 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -18141,7 +18146,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
@@ -18167,7 +18172,7 @@
         <v>238</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="L149" t="s" s="2">
         <v>240</v>
@@ -18249,7 +18254,7 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B150" t="s" s="2">
         <v>375</v>
@@ -18361,7 +18366,7 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
@@ -18467,7 +18472,7 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
@@ -18575,7 +18580,7 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
@@ -18620,7 +18625,7 @@
         <v>73</v>
       </c>
       <c r="R153" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="S153" t="s" s="2">
         <v>73</v>
@@ -18685,7 +18690,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -18793,7 +18798,7 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -18901,7 +18906,7 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
@@ -19009,7 +19014,7 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -19119,10 +19124,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C158" t="s" s="2">
         <v>73</v>
@@ -19231,7 +19236,7 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -19337,7 +19342,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -19445,7 +19450,7 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -19490,7 +19495,7 @@
         <v>73</v>
       </c>
       <c r="R161" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="S161" t="s" s="2">
         <v>73</v>
@@ -19555,7 +19560,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
@@ -19663,7 +19668,7 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
@@ -19771,7 +19776,7 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -19879,7 +19884,7 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
@@ -19989,7 +19994,7 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -20099,7 +20104,7 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -20125,10 +20130,10 @@
         <v>171</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="M167" s="2"/>
       <c r="N167" s="2"/>
@@ -20158,10 +20163,10 @@
         <v>216</v>
       </c>
       <c r="X167" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="Y167" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="Z167" t="s" s="2">
         <v>73</v>
@@ -20179,7 +20184,7 @@
         <v>73</v>
       </c>
       <c r="AE167" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AF167" t="s" s="2">
         <v>74</v>
@@ -20194,7 +20199,7 @@
         <v>94</v>
       </c>
       <c r="AJ167" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AK167" t="s" s="2">
         <v>73</v>
@@ -20205,7 +20210,7 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
@@ -20231,10 +20236,10 @@
         <v>171</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="M168" s="2"/>
       <c r="N168" s="2"/>
@@ -20285,7 +20290,7 @@
         <v>73</v>
       </c>
       <c r="AE168" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AF168" t="s" s="2">
         <v>82</v>
@@ -20300,7 +20305,7 @@
         <v>94</v>
       </c>
       <c r="AJ168" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AK168" t="s" s="2">
         <v>73</v>
@@ -20311,7 +20316,7 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
@@ -20417,7 +20422,7 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
@@ -20525,7 +20530,7 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
@@ -20551,7 +20556,7 @@
         <v>238</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="L171" t="s" s="2">
         <v>240</v>
@@ -20633,7 +20638,7 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B172" t="s" s="2">
         <v>375</v>
@@ -20745,7 +20750,7 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
@@ -20851,7 +20856,7 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
@@ -20959,7 +20964,7 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -21004,7 +21009,7 @@
         <v>73</v>
       </c>
       <c r="R175" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="S175" t="s" s="2">
         <v>73</v>
@@ -21069,7 +21074,7 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" t="s" s="2">
@@ -21177,7 +21182,7 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
@@ -21285,7 +21290,7 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
@@ -21393,7 +21398,7 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" t="s" s="2">
@@ -21503,10 +21508,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C180" t="s" s="2">
         <v>73</v>
@@ -21615,7 +21620,7 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" t="s" s="2">
@@ -21721,7 +21726,7 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B182" s="2"/>
       <c r="C182" t="s" s="2">
@@ -21829,7 +21834,7 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" t="s" s="2">
@@ -21874,7 +21879,7 @@
         <v>73</v>
       </c>
       <c r="R183" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="S183" t="s" s="2">
         <v>73</v>
@@ -21939,7 +21944,7 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B184" s="2"/>
       <c r="C184" t="s" s="2">
@@ -22047,7 +22052,7 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B185" s="2"/>
       <c r="C185" t="s" s="2">
@@ -22155,7 +22160,7 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" t="s" s="2">
@@ -22263,7 +22268,7 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B187" s="2"/>
       <c r="C187" t="s" s="2">
@@ -22373,7 +22378,7 @@
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B188" s="2"/>
       <c r="C188" t="s" s="2">
@@ -22483,7 +22488,7 @@
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" t="s" s="2">
@@ -22509,10 +22514,10 @@
         <v>420</v>
       </c>
       <c r="K189" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="L189" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="M189" s="2"/>
       <c r="N189" s="2"/>
@@ -22563,7 +22568,7 @@
         <v>73</v>
       </c>
       <c r="AE189" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AF189" t="s" s="2">
         <v>74</v>
@@ -22578,7 +22583,7 @@
         <v>423</v>
       </c>
       <c r="AJ189" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AK189" t="s" s="2">
         <v>73</v>
@@ -22589,7 +22594,7 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B190" s="2"/>
       <c r="C190" t="s" s="2">
@@ -22695,7 +22700,7 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B191" s="2"/>
       <c r="C191" t="s" s="2">
@@ -22803,7 +22808,7 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" t="s" s="2">
@@ -22913,7 +22918,7 @@
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B193" s="2"/>
       <c r="C193" t="s" s="2">
@@ -22936,13 +22941,13 @@
         <v>83</v>
       </c>
       <c r="J193" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="K193" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="M193" s="2"/>
       <c r="N193" s="2"/>
@@ -22993,7 +22998,7 @@
         <v>73</v>
       </c>
       <c r="AE193" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AF193" t="s" s="2">
         <v>82</v>
@@ -23008,7 +23013,7 @@
         <v>94</v>
       </c>
       <c r="AJ193" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AK193" t="s" s="2">
         <v>73</v>
@@ -23019,7 +23024,7 @@
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B194" s="2"/>
       <c r="C194" t="s" s="2">
@@ -23045,10 +23050,10 @@
         <v>171</v>
       </c>
       <c r="K194" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="L194" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="M194" s="2"/>
       <c r="N194" s="2"/>
@@ -23081,7 +23086,7 @@
         <v>434</v>
       </c>
       <c r="Y194" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="Z194" t="s" s="2">
         <v>73</v>
@@ -23099,7 +23104,7 @@
         <v>73</v>
       </c>
       <c r="AE194" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="AF194" t="s" s="2">
         <v>74</v>
@@ -23114,7 +23119,7 @@
         <v>94</v>
       </c>
       <c r="AJ194" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AK194" t="s" s="2">
         <v>73</v>
@@ -23125,7 +23130,7 @@
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B195" s="2"/>
       <c r="C195" t="s" s="2">
@@ -23151,10 +23156,10 @@
         <v>420</v>
       </c>
       <c r="K195" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="L195" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="M195" s="2"/>
       <c r="N195" s="2"/>
@@ -23205,7 +23210,7 @@
         <v>73</v>
       </c>
       <c r="AE195" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AF195" t="s" s="2">
         <v>74</v>
@@ -23220,7 +23225,7 @@
         <v>423</v>
       </c>
       <c r="AJ195" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AK195" t="s" s="2">
         <v>73</v>
@@ -23231,7 +23236,7 @@
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B196" s="2"/>
       <c r="C196" t="s" s="2">
@@ -23337,7 +23342,7 @@
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B197" s="2"/>
       <c r="C197" t="s" s="2">
@@ -23445,7 +23450,7 @@
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B198" s="2"/>
       <c r="C198" t="s" s="2">
@@ -23555,7 +23560,7 @@
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B199" s="2"/>
       <c r="C199" t="s" s="2">
@@ -23578,13 +23583,13 @@
         <v>83</v>
       </c>
       <c r="J199" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="K199" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="L199" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="M199" s="2"/>
       <c r="N199" s="2"/>
@@ -23635,7 +23640,7 @@
         <v>73</v>
       </c>
       <c r="AE199" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AF199" t="s" s="2">
         <v>74</v>
@@ -23650,7 +23655,7 @@
         <v>94</v>
       </c>
       <c r="AJ199" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AK199" t="s" s="2">
         <v>73</v>
@@ -23661,7 +23666,7 @@
     </row>
     <row r="200">
       <c r="A200" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B200" s="2"/>
       <c r="C200" t="s" s="2">
@@ -23687,10 +23692,10 @@
         <v>197</v>
       </c>
       <c r="K200" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="L200" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="M200" s="2"/>
       <c r="N200" s="2"/>
@@ -23741,7 +23746,7 @@
         <v>73</v>
       </c>
       <c r="AE200" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AF200" t="s" s="2">
         <v>74</v>
@@ -23756,7 +23761,7 @@
         <v>94</v>
       </c>
       <c r="AJ200" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AK200" t="s" s="2">
         <v>73</v>
@@ -23767,7 +23772,7 @@
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B201" s="2"/>
       <c r="C201" t="s" s="2">
@@ -23793,10 +23798,10 @@
         <v>203</v>
       </c>
       <c r="K201" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="L201" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="M201" s="2"/>
       <c r="N201" s="2"/>
@@ -23847,7 +23852,7 @@
         <v>73</v>
       </c>
       <c r="AE201" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AF201" t="s" s="2">
         <v>74</v>
@@ -23862,7 +23867,7 @@
         <v>94</v>
       </c>
       <c r="AJ201" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AK201" t="s" s="2">
         <v>73</v>
@@ -23873,7 +23878,7 @@
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B202" s="2"/>
       <c r="C202" t="s" s="2">
@@ -23899,10 +23904,10 @@
         <v>171</v>
       </c>
       <c r="K202" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="L202" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="M202" s="2"/>
       <c r="N202" s="2"/>
@@ -23932,10 +23937,10 @@
         <v>216</v>
       </c>
       <c r="X202" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="Y202" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="Z202" t="s" s="2">
         <v>73</v>
@@ -23953,7 +23958,7 @@
         <v>73</v>
       </c>
       <c r="AE202" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AF202" t="s" s="2">
         <v>74</v>
@@ -23968,7 +23973,7 @@
         <v>94</v>
       </c>
       <c r="AJ202" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="AK202" t="s" s="2">
         <v>73</v>
@@ -23979,7 +23984,7 @@
     </row>
     <row r="203">
       <c r="A203" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B203" s="2"/>
       <c r="C203" t="s" s="2">
@@ -24005,10 +24010,10 @@
         <v>420</v>
       </c>
       <c r="K203" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="L203" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="M203" s="2"/>
       <c r="N203" s="2"/>
@@ -24059,7 +24064,7 @@
         <v>73</v>
       </c>
       <c r="AE203" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AF203" t="s" s="2">
         <v>74</v>
@@ -24074,7 +24079,7 @@
         <v>423</v>
       </c>
       <c r="AJ203" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AK203" t="s" s="2">
         <v>73</v>
@@ -24085,7 +24090,7 @@
     </row>
     <row r="204">
       <c r="A204" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B204" s="2"/>
       <c r="C204" t="s" s="2">
@@ -24191,7 +24196,7 @@
     </row>
     <row r="205">
       <c r="A205" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B205" s="2"/>
       <c r="C205" t="s" s="2">
@@ -24299,7 +24304,7 @@
     </row>
     <row r="206">
       <c r="A206" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B206" s="2"/>
       <c r="C206" t="s" s="2">
@@ -24409,7 +24414,7 @@
     </row>
     <row r="207">
       <c r="A207" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B207" s="2"/>
       <c r="C207" t="s" s="2">
@@ -24435,10 +24440,10 @@
         <v>171</v>
       </c>
       <c r="K207" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="L207" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="M207" s="2"/>
       <c r="N207" s="2"/>
@@ -24468,10 +24473,10 @@
         <v>216</v>
       </c>
       <c r="X207" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="Y207" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="Z207" t="s" s="2">
         <v>73</v>
@@ -24489,7 +24494,7 @@
         <v>73</v>
       </c>
       <c r="AE207" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AF207" t="s" s="2">
         <v>82</v>
@@ -24504,7 +24509,7 @@
         <v>94</v>
       </c>
       <c r="AJ207" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AK207" t="s" s="2">
         <v>73</v>
@@ -24515,7 +24520,7 @@
     </row>
     <row r="208">
       <c r="A208" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B208" s="2"/>
       <c r="C208" t="s" s="2">
@@ -24538,13 +24543,13 @@
         <v>83</v>
       </c>
       <c r="J208" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="K208" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="L208" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="M208" s="2"/>
       <c r="N208" s="2"/>
@@ -24595,7 +24600,7 @@
         <v>73</v>
       </c>
       <c r="AE208" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AF208" t="s" s="2">
         <v>74</v>
@@ -24610,7 +24615,7 @@
         <v>94</v>
       </c>
       <c r="AJ208" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AK208" t="s" s="2">
         <v>73</v>

--- a/StructureDefinition-PPLMedicinalProductDefinition.xlsx
+++ b/StructureDefinition-PPLMedicinalProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-19T22:26:15+00:00</t>
+    <t>2022-11-19T22:53:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLMedicinalProductDefinition.xlsx
+++ b/StructureDefinition-PPLMedicinalProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-19T22:53:07+00:00</t>
+    <t>2022-11-20T07:00:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLMedicinalProductDefinition.xlsx
+++ b/StructureDefinition-PPLMedicinalProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T07:00:59+00:00</t>
+    <t>2022-11-20T07:03:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLMedicinalProductDefinition.xlsx
+++ b/StructureDefinition-PPLMedicinalProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T07:03:41+00:00</t>
+    <t>2022-11-20T09:28:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLMedicinalProductDefinition.xlsx
+++ b/StructureDefinition-PPLMedicinalProductDefinition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7074" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6114" uniqueCount="584">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T17:12:02+00:00</t>
+    <t>2022-11-20T17:48:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1588,34 +1588,13 @@
     <t>EMA or ISO codes for country</t>
   </si>
   <si>
-    <t>MedicinalProductDefinition.name.countryLanguage.country.coding.id</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.name.countryLanguage.country.coding.extension</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.name.countryLanguage.country.coding.system</t>
-  </si>
-  <si>
-    <t>https://spor.ema.europa.eu/v1/lists/100000000002</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.name.countryLanguage.country.coding.version</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.name.countryLanguage.country.coding.code</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.name.countryLanguage.country.coding.display</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.name.countryLanguage.country.coding.userSelected</t>
+    <t>http://unicom-project.eu/fhir/ValueSet/country-ema-vs</t>
   </si>
   <si>
     <t>iso</t>
   </si>
   <si>
-    <t>https://www.hl7.org/fhir/valueset-country.html</t>
+    <t>http://unicom-project.eu/fhir/ValueSet/country-iso-vs</t>
   </si>
   <si>
     <t>MedicinalProductDefinition.name.countryLanguage.country.text</t>
@@ -1657,34 +1636,13 @@
     <t>MedicinalProductDefinition.name.countryLanguage.language.coding</t>
   </si>
   <si>
-    <t>MedicinalProductDefinition.name.countryLanguage.language.coding.id</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.name.countryLanguage.language.coding.extension</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.name.countryLanguage.language.coding.system</t>
-  </si>
-  <si>
-    <t>https://spor.ema.europa.eu/v1/lists/100000072057</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.name.countryLanguage.language.coding.version</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.name.countryLanguage.language.coding.code</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.name.countryLanguage.language.coding.display</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.name.countryLanguage.language.coding.userSelected</t>
+    <t>http://unicom-project.eu/fhir/ValueSet/language-ema-vs</t>
   </si>
   <si>
     <t>bcp</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/all-languages</t>
+    <t>http://unicom-project.eu/fhir/ValueSet/language-bcp-vs</t>
   </si>
   <si>
     <t>MedicinalProductDefinition.name.countryLanguage.language.text</t>
@@ -2161,7 +2119,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL208"/>
+  <dimension ref="A1:AL180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -18300,13 +18258,11 @@
         <v>73</v>
       </c>
       <c r="W150" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X150" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="X150" s="2"/>
       <c r="Y150" t="s" s="2">
-        <v>73</v>
+        <v>506</v>
       </c>
       <c r="Z150" t="s" s="2">
         <v>73</v>
@@ -18350,9 +18306,11 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="B151" s="2"/>
+        <v>504</v>
+      </c>
+      <c r="B151" t="s" s="2">
+        <v>507</v>
+      </c>
       <c r="C151" t="s" s="2">
         <v>73</v>
       </c>
@@ -18370,19 +18328,23 @@
         <v>73</v>
       </c>
       <c r="I151" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J151" t="s" s="2">
-        <v>84</v>
+        <v>236</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>152</v>
+        <v>237</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="M151" s="2"/>
-      <c r="N151" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="M151" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="N151" t="s" s="2">
+        <v>240</v>
+      </c>
       <c r="O151" t="s" s="2">
         <v>73</v>
       </c>
@@ -18406,13 +18368,11 @@
         <v>73</v>
       </c>
       <c r="W151" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X151" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="X151" s="2"/>
       <c r="Y151" t="s" s="2">
-        <v>73</v>
+        <v>508</v>
       </c>
       <c r="Z151" t="s" s="2">
         <v>73</v>
@@ -18430,19 +18390,19 @@
         <v>73</v>
       </c>
       <c r="AE151" t="s" s="2">
-        <v>154</v>
+        <v>241</v>
       </c>
       <c r="AF151" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG151" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH151" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI151" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AJ151" t="s" s="2">
         <v>73</v>
@@ -18451,23 +18411,23 @@
         <v>73</v>
       </c>
       <c r="AL151" t="s" s="2">
-        <v>155</v>
+        <v>242</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F152" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G152" t="s" s="2">
         <v>73</v>
@@ -18476,21 +18436,23 @@
         <v>73</v>
       </c>
       <c r="I152" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J152" t="s" s="2">
-        <v>129</v>
+        <v>189</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>130</v>
+        <v>280</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>157</v>
+        <v>281</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N152" s="2"/>
+        <v>282</v>
+      </c>
+      <c r="N152" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="O152" t="s" s="2">
         <v>73</v>
       </c>
@@ -18526,31 +18488,31 @@
         <v>73</v>
       </c>
       <c r="AA152" t="s" s="2">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="AB152" t="s" s="2">
-        <v>159</v>
+        <v>73</v>
       </c>
       <c r="AC152" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD152" t="s" s="2">
-        <v>146</v>
+        <v>73</v>
       </c>
       <c r="AE152" t="s" s="2">
-        <v>160</v>
+        <v>284</v>
       </c>
       <c r="AF152" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG152" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH152" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI152" t="s" s="2">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="AJ152" t="s" s="2">
         <v>73</v>
@@ -18559,12 +18521,12 @@
         <v>73</v>
       </c>
       <c r="AL152" t="s" s="2">
-        <v>155</v>
+        <v>285</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
@@ -18572,7 +18534,7 @@
       </c>
       <c r="D153" s="2"/>
       <c r="E153" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F153" t="s" s="2">
         <v>82</v>
@@ -18587,20 +18549,16 @@
         <v>83</v>
       </c>
       <c r="J153" t="s" s="2">
-        <v>96</v>
+        <v>171</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>246</v>
+        <v>511</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="M153" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N153" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>512</v>
+      </c>
+      <c r="M153" s="2"/>
+      <c r="N153" s="2"/>
       <c r="O153" t="s" s="2">
         <v>73</v>
       </c>
@@ -18609,7 +18567,7 @@
         <v>73</v>
       </c>
       <c r="R153" t="s" s="2">
-        <v>509</v>
+        <v>73</v>
       </c>
       <c r="S153" t="s" s="2">
         <v>73</v>
@@ -18624,13 +18582,13 @@
         <v>73</v>
       </c>
       <c r="W153" t="s" s="2">
-        <v>73</v>
+        <v>216</v>
       </c>
       <c r="X153" t="s" s="2">
-        <v>73</v>
+        <v>499</v>
       </c>
       <c r="Y153" t="s" s="2">
-        <v>73</v>
+        <v>513</v>
       </c>
       <c r="Z153" t="s" s="2">
         <v>73</v>
@@ -18648,7 +18606,7 @@
         <v>73</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>251</v>
+        <v>510</v>
       </c>
       <c r="AF153" t="s" s="2">
         <v>74</v>
@@ -18663,18 +18621,18 @@
         <v>94</v>
       </c>
       <c r="AJ153" t="s" s="2">
-        <v>73</v>
+        <v>514</v>
       </c>
       <c r="AK153" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL153" t="s" s="2">
-        <v>252</v>
+        <v>73</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -18682,7 +18640,7 @@
       </c>
       <c r="D154" s="2"/>
       <c r="E154" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F154" t="s" s="2">
         <v>82</v>
@@ -18697,17 +18655,15 @@
         <v>83</v>
       </c>
       <c r="J154" t="s" s="2">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>254</v>
+        <v>516</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="M154" t="s" s="2">
-        <v>256</v>
-      </c>
+        <v>517</v>
+      </c>
+      <c r="M154" s="2"/>
       <c r="N154" s="2"/>
       <c r="O154" t="s" s="2">
         <v>73</v>
@@ -18732,13 +18688,13 @@
         <v>73</v>
       </c>
       <c r="W154" t="s" s="2">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="X154" t="s" s="2">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="Y154" t="s" s="2">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="Z154" t="s" s="2">
         <v>73</v>
@@ -18756,10 +18712,10 @@
         <v>73</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>257</v>
+        <v>515</v>
       </c>
       <c r="AF154" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="AG154" t="s" s="2">
         <v>82</v>
@@ -18771,18 +18727,18 @@
         <v>94</v>
       </c>
       <c r="AJ154" t="s" s="2">
-        <v>73</v>
+        <v>518</v>
       </c>
       <c r="AK154" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL154" t="s" s="2">
-        <v>258</v>
+        <v>73</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -18802,21 +18758,19 @@
         <v>73</v>
       </c>
       <c r="I155" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J155" t="s" s="2">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>260</v>
+        <v>152</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>261</v>
+        <v>153</v>
       </c>
       <c r="M155" s="2"/>
-      <c r="N155" t="s" s="2">
-        <v>262</v>
-      </c>
+      <c r="N155" s="2"/>
       <c r="O155" t="s" s="2">
         <v>73</v>
       </c>
@@ -18864,7 +18818,7 @@
         <v>73</v>
       </c>
       <c r="AE155" t="s" s="2">
-        <v>263</v>
+        <v>154</v>
       </c>
       <c r="AF155" t="s" s="2">
         <v>74</v>
@@ -18876,7 +18830,7 @@
         <v>73</v>
       </c>
       <c r="AI155" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ155" t="s" s="2">
         <v>73</v>
@@ -18885,23 +18839,23 @@
         <v>73</v>
       </c>
       <c r="AL155" t="s" s="2">
-        <v>264</v>
+        <v>155</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="D156" s="2"/>
       <c r="E156" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F156" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G156" t="s" s="2">
         <v>73</v>
@@ -18910,21 +18864,21 @@
         <v>73</v>
       </c>
       <c r="I156" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J156" t="s" s="2">
-        <v>189</v>
+        <v>129</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>266</v>
+        <v>130</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="M156" s="2"/>
-      <c r="N156" t="s" s="2">
-        <v>268</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="M156" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="N156" s="2"/>
       <c r="O156" t="s" s="2">
         <v>73</v>
       </c>
@@ -18960,31 +18914,31 @@
         <v>73</v>
       </c>
       <c r="AA156" t="s" s="2">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="AB156" t="s" s="2">
-        <v>73</v>
+        <v>159</v>
       </c>
       <c r="AC156" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD156" t="s" s="2">
-        <v>73</v>
+        <v>146</v>
       </c>
       <c r="AE156" t="s" s="2">
-        <v>269</v>
+        <v>160</v>
       </c>
       <c r="AF156" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG156" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH156" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI156" t="s" s="2">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="AJ156" t="s" s="2">
         <v>73</v>
@@ -18993,12 +18947,12 @@
         <v>73</v>
       </c>
       <c r="AL156" t="s" s="2">
-        <v>270</v>
+        <v>155</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -19006,10 +18960,10 @@
       </c>
       <c r="D157" s="2"/>
       <c r="E157" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F157" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G157" t="s" s="2">
         <v>73</v>
@@ -19021,19 +18975,19 @@
         <v>83</v>
       </c>
       <c r="J157" t="s" s="2">
-        <v>272</v>
+        <v>236</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>273</v>
+        <v>505</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>274</v>
+        <v>238</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>275</v>
+        <v>239</v>
       </c>
       <c r="N157" t="s" s="2">
-        <v>276</v>
+        <v>240</v>
       </c>
       <c r="O157" t="s" s="2">
         <v>73</v>
@@ -19070,25 +19024,23 @@
         <v>73</v>
       </c>
       <c r="AA157" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB157" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="AB157" s="2"/>
       <c r="AC157" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD157" t="s" s="2">
-        <v>73</v>
+        <v>146</v>
       </c>
       <c r="AE157" t="s" s="2">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="AF157" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG157" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH157" t="s" s="2">
         <v>73</v>
@@ -19103,22 +19055,22 @@
         <v>73</v>
       </c>
       <c r="AL157" t="s" s="2">
-        <v>278</v>
+        <v>242</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>504</v>
+        <v>521</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>514</v>
+        <v>373</v>
       </c>
       <c r="C158" t="s" s="2">
         <v>73</v>
       </c>
       <c r="D158" s="2"/>
       <c r="E158" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F158" t="s" s="2">
         <v>82</v>
@@ -19170,13 +19122,11 @@
         <v>73</v>
       </c>
       <c r="W158" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X158" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="X158" s="2"/>
       <c r="Y158" t="s" s="2">
-        <v>73</v>
+        <v>522</v>
       </c>
       <c r="Z158" t="s" s="2">
         <v>73</v>
@@ -19220,9 +19170,11 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="B159" s="2"/>
+        <v>521</v>
+      </c>
+      <c r="B159" t="s" s="2">
+        <v>523</v>
+      </c>
       <c r="C159" t="s" s="2">
         <v>73</v>
       </c>
@@ -19240,19 +19192,23 @@
         <v>73</v>
       </c>
       <c r="I159" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J159" t="s" s="2">
-        <v>84</v>
+        <v>236</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>152</v>
+        <v>237</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="M159" s="2"/>
-      <c r="N159" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="M159" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="N159" t="s" s="2">
+        <v>240</v>
+      </c>
       <c r="O159" t="s" s="2">
         <v>73</v>
       </c>
@@ -19276,13 +19232,11 @@
         <v>73</v>
       </c>
       <c r="W159" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X159" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="X159" s="2"/>
       <c r="Y159" t="s" s="2">
-        <v>73</v>
+        <v>524</v>
       </c>
       <c r="Z159" t="s" s="2">
         <v>73</v>
@@ -19300,19 +19254,19 @@
         <v>73</v>
       </c>
       <c r="AE159" t="s" s="2">
-        <v>154</v>
+        <v>241</v>
       </c>
       <c r="AF159" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG159" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH159" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI159" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AJ159" t="s" s="2">
         <v>73</v>
@@ -19321,23 +19275,23 @@
         <v>73</v>
       </c>
       <c r="AL159" t="s" s="2">
-        <v>155</v>
+        <v>242</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>507</v>
+        <v>525</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="D160" s="2"/>
       <c r="E160" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F160" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G160" t="s" s="2">
         <v>73</v>
@@ -19346,21 +19300,23 @@
         <v>73</v>
       </c>
       <c r="I160" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J160" t="s" s="2">
-        <v>129</v>
+        <v>189</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>130</v>
+        <v>280</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>157</v>
+        <v>281</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N160" s="2"/>
+        <v>282</v>
+      </c>
+      <c r="N160" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="O160" t="s" s="2">
         <v>73</v>
       </c>
@@ -19396,31 +19352,31 @@
         <v>73</v>
       </c>
       <c r="AA160" t="s" s="2">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="AB160" t="s" s="2">
-        <v>159</v>
+        <v>73</v>
       </c>
       <c r="AC160" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD160" t="s" s="2">
-        <v>146</v>
+        <v>73</v>
       </c>
       <c r="AE160" t="s" s="2">
-        <v>160</v>
+        <v>284</v>
       </c>
       <c r="AF160" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG160" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH160" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI160" t="s" s="2">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="AJ160" t="s" s="2">
         <v>73</v>
@@ -19429,12 +19385,12 @@
         <v>73</v>
       </c>
       <c r="AL160" t="s" s="2">
-        <v>155</v>
+        <v>285</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>508</v>
+        <v>526</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -19442,10 +19398,10 @@
       </c>
       <c r="D161" s="2"/>
       <c r="E161" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F161" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G161" t="s" s="2">
         <v>73</v>
@@ -19457,20 +19413,16 @@
         <v>83</v>
       </c>
       <c r="J161" t="s" s="2">
-        <v>96</v>
+        <v>418</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>246</v>
+        <v>527</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="M161" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N161" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>528</v>
+      </c>
+      <c r="M161" s="2"/>
+      <c r="N161" s="2"/>
       <c r="O161" t="s" s="2">
         <v>73</v>
       </c>
@@ -19479,7 +19431,7 @@
         <v>73</v>
       </c>
       <c r="R161" t="s" s="2">
-        <v>515</v>
+        <v>73</v>
       </c>
       <c r="S161" t="s" s="2">
         <v>73</v>
@@ -19518,33 +19470,33 @@
         <v>73</v>
       </c>
       <c r="AE161" t="s" s="2">
-        <v>251</v>
+        <v>526</v>
       </c>
       <c r="AF161" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG161" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH161" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI161" t="s" s="2">
-        <v>94</v>
+        <v>421</v>
       </c>
       <c r="AJ161" t="s" s="2">
-        <v>73</v>
+        <v>529</v>
       </c>
       <c r="AK161" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL161" t="s" s="2">
-        <v>252</v>
+        <v>73</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>510</v>
+        <v>530</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
@@ -19564,20 +19516,18 @@
         <v>73</v>
       </c>
       <c r="I162" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J162" t="s" s="2">
         <v>189</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>254</v>
+        <v>152</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="M162" t="s" s="2">
-        <v>256</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="M162" s="2"/>
       <c r="N162" s="2"/>
       <c r="O162" t="s" s="2">
         <v>73</v>
@@ -19626,7 +19576,7 @@
         <v>73</v>
       </c>
       <c r="AE162" t="s" s="2">
-        <v>257</v>
+        <v>154</v>
       </c>
       <c r="AF162" t="s" s="2">
         <v>74</v>
@@ -19638,7 +19588,7 @@
         <v>73</v>
       </c>
       <c r="AI162" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ162" t="s" s="2">
         <v>73</v>
@@ -19647,23 +19597,23 @@
         <v>73</v>
       </c>
       <c r="AL162" t="s" s="2">
-        <v>258</v>
+        <v>155</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>511</v>
+        <v>531</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="D163" s="2"/>
       <c r="E163" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F163" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G163" t="s" s="2">
         <v>73</v>
@@ -19672,21 +19622,21 @@
         <v>73</v>
       </c>
       <c r="I163" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J163" t="s" s="2">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>260</v>
+        <v>130</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="M163" s="2"/>
-      <c r="N163" t="s" s="2">
-        <v>262</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="M163" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="N163" s="2"/>
       <c r="O163" t="s" s="2">
         <v>73</v>
       </c>
@@ -19734,19 +19684,19 @@
         <v>73</v>
       </c>
       <c r="AE163" t="s" s="2">
-        <v>263</v>
+        <v>160</v>
       </c>
       <c r="AF163" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG163" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH163" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI163" t="s" s="2">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="AJ163" t="s" s="2">
         <v>73</v>
@@ -19755,45 +19705,47 @@
         <v>73</v>
       </c>
       <c r="AL163" t="s" s="2">
-        <v>264</v>
+        <v>155</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>512</v>
+        <v>532</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
-        <v>73</v>
+        <v>425</v>
       </c>
       <c r="D164" s="2"/>
       <c r="E164" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F164" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G164" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H164" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I164" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J164" t="s" s="2">
-        <v>189</v>
+        <v>129</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>266</v>
+        <v>426</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="M164" s="2"/>
+        <v>427</v>
+      </c>
+      <c r="M164" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="N164" t="s" s="2">
-        <v>268</v>
+        <v>138</v>
       </c>
       <c r="O164" t="s" s="2">
         <v>73</v>
@@ -19842,19 +19794,19 @@
         <v>73</v>
       </c>
       <c r="AE164" t="s" s="2">
-        <v>269</v>
+        <v>428</v>
       </c>
       <c r="AF164" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG164" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH164" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI164" t="s" s="2">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="AJ164" t="s" s="2">
         <v>73</v>
@@ -19863,12 +19815,12 @@
         <v>73</v>
       </c>
       <c r="AL164" t="s" s="2">
-        <v>270</v>
+        <v>126</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>513</v>
+        <v>533</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
@@ -19876,7 +19828,7 @@
       </c>
       <c r="D165" s="2"/>
       <c r="E165" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F165" t="s" s="2">
         <v>82</v>
@@ -19891,20 +19843,16 @@
         <v>83</v>
       </c>
       <c r="J165" t="s" s="2">
-        <v>272</v>
+        <v>534</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>273</v>
+        <v>527</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="M165" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N165" t="s" s="2">
-        <v>276</v>
-      </c>
+        <v>535</v>
+      </c>
+      <c r="M165" s="2"/>
+      <c r="N165" s="2"/>
       <c r="O165" t="s" s="2">
         <v>73</v>
       </c>
@@ -19952,10 +19900,10 @@
         <v>73</v>
       </c>
       <c r="AE165" t="s" s="2">
-        <v>277</v>
+        <v>533</v>
       </c>
       <c r="AF165" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="AG165" t="s" s="2">
         <v>82</v>
@@ -19967,18 +19915,18 @@
         <v>94</v>
       </c>
       <c r="AJ165" t="s" s="2">
-        <v>73</v>
+        <v>529</v>
       </c>
       <c r="AK165" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL165" t="s" s="2">
-        <v>278</v>
+        <v>73</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>516</v>
+        <v>536</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -20001,20 +19949,16 @@
         <v>83</v>
       </c>
       <c r="J166" t="s" s="2">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>280</v>
+        <v>537</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="M166" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="N166" t="s" s="2">
-        <v>283</v>
-      </c>
+        <v>538</v>
+      </c>
+      <c r="M166" s="2"/>
+      <c r="N166" s="2"/>
       <c r="O166" t="s" s="2">
         <v>73</v>
       </c>
@@ -20038,13 +19982,13 @@
         <v>73</v>
       </c>
       <c r="W166" t="s" s="2">
-        <v>73</v>
+        <v>216</v>
       </c>
       <c r="X166" t="s" s="2">
-        <v>73</v>
+        <v>432</v>
       </c>
       <c r="Y166" t="s" s="2">
-        <v>73</v>
+        <v>539</v>
       </c>
       <c r="Z166" t="s" s="2">
         <v>73</v>
@@ -20062,7 +20006,7 @@
         <v>73</v>
       </c>
       <c r="AE166" t="s" s="2">
-        <v>284</v>
+        <v>536</v>
       </c>
       <c r="AF166" t="s" s="2">
         <v>74</v>
@@ -20077,18 +20021,18 @@
         <v>94</v>
       </c>
       <c r="AJ166" t="s" s="2">
-        <v>73</v>
+        <v>529</v>
       </c>
       <c r="AK166" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL166" t="s" s="2">
-        <v>285</v>
+        <v>73</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>517</v>
+        <v>540</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -20099,7 +20043,7 @@
         <v>74</v>
       </c>
       <c r="F167" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G167" t="s" s="2">
         <v>73</v>
@@ -20111,13 +20055,13 @@
         <v>83</v>
       </c>
       <c r="J167" t="s" s="2">
-        <v>171</v>
+        <v>418</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>518</v>
+        <v>541</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>519</v>
+        <v>542</v>
       </c>
       <c r="M167" s="2"/>
       <c r="N167" s="2"/>
@@ -20144,13 +20088,13 @@
         <v>73</v>
       </c>
       <c r="W167" t="s" s="2">
-        <v>216</v>
+        <v>73</v>
       </c>
       <c r="X167" t="s" s="2">
-        <v>499</v>
+        <v>73</v>
       </c>
       <c r="Y167" t="s" s="2">
-        <v>520</v>
+        <v>73</v>
       </c>
       <c r="Z167" t="s" s="2">
         <v>73</v>
@@ -20168,22 +20112,22 @@
         <v>73</v>
       </c>
       <c r="AE167" t="s" s="2">
-        <v>517</v>
+        <v>540</v>
       </c>
       <c r="AF167" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG167" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH167" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI167" t="s" s="2">
-        <v>94</v>
+        <v>421</v>
       </c>
       <c r="AJ167" t="s" s="2">
-        <v>521</v>
+        <v>543</v>
       </c>
       <c r="AK167" t="s" s="2">
         <v>73</v>
@@ -20194,7 +20138,7 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>522</v>
+        <v>544</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
@@ -20202,7 +20146,7 @@
       </c>
       <c r="D168" s="2"/>
       <c r="E168" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F168" t="s" s="2">
         <v>82</v>
@@ -20214,16 +20158,16 @@
         <v>73</v>
       </c>
       <c r="I168" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J168" t="s" s="2">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>523</v>
+        <v>152</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>524</v>
+        <v>153</v>
       </c>
       <c r="M168" s="2"/>
       <c r="N168" s="2"/>
@@ -20250,13 +20194,13 @@
         <v>73</v>
       </c>
       <c r="W168" t="s" s="2">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="X168" t="s" s="2">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="Y168" t="s" s="2">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="Z168" t="s" s="2">
         <v>73</v>
@@ -20274,10 +20218,10 @@
         <v>73</v>
       </c>
       <c r="AE168" t="s" s="2">
-        <v>522</v>
+        <v>154</v>
       </c>
       <c r="AF168" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AG168" t="s" s="2">
         <v>82</v>
@@ -20286,32 +20230,32 @@
         <v>73</v>
       </c>
       <c r="AI168" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ168" t="s" s="2">
-        <v>525</v>
+        <v>73</v>
       </c>
       <c r="AK168" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL168" t="s" s="2">
-        <v>73</v>
+        <v>155</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>526</v>
+        <v>545</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="D169" s="2"/>
       <c r="E169" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F169" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G169" t="s" s="2">
         <v>73</v>
@@ -20323,15 +20267,17 @@
         <v>73</v>
       </c>
       <c r="J169" t="s" s="2">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="M169" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="M169" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="N169" s="2"/>
       <c r="O169" t="s" s="2">
         <v>73</v>
@@ -20380,19 +20326,19 @@
         <v>73</v>
       </c>
       <c r="AE169" t="s" s="2">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="AF169" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG169" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH169" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI169" t="s" s="2">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="AJ169" t="s" s="2">
         <v>73</v>
@@ -20406,11 +20352,11 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>527</v>
+        <v>546</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
-        <v>128</v>
+        <v>425</v>
       </c>
       <c r="D170" s="2"/>
       <c r="E170" t="s" s="2">
@@ -20423,24 +20369,26 @@
         <v>73</v>
       </c>
       <c r="H170" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I170" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J170" t="s" s="2">
         <v>129</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>130</v>
+        <v>426</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>157</v>
+        <v>427</v>
       </c>
       <c r="M170" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="N170" s="2"/>
+      <c r="N170" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="O170" t="s" s="2">
         <v>73</v>
       </c>
@@ -20476,19 +20424,19 @@
         <v>73</v>
       </c>
       <c r="AA170" t="s" s="2">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="AB170" t="s" s="2">
-        <v>159</v>
+        <v>73</v>
       </c>
       <c r="AC170" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD170" t="s" s="2">
-        <v>146</v>
+        <v>73</v>
       </c>
       <c r="AE170" t="s" s="2">
-        <v>160</v>
+        <v>428</v>
       </c>
       <c r="AF170" t="s" s="2">
         <v>74</v>
@@ -20509,12 +20457,12 @@
         <v>73</v>
       </c>
       <c r="AL170" t="s" s="2">
-        <v>155</v>
+        <v>126</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>528</v>
+        <v>547</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
@@ -20522,10 +20470,10 @@
       </c>
       <c r="D171" s="2"/>
       <c r="E171" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F171" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G171" t="s" s="2">
         <v>73</v>
@@ -20537,20 +20485,16 @@
         <v>83</v>
       </c>
       <c r="J171" t="s" s="2">
-        <v>236</v>
+        <v>548</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>505</v>
+        <v>549</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="M171" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N171" t="s" s="2">
-        <v>240</v>
-      </c>
+        <v>550</v>
+      </c>
+      <c r="M171" s="2"/>
+      <c r="N171" s="2"/>
       <c r="O171" t="s" s="2">
         <v>73</v>
       </c>
@@ -20586,23 +20530,25 @@
         <v>73</v>
       </c>
       <c r="AA171" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="AB171" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="AB171" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="AC171" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD171" t="s" s="2">
-        <v>146</v>
+        <v>73</v>
       </c>
       <c r="AE171" t="s" s="2">
-        <v>241</v>
+        <v>547</v>
       </c>
       <c r="AF171" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG171" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH171" t="s" s="2">
         <v>73</v>
@@ -20611,28 +20557,26 @@
         <v>94</v>
       </c>
       <c r="AJ171" t="s" s="2">
-        <v>73</v>
+        <v>551</v>
       </c>
       <c r="AK171" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL171" t="s" s="2">
-        <v>242</v>
+        <v>73</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="B172" t="s" s="2">
-        <v>373</v>
-      </c>
+        <v>552</v>
+      </c>
+      <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
         <v>73</v>
       </c>
       <c r="D172" s="2"/>
       <c r="E172" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F172" t="s" s="2">
         <v>82</v>
@@ -20647,20 +20591,16 @@
         <v>83</v>
       </c>
       <c r="J172" t="s" s="2">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>237</v>
+        <v>553</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="M172" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N172" t="s" s="2">
-        <v>240</v>
-      </c>
+        <v>554</v>
+      </c>
+      <c r="M172" s="2"/>
+      <c r="N172" s="2"/>
       <c r="O172" t="s" s="2">
         <v>73</v>
       </c>
@@ -20708,13 +20648,13 @@
         <v>73</v>
       </c>
       <c r="AE172" t="s" s="2">
-        <v>241</v>
+        <v>552</v>
       </c>
       <c r="AF172" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG172" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH172" t="s" s="2">
         <v>73</v>
@@ -20723,18 +20663,18 @@
         <v>94</v>
       </c>
       <c r="AJ172" t="s" s="2">
-        <v>73</v>
+        <v>555</v>
       </c>
       <c r="AK172" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL172" t="s" s="2">
-        <v>242</v>
+        <v>73</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>529</v>
+        <v>556</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
@@ -20745,7 +20685,7 @@
         <v>74</v>
       </c>
       <c r="F173" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G173" t="s" s="2">
         <v>73</v>
@@ -20754,16 +20694,16 @@
         <v>73</v>
       </c>
       <c r="I173" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J173" t="s" s="2">
-        <v>84</v>
+        <v>203</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>152</v>
+        <v>557</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>153</v>
+        <v>558</v>
       </c>
       <c r="M173" s="2"/>
       <c r="N173" s="2"/>
@@ -20814,44 +20754,44 @@
         <v>73</v>
       </c>
       <c r="AE173" t="s" s="2">
-        <v>154</v>
+        <v>556</v>
       </c>
       <c r="AF173" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG173" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH173" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI173" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AJ173" t="s" s="2">
-        <v>73</v>
+        <v>559</v>
       </c>
       <c r="AK173" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL173" t="s" s="2">
-        <v>155</v>
+        <v>73</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>530</v>
+        <v>560</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="D174" s="2"/>
       <c r="E174" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F174" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G174" t="s" s="2">
         <v>73</v>
@@ -20860,20 +20800,18 @@
         <v>73</v>
       </c>
       <c r="I174" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J174" t="s" s="2">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>130</v>
+        <v>561</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="M174" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>562</v>
+      </c>
+      <c r="M174" s="2"/>
       <c r="N174" s="2"/>
       <c r="O174" t="s" s="2">
         <v>73</v>
@@ -20898,57 +20836,57 @@
         <v>73</v>
       </c>
       <c r="W174" t="s" s="2">
-        <v>73</v>
+        <v>216</v>
       </c>
       <c r="X174" t="s" s="2">
-        <v>73</v>
+        <v>563</v>
       </c>
       <c r="Y174" t="s" s="2">
-        <v>73</v>
+        <v>564</v>
       </c>
       <c r="Z174" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AA174" t="s" s="2">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="AB174" t="s" s="2">
-        <v>159</v>
+        <v>73</v>
       </c>
       <c r="AC174" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD174" t="s" s="2">
-        <v>146</v>
+        <v>73</v>
       </c>
       <c r="AE174" t="s" s="2">
-        <v>160</v>
+        <v>560</v>
       </c>
       <c r="AF174" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG174" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH174" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI174" t="s" s="2">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="AJ174" t="s" s="2">
-        <v>73</v>
+        <v>565</v>
       </c>
       <c r="AK174" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL174" t="s" s="2">
-        <v>155</v>
+        <v>73</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>531</v>
+        <v>566</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -20956,10 +20894,10 @@
       </c>
       <c r="D175" s="2"/>
       <c r="E175" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F175" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G175" t="s" s="2">
         <v>73</v>
@@ -20971,20 +20909,16 @@
         <v>83</v>
       </c>
       <c r="J175" t="s" s="2">
-        <v>96</v>
+        <v>418</v>
       </c>
       <c r="K175" t="s" s="2">
-        <v>246</v>
+        <v>567</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="M175" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N175" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>568</v>
+      </c>
+      <c r="M175" s="2"/>
+      <c r="N175" s="2"/>
       <c r="O175" t="s" s="2">
         <v>73</v>
       </c>
@@ -20993,7 +20927,7 @@
         <v>73</v>
       </c>
       <c r="R175" t="s" s="2">
-        <v>532</v>
+        <v>73</v>
       </c>
       <c r="S175" t="s" s="2">
         <v>73</v>
@@ -21032,33 +20966,33 @@
         <v>73</v>
       </c>
       <c r="AE175" t="s" s="2">
-        <v>251</v>
+        <v>566</v>
       </c>
       <c r="AF175" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG175" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH175" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI175" t="s" s="2">
-        <v>94</v>
+        <v>421</v>
       </c>
       <c r="AJ175" t="s" s="2">
-        <v>73</v>
+        <v>569</v>
       </c>
       <c r="AK175" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL175" t="s" s="2">
-        <v>252</v>
+        <v>73</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>533</v>
+        <v>570</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" t="s" s="2">
@@ -21078,20 +21012,18 @@
         <v>73</v>
       </c>
       <c r="I176" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J176" t="s" s="2">
         <v>189</v>
       </c>
       <c r="K176" t="s" s="2">
-        <v>254</v>
+        <v>152</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="M176" t="s" s="2">
-        <v>256</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="M176" s="2"/>
       <c r="N176" s="2"/>
       <c r="O176" t="s" s="2">
         <v>73</v>
@@ -21140,7 +21072,7 @@
         <v>73</v>
       </c>
       <c r="AE176" t="s" s="2">
-        <v>257</v>
+        <v>154</v>
       </c>
       <c r="AF176" t="s" s="2">
         <v>74</v>
@@ -21152,7 +21084,7 @@
         <v>73</v>
       </c>
       <c r="AI176" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ176" t="s" s="2">
         <v>73</v>
@@ -21161,23 +21093,23 @@
         <v>73</v>
       </c>
       <c r="AL176" t="s" s="2">
-        <v>258</v>
+        <v>155</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>534</v>
+        <v>571</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="D177" s="2"/>
       <c r="E177" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F177" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G177" t="s" s="2">
         <v>73</v>
@@ -21186,21 +21118,21 @@
         <v>73</v>
       </c>
       <c r="I177" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J177" t="s" s="2">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="K177" t="s" s="2">
-        <v>260</v>
+        <v>130</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="M177" s="2"/>
-      <c r="N177" t="s" s="2">
-        <v>262</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="M177" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="N177" s="2"/>
       <c r="O177" t="s" s="2">
         <v>73</v>
       </c>
@@ -21248,19 +21180,19 @@
         <v>73</v>
       </c>
       <c r="AE177" t="s" s="2">
-        <v>263</v>
+        <v>160</v>
       </c>
       <c r="AF177" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG177" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH177" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI177" t="s" s="2">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="AJ177" t="s" s="2">
         <v>73</v>
@@ -21269,45 +21201,47 @@
         <v>73</v>
       </c>
       <c r="AL177" t="s" s="2">
-        <v>264</v>
+        <v>155</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>535</v>
+        <v>572</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
-        <v>73</v>
+        <v>425</v>
       </c>
       <c r="D178" s="2"/>
       <c r="E178" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F178" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G178" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H178" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I178" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J178" t="s" s="2">
-        <v>189</v>
+        <v>129</v>
       </c>
       <c r="K178" t="s" s="2">
-        <v>266</v>
+        <v>426</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="M178" s="2"/>
+        <v>427</v>
+      </c>
+      <c r="M178" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="N178" t="s" s="2">
-        <v>268</v>
+        <v>138</v>
       </c>
       <c r="O178" t="s" s="2">
         <v>73</v>
@@ -21356,19 +21290,19 @@
         <v>73</v>
       </c>
       <c r="AE178" t="s" s="2">
-        <v>269</v>
+        <v>428</v>
       </c>
       <c r="AF178" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG178" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH178" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI178" t="s" s="2">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="AJ178" t="s" s="2">
         <v>73</v>
@@ -21377,12 +21311,12 @@
         <v>73</v>
       </c>
       <c r="AL178" t="s" s="2">
-        <v>270</v>
+        <v>126</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>536</v>
+        <v>573</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" t="s" s="2">
@@ -21390,7 +21324,7 @@
       </c>
       <c r="D179" s="2"/>
       <c r="E179" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F179" t="s" s="2">
         <v>82</v>
@@ -21405,20 +21339,16 @@
         <v>83</v>
       </c>
       <c r="J179" t="s" s="2">
-        <v>272</v>
+        <v>171</v>
       </c>
       <c r="K179" t="s" s="2">
-        <v>273</v>
+        <v>574</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="M179" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N179" t="s" s="2">
-        <v>276</v>
-      </c>
+        <v>575</v>
+      </c>
+      <c r="M179" s="2"/>
+      <c r="N179" s="2"/>
       <c r="O179" t="s" s="2">
         <v>73</v>
       </c>
@@ -21442,13 +21372,13 @@
         <v>73</v>
       </c>
       <c r="W179" t="s" s="2">
-        <v>73</v>
+        <v>216</v>
       </c>
       <c r="X179" t="s" s="2">
-        <v>73</v>
+        <v>576</v>
       </c>
       <c r="Y179" t="s" s="2">
-        <v>73</v>
+        <v>577</v>
       </c>
       <c r="Z179" t="s" s="2">
         <v>73</v>
@@ -21466,10 +21396,10 @@
         <v>73</v>
       </c>
       <c r="AE179" t="s" s="2">
-        <v>277</v>
+        <v>573</v>
       </c>
       <c r="AF179" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="AG179" t="s" s="2">
         <v>82</v>
@@ -21481,22 +21411,20 @@
         <v>94</v>
       </c>
       <c r="AJ179" t="s" s="2">
-        <v>73</v>
+        <v>578</v>
       </c>
       <c r="AK179" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL179" t="s" s="2">
-        <v>278</v>
+        <v>73</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="B180" t="s" s="2">
-        <v>537</v>
-      </c>
+        <v>579</v>
+      </c>
+      <c r="B180" s="2"/>
       <c r="C180" t="s" s="2">
         <v>73</v>
       </c>
@@ -21517,20 +21445,16 @@
         <v>83</v>
       </c>
       <c r="J180" t="s" s="2">
-        <v>236</v>
+        <v>580</v>
       </c>
       <c r="K180" t="s" s="2">
-        <v>237</v>
+        <v>581</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="M180" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N180" t="s" s="2">
-        <v>240</v>
-      </c>
+        <v>582</v>
+      </c>
+      <c r="M180" s="2"/>
+      <c r="N180" s="2"/>
       <c r="O180" t="s" s="2">
         <v>73</v>
       </c>
@@ -21578,13 +21502,13 @@
         <v>73</v>
       </c>
       <c r="AE180" t="s" s="2">
-        <v>241</v>
+        <v>579</v>
       </c>
       <c r="AF180" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG180" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH180" t="s" s="2">
         <v>73</v>
@@ -21593,3018 +21517,12 @@
         <v>94</v>
       </c>
       <c r="AJ180" t="s" s="2">
-        <v>73</v>
+        <v>583</v>
       </c>
       <c r="AK180" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL180" t="s" s="2">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="B181" s="2"/>
-      <c r="C181" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D181" s="2"/>
-      <c r="E181" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F181" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G181" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H181" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I181" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J181" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="K181" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="L181" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="M181" s="2"/>
-      <c r="N181" s="2"/>
-      <c r="O181" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P181" s="2"/>
-      <c r="Q181" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R181" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S181" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T181" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U181" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V181" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W181" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X181" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y181" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z181" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA181" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB181" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC181" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD181" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE181" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="AF181" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG181" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH181" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI181" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ181" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK181" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL181" t="s" s="2">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="B182" s="2"/>
-      <c r="C182" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="D182" s="2"/>
-      <c r="E182" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F182" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G182" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H182" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I182" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J182" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="K182" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="L182" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="M182" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N182" s="2"/>
-      <c r="O182" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P182" s="2"/>
-      <c r="Q182" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R182" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S182" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T182" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U182" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V182" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W182" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X182" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y182" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z182" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA182" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="AB182" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="AC182" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD182" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="AE182" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="AF182" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG182" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH182" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI182" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AJ182" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK182" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL182" t="s" s="2">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="B183" s="2"/>
-      <c r="C183" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D183" s="2"/>
-      <c r="E183" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="F183" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G183" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H183" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I183" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J183" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="K183" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="L183" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="M183" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N183" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="O183" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P183" s="2"/>
-      <c r="Q183" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R183" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="S183" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T183" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U183" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V183" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W183" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X183" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y183" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z183" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA183" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB183" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC183" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD183" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE183" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="AF183" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG183" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH183" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI183" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ183" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK183" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL183" t="s" s="2">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="B184" s="2"/>
-      <c r="C184" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D184" s="2"/>
-      <c r="E184" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F184" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G184" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H184" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I184" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J184" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="K184" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="L184" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="M184" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="N184" s="2"/>
-      <c r="O184" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P184" s="2"/>
-      <c r="Q184" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R184" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S184" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T184" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U184" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V184" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W184" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X184" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y184" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z184" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA184" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB184" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC184" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD184" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE184" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="AF184" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG184" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH184" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI184" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ184" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK184" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL184" t="s" s="2">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="B185" s="2"/>
-      <c r="C185" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D185" s="2"/>
-      <c r="E185" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F185" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G185" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H185" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I185" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J185" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="K185" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="L185" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="M185" s="2"/>
-      <c r="N185" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="O185" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P185" s="2"/>
-      <c r="Q185" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R185" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S185" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T185" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U185" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V185" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W185" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X185" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y185" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z185" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA185" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB185" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC185" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD185" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE185" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="AF185" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG185" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH185" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI185" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ185" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK185" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL185" t="s" s="2">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="B186" s="2"/>
-      <c r="C186" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D186" s="2"/>
-      <c r="E186" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F186" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G186" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H186" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I186" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J186" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="K186" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="L186" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="M186" s="2"/>
-      <c r="N186" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="O186" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P186" s="2"/>
-      <c r="Q186" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R186" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S186" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T186" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U186" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V186" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W186" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X186" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y186" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z186" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA186" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB186" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC186" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD186" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE186" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="AF186" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG186" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH186" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI186" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ186" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK186" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL186" t="s" s="2">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="B187" s="2"/>
-      <c r="C187" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D187" s="2"/>
-      <c r="E187" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F187" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G187" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H187" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I187" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J187" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="K187" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="L187" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="M187" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N187" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="O187" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P187" s="2"/>
-      <c r="Q187" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R187" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S187" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T187" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U187" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V187" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W187" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X187" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y187" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z187" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA187" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB187" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC187" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD187" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE187" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="AF187" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG187" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH187" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI187" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ187" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK187" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL187" t="s" s="2">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="B188" s="2"/>
-      <c r="C188" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D188" s="2"/>
-      <c r="E188" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F188" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G188" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H188" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I188" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J188" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="K188" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="L188" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="M188" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="N188" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="O188" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P188" s="2"/>
-      <c r="Q188" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R188" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S188" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T188" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U188" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V188" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W188" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X188" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y188" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z188" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA188" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB188" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC188" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD188" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE188" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="AF188" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG188" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH188" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI188" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ188" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK188" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL188" t="s" s="2">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="B189" s="2"/>
-      <c r="C189" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D189" s="2"/>
-      <c r="E189" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F189" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G189" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H189" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I189" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J189" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="K189" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="L189" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="M189" s="2"/>
-      <c r="N189" s="2"/>
-      <c r="O189" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P189" s="2"/>
-      <c r="Q189" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R189" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S189" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T189" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U189" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V189" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W189" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X189" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y189" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z189" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA189" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB189" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC189" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD189" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE189" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="AF189" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG189" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH189" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI189" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="AJ189" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="AK189" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL189" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="B190" s="2"/>
-      <c r="C190" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D190" s="2"/>
-      <c r="E190" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F190" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G190" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H190" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I190" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J190" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="K190" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="L190" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="M190" s="2"/>
-      <c r="N190" s="2"/>
-      <c r="O190" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P190" s="2"/>
-      <c r="Q190" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R190" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S190" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T190" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U190" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V190" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W190" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X190" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y190" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z190" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA190" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB190" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC190" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD190" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE190" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="AF190" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG190" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH190" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI190" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ190" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK190" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL190" t="s" s="2">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="B191" s="2"/>
-      <c r="C191" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="D191" s="2"/>
-      <c r="E191" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F191" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G191" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H191" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I191" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J191" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="K191" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="L191" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="M191" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N191" s="2"/>
-      <c r="O191" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P191" s="2"/>
-      <c r="Q191" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R191" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S191" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T191" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U191" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V191" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W191" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X191" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y191" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z191" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA191" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB191" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC191" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD191" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE191" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="AF191" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG191" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH191" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI191" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AJ191" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK191" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL191" t="s" s="2">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="B192" s="2"/>
-      <c r="C192" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="D192" s="2"/>
-      <c r="E192" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F192" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G192" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H192" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I192" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J192" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="K192" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="L192" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="M192" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N192" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O192" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P192" s="2"/>
-      <c r="Q192" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R192" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S192" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T192" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U192" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V192" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W192" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X192" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y192" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z192" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA192" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB192" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC192" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD192" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE192" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="AF192" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG192" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH192" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI192" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AJ192" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK192" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL192" t="s" s="2">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="B193" s="2"/>
-      <c r="C193" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D193" s="2"/>
-      <c r="E193" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="F193" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G193" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H193" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I193" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J193" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="K193" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="L193" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="M193" s="2"/>
-      <c r="N193" s="2"/>
-      <c r="O193" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P193" s="2"/>
-      <c r="Q193" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R193" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S193" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T193" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U193" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V193" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W193" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X193" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y193" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z193" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA193" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB193" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC193" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD193" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE193" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="AF193" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AG193" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH193" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI193" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ193" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="AK193" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL193" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="B194" s="2"/>
-      <c r="C194" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D194" s="2"/>
-      <c r="E194" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F194" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G194" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H194" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I194" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J194" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="K194" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="L194" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="M194" s="2"/>
-      <c r="N194" s="2"/>
-      <c r="O194" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P194" s="2"/>
-      <c r="Q194" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R194" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S194" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T194" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U194" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V194" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W194" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="X194" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="Y194" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="Z194" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA194" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB194" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC194" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD194" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE194" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="AF194" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG194" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH194" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI194" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ194" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="AK194" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL194" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="B195" s="2"/>
-      <c r="C195" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D195" s="2"/>
-      <c r="E195" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F195" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G195" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H195" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I195" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J195" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="K195" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="L195" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="M195" s="2"/>
-      <c r="N195" s="2"/>
-      <c r="O195" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P195" s="2"/>
-      <c r="Q195" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R195" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S195" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T195" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U195" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V195" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W195" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X195" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y195" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z195" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA195" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB195" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC195" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD195" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE195" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="AF195" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG195" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH195" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI195" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="AJ195" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="AK195" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL195" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="B196" s="2"/>
-      <c r="C196" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D196" s="2"/>
-      <c r="E196" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F196" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G196" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H196" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I196" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J196" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="K196" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="L196" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="M196" s="2"/>
-      <c r="N196" s="2"/>
-      <c r="O196" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P196" s="2"/>
-      <c r="Q196" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R196" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S196" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T196" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U196" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V196" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W196" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X196" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y196" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z196" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA196" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB196" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC196" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD196" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE196" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="AF196" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG196" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH196" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI196" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ196" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK196" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL196" t="s" s="2">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="B197" s="2"/>
-      <c r="C197" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="D197" s="2"/>
-      <c r="E197" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F197" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G197" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H197" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I197" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J197" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="K197" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="L197" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="M197" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N197" s="2"/>
-      <c r="O197" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P197" s="2"/>
-      <c r="Q197" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R197" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S197" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T197" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U197" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V197" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W197" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X197" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y197" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z197" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA197" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB197" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC197" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD197" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE197" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="AF197" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG197" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH197" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI197" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AJ197" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK197" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL197" t="s" s="2">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="B198" s="2"/>
-      <c r="C198" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="D198" s="2"/>
-      <c r="E198" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F198" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G198" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H198" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I198" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J198" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="K198" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="L198" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="M198" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N198" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O198" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P198" s="2"/>
-      <c r="Q198" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R198" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S198" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T198" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U198" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V198" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W198" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X198" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y198" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z198" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA198" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB198" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC198" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD198" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE198" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="AF198" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG198" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH198" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI198" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AJ198" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK198" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL198" t="s" s="2">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="B199" s="2"/>
-      <c r="C199" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D199" s="2"/>
-      <c r="E199" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F199" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G199" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H199" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I199" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J199" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="K199" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="L199" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="M199" s="2"/>
-      <c r="N199" s="2"/>
-      <c r="O199" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P199" s="2"/>
-      <c r="Q199" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R199" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S199" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T199" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U199" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V199" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W199" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X199" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y199" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z199" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA199" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB199" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC199" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD199" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE199" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="AF199" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG199" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH199" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI199" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ199" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="AK199" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL199" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="B200" s="2"/>
-      <c r="C200" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D200" s="2"/>
-      <c r="E200" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F200" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G200" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H200" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I200" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J200" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="K200" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="L200" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="M200" s="2"/>
-      <c r="N200" s="2"/>
-      <c r="O200" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P200" s="2"/>
-      <c r="Q200" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R200" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S200" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T200" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U200" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V200" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W200" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X200" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y200" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z200" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA200" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB200" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC200" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD200" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE200" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="AF200" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG200" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH200" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI200" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ200" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="AK200" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL200" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="B201" s="2"/>
-      <c r="C201" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D201" s="2"/>
-      <c r="E201" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F201" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G201" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H201" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I201" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J201" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="K201" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="L201" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="M201" s="2"/>
-      <c r="N201" s="2"/>
-      <c r="O201" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P201" s="2"/>
-      <c r="Q201" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R201" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S201" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T201" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U201" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V201" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W201" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X201" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y201" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z201" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA201" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB201" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC201" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD201" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE201" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="AF201" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG201" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH201" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI201" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ201" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="AK201" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL201" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="B202" s="2"/>
-      <c r="C202" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D202" s="2"/>
-      <c r="E202" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F202" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G202" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H202" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I202" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J202" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="K202" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="L202" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="M202" s="2"/>
-      <c r="N202" s="2"/>
-      <c r="O202" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P202" s="2"/>
-      <c r="Q202" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R202" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S202" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T202" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U202" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V202" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W202" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="X202" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="Y202" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="Z202" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA202" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB202" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC202" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD202" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE202" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="AF202" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG202" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH202" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI202" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ202" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="AK202" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL202" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="B203" s="2"/>
-      <c r="C203" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D203" s="2"/>
-      <c r="E203" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F203" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G203" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H203" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I203" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J203" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="K203" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="L203" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="M203" s="2"/>
-      <c r="N203" s="2"/>
-      <c r="O203" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P203" s="2"/>
-      <c r="Q203" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R203" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S203" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T203" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U203" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V203" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W203" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X203" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y203" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z203" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA203" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB203" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC203" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD203" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE203" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="AF203" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG203" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH203" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI203" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="AJ203" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="AK203" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL203" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="B204" s="2"/>
-      <c r="C204" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D204" s="2"/>
-      <c r="E204" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F204" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G204" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H204" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I204" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J204" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="K204" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="L204" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="M204" s="2"/>
-      <c r="N204" s="2"/>
-      <c r="O204" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P204" s="2"/>
-      <c r="Q204" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R204" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S204" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T204" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U204" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V204" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W204" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X204" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y204" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z204" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA204" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB204" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC204" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD204" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE204" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="AF204" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG204" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH204" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI204" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ204" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK204" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL204" t="s" s="2">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="s" s="2">
-        <v>585</v>
-      </c>
-      <c r="B205" s="2"/>
-      <c r="C205" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="D205" s="2"/>
-      <c r="E205" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F205" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G205" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H205" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I205" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J205" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="K205" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="L205" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="M205" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N205" s="2"/>
-      <c r="O205" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P205" s="2"/>
-      <c r="Q205" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R205" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S205" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T205" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U205" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V205" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W205" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X205" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y205" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z205" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA205" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB205" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC205" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD205" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE205" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="AF205" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG205" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH205" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI205" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AJ205" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK205" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL205" t="s" s="2">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="B206" s="2"/>
-      <c r="C206" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="D206" s="2"/>
-      <c r="E206" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F206" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G206" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H206" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I206" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J206" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="K206" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="L206" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="M206" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N206" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O206" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P206" s="2"/>
-      <c r="Q206" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R206" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S206" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T206" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U206" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V206" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W206" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X206" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y206" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z206" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA206" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB206" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC206" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD206" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE206" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="AF206" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG206" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH206" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI206" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AJ206" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK206" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL206" t="s" s="2">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="B207" s="2"/>
-      <c r="C207" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D207" s="2"/>
-      <c r="E207" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="F207" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G207" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H207" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I207" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J207" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="K207" t="s" s="2">
-        <v>588</v>
-      </c>
-      <c r="L207" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="M207" s="2"/>
-      <c r="N207" s="2"/>
-      <c r="O207" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P207" s="2"/>
-      <c r="Q207" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R207" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S207" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T207" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U207" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V207" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W207" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="X207" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="Y207" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="Z207" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA207" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB207" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC207" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD207" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE207" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="AF207" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AG207" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH207" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI207" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ207" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="AK207" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL207" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="B208" s="2"/>
-      <c r="C208" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D208" s="2"/>
-      <c r="E208" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F208" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G208" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H208" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I208" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J208" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="K208" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="L208" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="M208" s="2"/>
-      <c r="N208" s="2"/>
-      <c r="O208" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P208" s="2"/>
-      <c r="Q208" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R208" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S208" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T208" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U208" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V208" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W208" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X208" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y208" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z208" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA208" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB208" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC208" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD208" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE208" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="AF208" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG208" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH208" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI208" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ208" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="AK208" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL208" t="s" s="2">
         <v>73</v>
       </c>
     </row>

--- a/StructureDefinition-PPLMedicinalProductDefinition.xlsx
+++ b/StructureDefinition-PPLMedicinalProductDefinition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6114" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7070" uniqueCount="602">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T17:48:06+00:00</t>
+    <t>2022-11-20T20:12:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1588,12 +1588,39 @@
     <t>EMA or ISO codes for country</t>
   </si>
   <si>
+    <t>MedicinalProductDefinition.name.countryLanguage.country.coding.id</t>
+  </si>
+  <si>
+    <t>MedicinalProductDefinition.name.countryLanguage.country.coding.extension</t>
+  </si>
+  <si>
+    <t>MedicinalProductDefinition.name.countryLanguage.country.coding.system</t>
+  </si>
+  <si>
+    <t>https://spor.ema.europa.eu/v1/lists/100000000002</t>
+  </si>
+  <si>
+    <t>MedicinalProductDefinition.name.countryLanguage.country.coding.version</t>
+  </si>
+  <si>
+    <t>MedicinalProductDefinition.name.countryLanguage.country.coding.code</t>
+  </si>
+  <si>
     <t>http://unicom-project.eu/fhir/ValueSet/country-ema-vs</t>
   </si>
   <si>
+    <t>MedicinalProductDefinition.name.countryLanguage.country.coding.display</t>
+  </si>
+  <si>
+    <t>MedicinalProductDefinition.name.countryLanguage.country.coding.userSelected</t>
+  </si>
+  <si>
     <t>iso</t>
   </si>
   <si>
+    <t>https://www.hl7.org/fhir/valueset-country.html</t>
+  </si>
+  <si>
     <t>http://unicom-project.eu/fhir/ValueSet/country-iso-vs</t>
   </si>
   <si>
@@ -1636,10 +1663,37 @@
     <t>MedicinalProductDefinition.name.countryLanguage.language.coding</t>
   </si>
   <si>
+    <t>MedicinalProductDefinition.name.countryLanguage.language.coding.id</t>
+  </si>
+  <si>
+    <t>MedicinalProductDefinition.name.countryLanguage.language.coding.extension</t>
+  </si>
+  <si>
+    <t>MedicinalProductDefinition.name.countryLanguage.language.coding.system</t>
+  </si>
+  <si>
+    <t>https://spor.ema.europa.eu/v1/lists/100000072057</t>
+  </si>
+  <si>
+    <t>MedicinalProductDefinition.name.countryLanguage.language.coding.version</t>
+  </si>
+  <si>
+    <t>MedicinalProductDefinition.name.countryLanguage.language.coding.code</t>
+  </si>
+  <si>
     <t>http://unicom-project.eu/fhir/ValueSet/language-ema-vs</t>
   </si>
   <si>
+    <t>MedicinalProductDefinition.name.countryLanguage.language.coding.display</t>
+  </si>
+  <si>
+    <t>MedicinalProductDefinition.name.countryLanguage.language.coding.userSelected</t>
+  </si>
+  <si>
     <t>bcp</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/all-languages</t>
   </si>
   <si>
     <t>http://unicom-project.eu/fhir/ValueSet/language-bcp-vs</t>
@@ -2119,7 +2173,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL180"/>
+  <dimension ref="A1:AL208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -18258,11 +18312,13 @@
         <v>73</v>
       </c>
       <c r="W150" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="X150" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="X150" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="Y150" t="s" s="2">
-        <v>506</v>
+        <v>73</v>
       </c>
       <c r="Z150" t="s" s="2">
         <v>73</v>
@@ -18306,11 +18362,9 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="B151" t="s" s="2">
-        <v>507</v>
-      </c>
+        <v>506</v>
+      </c>
+      <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
         <v>73</v>
       </c>
@@ -18328,23 +18382,19 @@
         <v>73</v>
       </c>
       <c r="I151" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J151" t="s" s="2">
-        <v>236</v>
+        <v>84</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>237</v>
+        <v>152</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="M151" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N151" t="s" s="2">
-        <v>240</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="M151" s="2"/>
+      <c r="N151" s="2"/>
       <c r="O151" t="s" s="2">
         <v>73</v>
       </c>
@@ -18368,11 +18418,13 @@
         <v>73</v>
       </c>
       <c r="W151" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="X151" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="X151" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="Y151" t="s" s="2">
-        <v>508</v>
+        <v>73</v>
       </c>
       <c r="Z151" t="s" s="2">
         <v>73</v>
@@ -18390,19 +18442,19 @@
         <v>73</v>
       </c>
       <c r="AE151" t="s" s="2">
-        <v>241</v>
+        <v>154</v>
       </c>
       <c r="AF151" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG151" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH151" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI151" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ151" t="s" s="2">
         <v>73</v>
@@ -18411,23 +18463,23 @@
         <v>73</v>
       </c>
       <c r="AL151" t="s" s="2">
-        <v>242</v>
+        <v>155</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F152" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G152" t="s" s="2">
         <v>73</v>
@@ -18436,23 +18488,21 @@
         <v>73</v>
       </c>
       <c r="I152" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J152" t="s" s="2">
-        <v>189</v>
+        <v>129</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>280</v>
+        <v>130</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>281</v>
+        <v>157</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="N152" t="s" s="2">
-        <v>283</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="N152" s="2"/>
       <c r="O152" t="s" s="2">
         <v>73</v>
       </c>
@@ -18488,31 +18538,31 @@
         <v>73</v>
       </c>
       <c r="AA152" t="s" s="2">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="AB152" t="s" s="2">
-        <v>73</v>
+        <v>159</v>
       </c>
       <c r="AC152" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD152" t="s" s="2">
-        <v>73</v>
+        <v>146</v>
       </c>
       <c r="AE152" t="s" s="2">
-        <v>284</v>
+        <v>160</v>
       </c>
       <c r="AF152" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG152" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH152" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI152" t="s" s="2">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="AJ152" t="s" s="2">
         <v>73</v>
@@ -18521,12 +18571,12 @@
         <v>73</v>
       </c>
       <c r="AL152" t="s" s="2">
-        <v>285</v>
+        <v>155</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
@@ -18534,7 +18584,7 @@
       </c>
       <c r="D153" s="2"/>
       <c r="E153" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F153" t="s" s="2">
         <v>82</v>
@@ -18549,16 +18599,20 @@
         <v>83</v>
       </c>
       <c r="J153" t="s" s="2">
-        <v>171</v>
+        <v>96</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>511</v>
+        <v>246</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="M153" s="2"/>
-      <c r="N153" s="2"/>
+        <v>247</v>
+      </c>
+      <c r="M153" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="N153" t="s" s="2">
+        <v>249</v>
+      </c>
       <c r="O153" t="s" s="2">
         <v>73</v>
       </c>
@@ -18567,7 +18621,7 @@
         <v>73</v>
       </c>
       <c r="R153" t="s" s="2">
-        <v>73</v>
+        <v>509</v>
       </c>
       <c r="S153" t="s" s="2">
         <v>73</v>
@@ -18582,13 +18636,13 @@
         <v>73</v>
       </c>
       <c r="W153" t="s" s="2">
-        <v>216</v>
+        <v>73</v>
       </c>
       <c r="X153" t="s" s="2">
-        <v>499</v>
+        <v>73</v>
       </c>
       <c r="Y153" t="s" s="2">
-        <v>513</v>
+        <v>73</v>
       </c>
       <c r="Z153" t="s" s="2">
         <v>73</v>
@@ -18606,7 +18660,7 @@
         <v>73</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>510</v>
+        <v>251</v>
       </c>
       <c r="AF153" t="s" s="2">
         <v>74</v>
@@ -18621,18 +18675,18 @@
         <v>94</v>
       </c>
       <c r="AJ153" t="s" s="2">
-        <v>514</v>
+        <v>73</v>
       </c>
       <c r="AK153" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL153" t="s" s="2">
-        <v>73</v>
+        <v>252</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -18640,7 +18694,7 @@
       </c>
       <c r="D154" s="2"/>
       <c r="E154" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F154" t="s" s="2">
         <v>82</v>
@@ -18655,15 +18709,17 @@
         <v>83</v>
       </c>
       <c r="J154" t="s" s="2">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>516</v>
+        <v>254</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="M154" s="2"/>
+        <v>255</v>
+      </c>
+      <c r="M154" t="s" s="2">
+        <v>256</v>
+      </c>
       <c r="N154" s="2"/>
       <c r="O154" t="s" s="2">
         <v>73</v>
@@ -18688,13 +18744,13 @@
         <v>73</v>
       </c>
       <c r="W154" t="s" s="2">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="X154" t="s" s="2">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="Y154" t="s" s="2">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="Z154" t="s" s="2">
         <v>73</v>
@@ -18712,10 +18768,10 @@
         <v>73</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>515</v>
+        <v>257</v>
       </c>
       <c r="AF154" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AG154" t="s" s="2">
         <v>82</v>
@@ -18727,18 +18783,18 @@
         <v>94</v>
       </c>
       <c r="AJ154" t="s" s="2">
-        <v>518</v>
+        <v>73</v>
       </c>
       <c r="AK154" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL154" t="s" s="2">
-        <v>73</v>
+        <v>258</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -18758,19 +18814,21 @@
         <v>73</v>
       </c>
       <c r="I155" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J155" t="s" s="2">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>152</v>
+        <v>260</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>153</v>
+        <v>261</v>
       </c>
       <c r="M155" s="2"/>
-      <c r="N155" s="2"/>
+      <c r="N155" t="s" s="2">
+        <v>262</v>
+      </c>
       <c r="O155" t="s" s="2">
         <v>73</v>
       </c>
@@ -18794,13 +18852,11 @@
         <v>73</v>
       </c>
       <c r="W155" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X155" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="X155" s="2"/>
       <c r="Y155" t="s" s="2">
-        <v>73</v>
+        <v>512</v>
       </c>
       <c r="Z155" t="s" s="2">
         <v>73</v>
@@ -18818,7 +18874,7 @@
         <v>73</v>
       </c>
       <c r="AE155" t="s" s="2">
-        <v>154</v>
+        <v>263</v>
       </c>
       <c r="AF155" t="s" s="2">
         <v>74</v>
@@ -18830,7 +18886,7 @@
         <v>73</v>
       </c>
       <c r="AI155" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AJ155" t="s" s="2">
         <v>73</v>
@@ -18839,23 +18895,23 @@
         <v>73</v>
       </c>
       <c r="AL155" t="s" s="2">
-        <v>155</v>
+        <v>264</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="D156" s="2"/>
       <c r="E156" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F156" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G156" t="s" s="2">
         <v>73</v>
@@ -18864,21 +18920,21 @@
         <v>73</v>
       </c>
       <c r="I156" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J156" t="s" s="2">
-        <v>129</v>
+        <v>189</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>130</v>
+        <v>266</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="M156" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N156" s="2"/>
+        <v>267</v>
+      </c>
+      <c r="M156" s="2"/>
+      <c r="N156" t="s" s="2">
+        <v>268</v>
+      </c>
       <c r="O156" t="s" s="2">
         <v>73</v>
       </c>
@@ -18914,31 +18970,31 @@
         <v>73</v>
       </c>
       <c r="AA156" t="s" s="2">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="AB156" t="s" s="2">
-        <v>159</v>
+        <v>73</v>
       </c>
       <c r="AC156" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD156" t="s" s="2">
-        <v>146</v>
+        <v>73</v>
       </c>
       <c r="AE156" t="s" s="2">
-        <v>160</v>
+        <v>269</v>
       </c>
       <c r="AF156" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG156" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH156" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI156" t="s" s="2">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="AJ156" t="s" s="2">
         <v>73</v>
@@ -18947,12 +19003,12 @@
         <v>73</v>
       </c>
       <c r="AL156" t="s" s="2">
-        <v>155</v>
+        <v>270</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -18960,10 +19016,10 @@
       </c>
       <c r="D157" s="2"/>
       <c r="E157" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F157" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G157" t="s" s="2">
         <v>73</v>
@@ -18975,19 +19031,19 @@
         <v>83</v>
       </c>
       <c r="J157" t="s" s="2">
-        <v>236</v>
+        <v>272</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>505</v>
+        <v>273</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>239</v>
+        <v>275</v>
       </c>
       <c r="N157" t="s" s="2">
-        <v>240</v>
+        <v>276</v>
       </c>
       <c r="O157" t="s" s="2">
         <v>73</v>
@@ -19024,23 +19080,25 @@
         <v>73</v>
       </c>
       <c r="AA157" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="AB157" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="AB157" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="AC157" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD157" t="s" s="2">
-        <v>146</v>
+        <v>73</v>
       </c>
       <c r="AE157" t="s" s="2">
-        <v>241</v>
+        <v>277</v>
       </c>
       <c r="AF157" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG157" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH157" t="s" s="2">
         <v>73</v>
@@ -19055,22 +19113,22 @@
         <v>73</v>
       </c>
       <c r="AL157" t="s" s="2">
-        <v>242</v>
+        <v>278</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>521</v>
+        <v>504</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>373</v>
+        <v>515</v>
       </c>
       <c r="C158" t="s" s="2">
         <v>73</v>
       </c>
       <c r="D158" s="2"/>
       <c r="E158" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F158" t="s" s="2">
         <v>82</v>
@@ -19122,11 +19180,13 @@
         <v>73</v>
       </c>
       <c r="W158" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="X158" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="X158" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="Y158" t="s" s="2">
-        <v>522</v>
+        <v>73</v>
       </c>
       <c r="Z158" t="s" s="2">
         <v>73</v>
@@ -19170,11 +19230,9 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="B159" t="s" s="2">
-        <v>523</v>
-      </c>
+        <v>506</v>
+      </c>
+      <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
         <v>73</v>
       </c>
@@ -19192,23 +19250,19 @@
         <v>73</v>
       </c>
       <c r="I159" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J159" t="s" s="2">
-        <v>236</v>
+        <v>84</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>237</v>
+        <v>152</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="M159" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N159" t="s" s="2">
-        <v>240</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="M159" s="2"/>
+      <c r="N159" s="2"/>
       <c r="O159" t="s" s="2">
         <v>73</v>
       </c>
@@ -19232,11 +19286,13 @@
         <v>73</v>
       </c>
       <c r="W159" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="X159" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="X159" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="Y159" t="s" s="2">
-        <v>524</v>
+        <v>73</v>
       </c>
       <c r="Z159" t="s" s="2">
         <v>73</v>
@@ -19254,19 +19310,19 @@
         <v>73</v>
       </c>
       <c r="AE159" t="s" s="2">
-        <v>241</v>
+        <v>154</v>
       </c>
       <c r="AF159" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG159" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH159" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI159" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ159" t="s" s="2">
         <v>73</v>
@@ -19275,23 +19331,23 @@
         <v>73</v>
       </c>
       <c r="AL159" t="s" s="2">
-        <v>242</v>
+        <v>155</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>525</v>
+        <v>507</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="D160" s="2"/>
       <c r="E160" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F160" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G160" t="s" s="2">
         <v>73</v>
@@ -19300,23 +19356,21 @@
         <v>73</v>
       </c>
       <c r="I160" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J160" t="s" s="2">
-        <v>189</v>
+        <v>129</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>280</v>
+        <v>130</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>281</v>
+        <v>157</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="N160" t="s" s="2">
-        <v>283</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="N160" s="2"/>
       <c r="O160" t="s" s="2">
         <v>73</v>
       </c>
@@ -19352,31 +19406,31 @@
         <v>73</v>
       </c>
       <c r="AA160" t="s" s="2">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="AB160" t="s" s="2">
-        <v>73</v>
+        <v>159</v>
       </c>
       <c r="AC160" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD160" t="s" s="2">
-        <v>73</v>
+        <v>146</v>
       </c>
       <c r="AE160" t="s" s="2">
-        <v>284</v>
+        <v>160</v>
       </c>
       <c r="AF160" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG160" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH160" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI160" t="s" s="2">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="AJ160" t="s" s="2">
         <v>73</v>
@@ -19385,12 +19439,12 @@
         <v>73</v>
       </c>
       <c r="AL160" t="s" s="2">
-        <v>285</v>
+        <v>155</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>526</v>
+        <v>508</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -19398,10 +19452,10 @@
       </c>
       <c r="D161" s="2"/>
       <c r="E161" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F161" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G161" t="s" s="2">
         <v>73</v>
@@ -19413,16 +19467,20 @@
         <v>83</v>
       </c>
       <c r="J161" t="s" s="2">
-        <v>418</v>
+        <v>96</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>527</v>
+        <v>246</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="M161" s="2"/>
-      <c r="N161" s="2"/>
+        <v>247</v>
+      </c>
+      <c r="M161" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="N161" t="s" s="2">
+        <v>249</v>
+      </c>
       <c r="O161" t="s" s="2">
         <v>73</v>
       </c>
@@ -19431,7 +19489,7 @@
         <v>73</v>
       </c>
       <c r="R161" t="s" s="2">
-        <v>73</v>
+        <v>516</v>
       </c>
       <c r="S161" t="s" s="2">
         <v>73</v>
@@ -19470,33 +19528,33 @@
         <v>73</v>
       </c>
       <c r="AE161" t="s" s="2">
-        <v>526</v>
+        <v>251</v>
       </c>
       <c r="AF161" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG161" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH161" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI161" t="s" s="2">
-        <v>421</v>
+        <v>94</v>
       </c>
       <c r="AJ161" t="s" s="2">
-        <v>529</v>
+        <v>73</v>
       </c>
       <c r="AK161" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL161" t="s" s="2">
-        <v>73</v>
+        <v>252</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>530</v>
+        <v>510</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
@@ -19516,18 +19574,20 @@
         <v>73</v>
       </c>
       <c r="I162" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J162" t="s" s="2">
         <v>189</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>152</v>
+        <v>254</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="M162" s="2"/>
+        <v>255</v>
+      </c>
+      <c r="M162" t="s" s="2">
+        <v>256</v>
+      </c>
       <c r="N162" s="2"/>
       <c r="O162" t="s" s="2">
         <v>73</v>
@@ -19576,7 +19636,7 @@
         <v>73</v>
       </c>
       <c r="AE162" t="s" s="2">
-        <v>154</v>
+        <v>257</v>
       </c>
       <c r="AF162" t="s" s="2">
         <v>74</v>
@@ -19588,7 +19648,7 @@
         <v>73</v>
       </c>
       <c r="AI162" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AJ162" t="s" s="2">
         <v>73</v>
@@ -19597,23 +19657,23 @@
         <v>73</v>
       </c>
       <c r="AL162" t="s" s="2">
-        <v>155</v>
+        <v>258</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>531</v>
+        <v>511</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="D163" s="2"/>
       <c r="E163" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F163" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G163" t="s" s="2">
         <v>73</v>
@@ -19622,21 +19682,21 @@
         <v>73</v>
       </c>
       <c r="I163" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J163" t="s" s="2">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>130</v>
+        <v>260</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="M163" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N163" s="2"/>
+        <v>261</v>
+      </c>
+      <c r="M163" s="2"/>
+      <c r="N163" t="s" s="2">
+        <v>262</v>
+      </c>
       <c r="O163" t="s" s="2">
         <v>73</v>
       </c>
@@ -19660,13 +19720,11 @@
         <v>73</v>
       </c>
       <c r="W163" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X163" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="X163" s="2"/>
       <c r="Y163" t="s" s="2">
-        <v>73</v>
+        <v>517</v>
       </c>
       <c r="Z163" t="s" s="2">
         <v>73</v>
@@ -19684,19 +19742,19 @@
         <v>73</v>
       </c>
       <c r="AE163" t="s" s="2">
-        <v>160</v>
+        <v>263</v>
       </c>
       <c r="AF163" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG163" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH163" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI163" t="s" s="2">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="AJ163" t="s" s="2">
         <v>73</v>
@@ -19705,47 +19763,45 @@
         <v>73</v>
       </c>
       <c r="AL163" t="s" s="2">
-        <v>155</v>
+        <v>264</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>532</v>
+        <v>513</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
-        <v>425</v>
+        <v>73</v>
       </c>
       <c r="D164" s="2"/>
       <c r="E164" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F164" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G164" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H164" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I164" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J164" t="s" s="2">
-        <v>129</v>
+        <v>189</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>426</v>
+        <v>266</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="M164" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="M164" s="2"/>
       <c r="N164" t="s" s="2">
-        <v>138</v>
+        <v>268</v>
       </c>
       <c r="O164" t="s" s="2">
         <v>73</v>
@@ -19794,19 +19850,19 @@
         <v>73</v>
       </c>
       <c r="AE164" t="s" s="2">
-        <v>428</v>
+        <v>269</v>
       </c>
       <c r="AF164" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG164" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH164" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI164" t="s" s="2">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="AJ164" t="s" s="2">
         <v>73</v>
@@ -19815,12 +19871,12 @@
         <v>73</v>
       </c>
       <c r="AL164" t="s" s="2">
-        <v>126</v>
+        <v>270</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>533</v>
+        <v>514</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
@@ -19828,7 +19884,7 @@
       </c>
       <c r="D165" s="2"/>
       <c r="E165" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F165" t="s" s="2">
         <v>82</v>
@@ -19843,16 +19899,20 @@
         <v>83</v>
       </c>
       <c r="J165" t="s" s="2">
-        <v>534</v>
+        <v>272</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>527</v>
+        <v>273</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="M165" s="2"/>
-      <c r="N165" s="2"/>
+        <v>274</v>
+      </c>
+      <c r="M165" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="N165" t="s" s="2">
+        <v>276</v>
+      </c>
       <c r="O165" t="s" s="2">
         <v>73</v>
       </c>
@@ -19900,10 +19960,10 @@
         <v>73</v>
       </c>
       <c r="AE165" t="s" s="2">
-        <v>533</v>
+        <v>277</v>
       </c>
       <c r="AF165" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AG165" t="s" s="2">
         <v>82</v>
@@ -19915,18 +19975,18 @@
         <v>94</v>
       </c>
       <c r="AJ165" t="s" s="2">
-        <v>529</v>
+        <v>73</v>
       </c>
       <c r="AK165" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL165" t="s" s="2">
-        <v>73</v>
+        <v>278</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>536</v>
+        <v>518</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -19949,16 +20009,20 @@
         <v>83</v>
       </c>
       <c r="J166" t="s" s="2">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>537</v>
+        <v>280</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="M166" s="2"/>
-      <c r="N166" s="2"/>
+        <v>281</v>
+      </c>
+      <c r="M166" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="N166" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="O166" t="s" s="2">
         <v>73</v>
       </c>
@@ -19982,13 +20046,13 @@
         <v>73</v>
       </c>
       <c r="W166" t="s" s="2">
-        <v>216</v>
+        <v>73</v>
       </c>
       <c r="X166" t="s" s="2">
-        <v>432</v>
+        <v>73</v>
       </c>
       <c r="Y166" t="s" s="2">
-        <v>539</v>
+        <v>73</v>
       </c>
       <c r="Z166" t="s" s="2">
         <v>73</v>
@@ -20006,7 +20070,7 @@
         <v>73</v>
       </c>
       <c r="AE166" t="s" s="2">
-        <v>536</v>
+        <v>284</v>
       </c>
       <c r="AF166" t="s" s="2">
         <v>74</v>
@@ -20021,18 +20085,18 @@
         <v>94</v>
       </c>
       <c r="AJ166" t="s" s="2">
-        <v>529</v>
+        <v>73</v>
       </c>
       <c r="AK166" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL166" t="s" s="2">
-        <v>73</v>
+        <v>285</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>540</v>
+        <v>519</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -20043,7 +20107,7 @@
         <v>74</v>
       </c>
       <c r="F167" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G167" t="s" s="2">
         <v>73</v>
@@ -20055,13 +20119,13 @@
         <v>83</v>
       </c>
       <c r="J167" t="s" s="2">
-        <v>418</v>
+        <v>171</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>542</v>
+        <v>521</v>
       </c>
       <c r="M167" s="2"/>
       <c r="N167" s="2"/>
@@ -20088,13 +20152,13 @@
         <v>73</v>
       </c>
       <c r="W167" t="s" s="2">
-        <v>73</v>
+        <v>216</v>
       </c>
       <c r="X167" t="s" s="2">
-        <v>73</v>
+        <v>499</v>
       </c>
       <c r="Y167" t="s" s="2">
-        <v>73</v>
+        <v>522</v>
       </c>
       <c r="Z167" t="s" s="2">
         <v>73</v>
@@ -20112,22 +20176,22 @@
         <v>73</v>
       </c>
       <c r="AE167" t="s" s="2">
-        <v>540</v>
+        <v>519</v>
       </c>
       <c r="AF167" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG167" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH167" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI167" t="s" s="2">
-        <v>421</v>
+        <v>94</v>
       </c>
       <c r="AJ167" t="s" s="2">
-        <v>543</v>
+        <v>523</v>
       </c>
       <c r="AK167" t="s" s="2">
         <v>73</v>
@@ -20138,7 +20202,7 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>544</v>
+        <v>524</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
@@ -20146,7 +20210,7 @@
       </c>
       <c r="D168" s="2"/>
       <c r="E168" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F168" t="s" s="2">
         <v>82</v>
@@ -20158,16 +20222,16 @@
         <v>73</v>
       </c>
       <c r="I168" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J168" t="s" s="2">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>152</v>
+        <v>525</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>153</v>
+        <v>526</v>
       </c>
       <c r="M168" s="2"/>
       <c r="N168" s="2"/>
@@ -20194,13 +20258,13 @@
         <v>73</v>
       </c>
       <c r="W168" t="s" s="2">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="X168" t="s" s="2">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="Y168" t="s" s="2">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="Z168" t="s" s="2">
         <v>73</v>
@@ -20218,10 +20282,10 @@
         <v>73</v>
       </c>
       <c r="AE168" t="s" s="2">
-        <v>154</v>
+        <v>524</v>
       </c>
       <c r="AF168" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="AG168" t="s" s="2">
         <v>82</v>
@@ -20230,32 +20294,32 @@
         <v>73</v>
       </c>
       <c r="AI168" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AJ168" t="s" s="2">
-        <v>73</v>
+        <v>527</v>
       </c>
       <c r="AK168" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL168" t="s" s="2">
-        <v>155</v>
+        <v>73</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>545</v>
+        <v>528</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="D169" s="2"/>
       <c r="E169" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F169" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G169" t="s" s="2">
         <v>73</v>
@@ -20267,17 +20331,15 @@
         <v>73</v>
       </c>
       <c r="J169" t="s" s="2">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="M169" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="M169" s="2"/>
       <c r="N169" s="2"/>
       <c r="O169" t="s" s="2">
         <v>73</v>
@@ -20326,19 +20388,19 @@
         <v>73</v>
       </c>
       <c r="AE169" t="s" s="2">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="AF169" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG169" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH169" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI169" t="s" s="2">
-        <v>134</v>
+        <v>73</v>
       </c>
       <c r="AJ169" t="s" s="2">
         <v>73</v>
@@ -20352,11 +20414,11 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>546</v>
+        <v>529</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
-        <v>425</v>
+        <v>128</v>
       </c>
       <c r="D170" s="2"/>
       <c r="E170" t="s" s="2">
@@ -20369,26 +20431,24 @@
         <v>73</v>
       </c>
       <c r="H170" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I170" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J170" t="s" s="2">
         <v>129</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>426</v>
+        <v>130</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>427</v>
+        <v>157</v>
       </c>
       <c r="M170" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="N170" t="s" s="2">
-        <v>138</v>
-      </c>
+      <c r="N170" s="2"/>
       <c r="O170" t="s" s="2">
         <v>73</v>
       </c>
@@ -20424,19 +20484,19 @@
         <v>73</v>
       </c>
       <c r="AA170" t="s" s="2">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="AB170" t="s" s="2">
-        <v>73</v>
+        <v>159</v>
       </c>
       <c r="AC170" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD170" t="s" s="2">
-        <v>73</v>
+        <v>146</v>
       </c>
       <c r="AE170" t="s" s="2">
-        <v>428</v>
+        <v>160</v>
       </c>
       <c r="AF170" t="s" s="2">
         <v>74</v>
@@ -20457,12 +20517,12 @@
         <v>73</v>
       </c>
       <c r="AL170" t="s" s="2">
-        <v>126</v>
+        <v>155</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>547</v>
+        <v>530</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
@@ -20470,10 +20530,10 @@
       </c>
       <c r="D171" s="2"/>
       <c r="E171" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F171" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G171" t="s" s="2">
         <v>73</v>
@@ -20485,16 +20545,20 @@
         <v>83</v>
       </c>
       <c r="J171" t="s" s="2">
-        <v>548</v>
+        <v>236</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>549</v>
+        <v>505</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="M171" s="2"/>
-      <c r="N171" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="M171" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="N171" t="s" s="2">
+        <v>240</v>
+      </c>
       <c r="O171" t="s" s="2">
         <v>73</v>
       </c>
@@ -20530,25 +20594,23 @@
         <v>73</v>
       </c>
       <c r="AA171" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB171" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="AB171" s="2"/>
       <c r="AC171" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD171" t="s" s="2">
-        <v>73</v>
+        <v>146</v>
       </c>
       <c r="AE171" t="s" s="2">
-        <v>547</v>
+        <v>241</v>
       </c>
       <c r="AF171" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG171" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH171" t="s" s="2">
         <v>73</v>
@@ -20557,26 +20619,28 @@
         <v>94</v>
       </c>
       <c r="AJ171" t="s" s="2">
-        <v>551</v>
+        <v>73</v>
       </c>
       <c r="AK171" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL171" t="s" s="2">
-        <v>73</v>
+        <v>242</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="B172" s="2"/>
+        <v>530</v>
+      </c>
+      <c r="B172" t="s" s="2">
+        <v>373</v>
+      </c>
       <c r="C172" t="s" s="2">
         <v>73</v>
       </c>
       <c r="D172" s="2"/>
       <c r="E172" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F172" t="s" s="2">
         <v>82</v>
@@ -20591,16 +20655,20 @@
         <v>83</v>
       </c>
       <c r="J172" t="s" s="2">
-        <v>197</v>
+        <v>236</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>553</v>
+        <v>237</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="M172" s="2"/>
-      <c r="N172" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="M172" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="N172" t="s" s="2">
+        <v>240</v>
+      </c>
       <c r="O172" t="s" s="2">
         <v>73</v>
       </c>
@@ -20648,13 +20716,13 @@
         <v>73</v>
       </c>
       <c r="AE172" t="s" s="2">
-        <v>552</v>
+        <v>241</v>
       </c>
       <c r="AF172" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG172" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH172" t="s" s="2">
         <v>73</v>
@@ -20663,18 +20731,18 @@
         <v>94</v>
       </c>
       <c r="AJ172" t="s" s="2">
-        <v>555</v>
+        <v>73</v>
       </c>
       <c r="AK172" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL172" t="s" s="2">
-        <v>73</v>
+        <v>242</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>556</v>
+        <v>531</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
@@ -20685,7 +20753,7 @@
         <v>74</v>
       </c>
       <c r="F173" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G173" t="s" s="2">
         <v>73</v>
@@ -20694,16 +20762,16 @@
         <v>73</v>
       </c>
       <c r="I173" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J173" t="s" s="2">
-        <v>203</v>
+        <v>84</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>557</v>
+        <v>152</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>558</v>
+        <v>153</v>
       </c>
       <c r="M173" s="2"/>
       <c r="N173" s="2"/>
@@ -20754,44 +20822,44 @@
         <v>73</v>
       </c>
       <c r="AE173" t="s" s="2">
-        <v>556</v>
+        <v>154</v>
       </c>
       <c r="AF173" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG173" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH173" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI173" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ173" t="s" s="2">
-        <v>559</v>
+        <v>73</v>
       </c>
       <c r="AK173" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL173" t="s" s="2">
-        <v>73</v>
+        <v>155</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>560</v>
+        <v>532</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="D174" s="2"/>
       <c r="E174" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F174" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G174" t="s" s="2">
         <v>73</v>
@@ -20800,18 +20868,20 @@
         <v>73</v>
       </c>
       <c r="I174" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J174" t="s" s="2">
-        <v>171</v>
+        <v>129</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>561</v>
+        <v>130</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="M174" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="M174" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="N174" s="2"/>
       <c r="O174" t="s" s="2">
         <v>73</v>
@@ -20836,57 +20906,57 @@
         <v>73</v>
       </c>
       <c r="W174" t="s" s="2">
-        <v>216</v>
+        <v>73</v>
       </c>
       <c r="X174" t="s" s="2">
-        <v>563</v>
+        <v>73</v>
       </c>
       <c r="Y174" t="s" s="2">
-        <v>564</v>
+        <v>73</v>
       </c>
       <c r="Z174" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AA174" t="s" s="2">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="AB174" t="s" s="2">
-        <v>73</v>
+        <v>159</v>
       </c>
       <c r="AC174" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD174" t="s" s="2">
-        <v>73</v>
+        <v>146</v>
       </c>
       <c r="AE174" t="s" s="2">
-        <v>560</v>
+        <v>160</v>
       </c>
       <c r="AF174" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG174" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH174" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI174" t="s" s="2">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="AJ174" t="s" s="2">
-        <v>565</v>
+        <v>73</v>
       </c>
       <c r="AK174" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL174" t="s" s="2">
-        <v>73</v>
+        <v>155</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>566</v>
+        <v>533</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -20894,10 +20964,10 @@
       </c>
       <c r="D175" s="2"/>
       <c r="E175" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F175" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G175" t="s" s="2">
         <v>73</v>
@@ -20909,16 +20979,20 @@
         <v>83</v>
       </c>
       <c r="J175" t="s" s="2">
-        <v>418</v>
+        <v>96</v>
       </c>
       <c r="K175" t="s" s="2">
-        <v>567</v>
+        <v>246</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="M175" s="2"/>
-      <c r="N175" s="2"/>
+        <v>247</v>
+      </c>
+      <c r="M175" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="N175" t="s" s="2">
+        <v>249</v>
+      </c>
       <c r="O175" t="s" s="2">
         <v>73</v>
       </c>
@@ -20927,7 +21001,7 @@
         <v>73</v>
       </c>
       <c r="R175" t="s" s="2">
-        <v>73</v>
+        <v>534</v>
       </c>
       <c r="S175" t="s" s="2">
         <v>73</v>
@@ -20966,33 +21040,33 @@
         <v>73</v>
       </c>
       <c r="AE175" t="s" s="2">
-        <v>566</v>
+        <v>251</v>
       </c>
       <c r="AF175" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG175" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH175" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI175" t="s" s="2">
-        <v>421</v>
+        <v>94</v>
       </c>
       <c r="AJ175" t="s" s="2">
-        <v>569</v>
+        <v>73</v>
       </c>
       <c r="AK175" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL175" t="s" s="2">
-        <v>73</v>
+        <v>252</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>570</v>
+        <v>535</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" t="s" s="2">
@@ -21012,18 +21086,20 @@
         <v>73</v>
       </c>
       <c r="I176" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J176" t="s" s="2">
         <v>189</v>
       </c>
       <c r="K176" t="s" s="2">
-        <v>152</v>
+        <v>254</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="M176" s="2"/>
+        <v>255</v>
+      </c>
+      <c r="M176" t="s" s="2">
+        <v>256</v>
+      </c>
       <c r="N176" s="2"/>
       <c r="O176" t="s" s="2">
         <v>73</v>
@@ -21072,7 +21148,7 @@
         <v>73</v>
       </c>
       <c r="AE176" t="s" s="2">
-        <v>154</v>
+        <v>257</v>
       </c>
       <c r="AF176" t="s" s="2">
         <v>74</v>
@@ -21084,7 +21160,7 @@
         <v>73</v>
       </c>
       <c r="AI176" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AJ176" t="s" s="2">
         <v>73</v>
@@ -21093,23 +21169,23 @@
         <v>73</v>
       </c>
       <c r="AL176" t="s" s="2">
-        <v>155</v>
+        <v>258</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>571</v>
+        <v>536</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="D177" s="2"/>
       <c r="E177" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F177" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G177" t="s" s="2">
         <v>73</v>
@@ -21118,21 +21194,21 @@
         <v>73</v>
       </c>
       <c r="I177" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J177" t="s" s="2">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="K177" t="s" s="2">
-        <v>130</v>
+        <v>260</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="M177" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N177" s="2"/>
+        <v>261</v>
+      </c>
+      <c r="M177" s="2"/>
+      <c r="N177" t="s" s="2">
+        <v>262</v>
+      </c>
       <c r="O177" t="s" s="2">
         <v>73</v>
       </c>
@@ -21156,13 +21232,11 @@
         <v>73</v>
       </c>
       <c r="W177" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X177" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="X177" s="2"/>
       <c r="Y177" t="s" s="2">
-        <v>73</v>
+        <v>537</v>
       </c>
       <c r="Z177" t="s" s="2">
         <v>73</v>
@@ -21180,19 +21254,19 @@
         <v>73</v>
       </c>
       <c r="AE177" t="s" s="2">
-        <v>160</v>
+        <v>263</v>
       </c>
       <c r="AF177" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG177" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH177" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI177" t="s" s="2">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="AJ177" t="s" s="2">
         <v>73</v>
@@ -21201,47 +21275,45 @@
         <v>73</v>
       </c>
       <c r="AL177" t="s" s="2">
-        <v>155</v>
+        <v>264</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>572</v>
+        <v>538</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
-        <v>425</v>
+        <v>73</v>
       </c>
       <c r="D178" s="2"/>
       <c r="E178" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F178" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G178" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H178" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I178" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J178" t="s" s="2">
-        <v>129</v>
+        <v>189</v>
       </c>
       <c r="K178" t="s" s="2">
-        <v>426</v>
+        <v>266</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="M178" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="M178" s="2"/>
       <c r="N178" t="s" s="2">
-        <v>138</v>
+        <v>268</v>
       </c>
       <c r="O178" t="s" s="2">
         <v>73</v>
@@ -21290,19 +21362,19 @@
         <v>73</v>
       </c>
       <c r="AE178" t="s" s="2">
-        <v>428</v>
+        <v>269</v>
       </c>
       <c r="AF178" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG178" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH178" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI178" t="s" s="2">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="AJ178" t="s" s="2">
         <v>73</v>
@@ -21311,12 +21383,12 @@
         <v>73</v>
       </c>
       <c r="AL178" t="s" s="2">
-        <v>126</v>
+        <v>270</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>573</v>
+        <v>539</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" t="s" s="2">
@@ -21324,7 +21396,7 @@
       </c>
       <c r="D179" s="2"/>
       <c r="E179" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F179" t="s" s="2">
         <v>82</v>
@@ -21339,16 +21411,20 @@
         <v>83</v>
       </c>
       <c r="J179" t="s" s="2">
-        <v>171</v>
+        <v>272</v>
       </c>
       <c r="K179" t="s" s="2">
-        <v>574</v>
+        <v>273</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="M179" s="2"/>
-      <c r="N179" s="2"/>
+        <v>274</v>
+      </c>
+      <c r="M179" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="N179" t="s" s="2">
+        <v>276</v>
+      </c>
       <c r="O179" t="s" s="2">
         <v>73</v>
       </c>
@@ -21372,13 +21448,13 @@
         <v>73</v>
       </c>
       <c r="W179" t="s" s="2">
-        <v>216</v>
+        <v>73</v>
       </c>
       <c r="X179" t="s" s="2">
-        <v>576</v>
+        <v>73</v>
       </c>
       <c r="Y179" t="s" s="2">
-        <v>577</v>
+        <v>73</v>
       </c>
       <c r="Z179" t="s" s="2">
         <v>73</v>
@@ -21396,10 +21472,10 @@
         <v>73</v>
       </c>
       <c r="AE179" t="s" s="2">
-        <v>573</v>
+        <v>277</v>
       </c>
       <c r="AF179" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AG179" t="s" s="2">
         <v>82</v>
@@ -21411,20 +21487,22 @@
         <v>94</v>
       </c>
       <c r="AJ179" t="s" s="2">
-        <v>578</v>
+        <v>73</v>
       </c>
       <c r="AK179" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL179" t="s" s="2">
-        <v>73</v>
+        <v>278</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="B180" s="2"/>
+        <v>530</v>
+      </c>
+      <c r="B180" t="s" s="2">
+        <v>540</v>
+      </c>
       <c r="C180" t="s" s="2">
         <v>73</v>
       </c>
@@ -21445,16 +21523,20 @@
         <v>83</v>
       </c>
       <c r="J180" t="s" s="2">
-        <v>580</v>
+        <v>236</v>
       </c>
       <c r="K180" t="s" s="2">
-        <v>581</v>
+        <v>237</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="M180" s="2"/>
-      <c r="N180" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="M180" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="N180" t="s" s="2">
+        <v>240</v>
+      </c>
       <c r="O180" t="s" s="2">
         <v>73</v>
       </c>
@@ -21502,13 +21584,13 @@
         <v>73</v>
       </c>
       <c r="AE180" t="s" s="2">
-        <v>579</v>
+        <v>241</v>
       </c>
       <c r="AF180" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG180" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH180" t="s" s="2">
         <v>73</v>
@@ -21517,12 +21599,3016 @@
         <v>94</v>
       </c>
       <c r="AJ180" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK180" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL180" t="s" s="2">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="B181" s="2"/>
+      <c r="C181" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D181" s="2"/>
+      <c r="E181" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F181" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G181" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H181" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I181" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J181" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K181" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="L181" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="M181" s="2"/>
+      <c r="N181" s="2"/>
+      <c r="O181" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P181" s="2"/>
+      <c r="Q181" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R181" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S181" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T181" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U181" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V181" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W181" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X181" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y181" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z181" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA181" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB181" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC181" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD181" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE181" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AF181" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG181" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH181" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI181" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ181" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK181" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL181" t="s" s="2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="B182" s="2"/>
+      <c r="C182" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="D182" s="2"/>
+      <c r="E182" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F182" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G182" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H182" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I182" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J182" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K182" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L182" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="M182" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="N182" s="2"/>
+      <c r="O182" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P182" s="2"/>
+      <c r="Q182" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R182" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S182" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T182" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U182" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V182" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W182" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X182" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y182" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z182" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA182" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AB182" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AC182" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD182" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AE182" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AF182" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG182" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH182" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI182" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AJ182" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK182" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL182" t="s" s="2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="B183" s="2"/>
+      <c r="C183" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D183" s="2"/>
+      <c r="E183" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="F183" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G183" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H183" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I183" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J183" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K183" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="L183" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="M183" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="N183" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="O183" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P183" s="2"/>
+      <c r="Q183" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R183" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="S183" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T183" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U183" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V183" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W183" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X183" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y183" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z183" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA183" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB183" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC183" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD183" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE183" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AF183" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG183" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH183" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI183" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ183" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK183" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL183" t="s" s="2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="B184" s="2"/>
+      <c r="C184" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D184" s="2"/>
+      <c r="E184" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G184" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H184" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I184" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J184" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="K184" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="L184" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="M184" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="N184" s="2"/>
+      <c r="O184" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P184" s="2"/>
+      <c r="Q184" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R184" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S184" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T184" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U184" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V184" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W184" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X184" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y184" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z184" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA184" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB184" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC184" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD184" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE184" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AF184" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH184" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI184" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ184" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK184" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL184" t="s" s="2">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="B185" s="2"/>
+      <c r="C185" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D185" s="2"/>
+      <c r="E185" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G185" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H185" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I185" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J185" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="K185" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="L185" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="M185" s="2"/>
+      <c r="N185" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="O185" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P185" s="2"/>
+      <c r="Q185" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R185" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S185" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T185" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U185" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V185" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W185" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="X185" s="2"/>
+      <c r="Y185" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="Z185" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA185" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB185" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC185" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD185" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE185" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AF185" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH185" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI185" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ185" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK185" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL185" t="s" s="2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="B186" s="2"/>
+      <c r="C186" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D186" s="2"/>
+      <c r="E186" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F186" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G186" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H186" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I186" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J186" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="K186" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="L186" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="M186" s="2"/>
+      <c r="N186" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="O186" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P186" s="2"/>
+      <c r="Q186" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R186" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S186" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T186" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U186" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V186" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W186" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X186" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y186" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z186" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA186" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB186" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC186" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD186" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE186" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AF186" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG186" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH186" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI186" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ186" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK186" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL186" t="s" s="2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="B187" s="2"/>
+      <c r="C187" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D187" s="2"/>
+      <c r="E187" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F187" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G187" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H187" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I187" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J187" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="K187" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="L187" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="M187" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="N187" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="O187" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P187" s="2"/>
+      <c r="Q187" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R187" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S187" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T187" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U187" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V187" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W187" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X187" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y187" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z187" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA187" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB187" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC187" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD187" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE187" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AF187" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG187" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH187" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI187" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ187" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK187" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL187" t="s" s="2">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="B188" s="2"/>
+      <c r="C188" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D188" s="2"/>
+      <c r="E188" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F188" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G188" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H188" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I188" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J188" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="K188" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="L188" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="M188" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="N188" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="O188" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P188" s="2"/>
+      <c r="Q188" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R188" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S188" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T188" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U188" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V188" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W188" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X188" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y188" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z188" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA188" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB188" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC188" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD188" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE188" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AF188" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG188" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH188" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI188" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ188" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK188" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL188" t="s" s="2">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="B189" s="2"/>
+      <c r="C189" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D189" s="2"/>
+      <c r="E189" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F189" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G189" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H189" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I189" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J189" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="K189" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="L189" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="M189" s="2"/>
+      <c r="N189" s="2"/>
+      <c r="O189" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P189" s="2"/>
+      <c r="Q189" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R189" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S189" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T189" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U189" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V189" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W189" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X189" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y189" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z189" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA189" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB189" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC189" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD189" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE189" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="AF189" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG189" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH189" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI189" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="AJ189" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="AK189" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL189" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="B190" s="2"/>
+      <c r="C190" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D190" s="2"/>
+      <c r="E190" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F190" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G190" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H190" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I190" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J190" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="K190" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="L190" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="M190" s="2"/>
+      <c r="N190" s="2"/>
+      <c r="O190" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P190" s="2"/>
+      <c r="Q190" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R190" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S190" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T190" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U190" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V190" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W190" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X190" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y190" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z190" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA190" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB190" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC190" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD190" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE190" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AF190" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG190" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH190" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI190" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ190" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK190" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL190" t="s" s="2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="B191" s="2"/>
+      <c r="C191" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="D191" s="2"/>
+      <c r="E191" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F191" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G191" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H191" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I191" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J191" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K191" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L191" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="M191" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="N191" s="2"/>
+      <c r="O191" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P191" s="2"/>
+      <c r="Q191" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R191" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S191" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T191" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U191" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V191" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W191" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X191" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y191" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z191" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA191" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB191" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC191" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD191" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE191" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AF191" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG191" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH191" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI191" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AJ191" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK191" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL191" t="s" s="2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="B192" s="2"/>
+      <c r="C192" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="D192" s="2"/>
+      <c r="E192" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F192" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G192" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H192" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I192" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J192" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K192" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="L192" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="M192" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="N192" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="O192" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P192" s="2"/>
+      <c r="Q192" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R192" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S192" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T192" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U192" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V192" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W192" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X192" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y192" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z192" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA192" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB192" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC192" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD192" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE192" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="AF192" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG192" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH192" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI192" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AJ192" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK192" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL192" t="s" s="2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="B193" s="2"/>
+      <c r="C193" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D193" s="2"/>
+      <c r="E193" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="F193" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G193" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H193" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I193" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J193" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="K193" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="L193" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="M193" s="2"/>
+      <c r="N193" s="2"/>
+      <c r="O193" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P193" s="2"/>
+      <c r="Q193" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R193" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S193" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T193" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U193" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V193" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W193" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X193" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y193" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z193" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA193" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB193" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC193" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD193" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE193" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="AF193" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AG193" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH193" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI193" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ193" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="AK193" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL193" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="B194" s="2"/>
+      <c r="C194" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D194" s="2"/>
+      <c r="E194" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F194" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G194" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H194" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I194" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J194" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="K194" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="L194" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="M194" s="2"/>
+      <c r="N194" s="2"/>
+      <c r="O194" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P194" s="2"/>
+      <c r="Q194" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R194" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S194" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T194" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U194" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V194" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W194" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="X194" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="Y194" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="Z194" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA194" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB194" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC194" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD194" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE194" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="AF194" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG194" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH194" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI194" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ194" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="AK194" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL194" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="B195" s="2"/>
+      <c r="C195" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D195" s="2"/>
+      <c r="E195" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F195" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G195" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H195" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I195" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J195" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="K195" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="L195" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="M195" s="2"/>
+      <c r="N195" s="2"/>
+      <c r="O195" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P195" s="2"/>
+      <c r="Q195" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R195" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S195" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T195" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U195" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V195" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W195" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X195" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y195" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z195" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA195" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB195" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC195" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD195" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE195" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="AF195" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG195" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH195" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI195" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="AJ195" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="AK195" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL195" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="B196" s="2"/>
+      <c r="C196" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D196" s="2"/>
+      <c r="E196" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F196" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G196" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H196" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I196" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J196" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="K196" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="L196" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="M196" s="2"/>
+      <c r="N196" s="2"/>
+      <c r="O196" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P196" s="2"/>
+      <c r="Q196" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R196" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S196" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T196" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U196" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V196" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W196" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X196" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y196" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z196" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA196" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB196" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC196" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD196" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE196" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AF196" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG196" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH196" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI196" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ196" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK196" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL196" t="s" s="2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="B197" s="2"/>
+      <c r="C197" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="D197" s="2"/>
+      <c r="E197" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F197" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G197" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H197" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I197" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J197" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K197" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L197" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="M197" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="N197" s="2"/>
+      <c r="O197" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P197" s="2"/>
+      <c r="Q197" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R197" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S197" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T197" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U197" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V197" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W197" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X197" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y197" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z197" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA197" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB197" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC197" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD197" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE197" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AF197" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG197" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH197" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI197" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AJ197" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK197" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL197" t="s" s="2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="B198" s="2"/>
+      <c r="C198" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="D198" s="2"/>
+      <c r="E198" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F198" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G198" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H198" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I198" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J198" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K198" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="L198" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="M198" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="N198" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="O198" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P198" s="2"/>
+      <c r="Q198" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R198" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S198" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T198" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U198" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V198" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W198" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X198" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y198" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z198" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA198" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB198" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC198" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD198" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE198" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="AF198" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG198" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH198" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI198" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AJ198" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK198" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL198" t="s" s="2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="B199" s="2"/>
+      <c r="C199" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D199" s="2"/>
+      <c r="E199" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F199" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G199" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H199" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I199" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J199" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="K199" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="L199" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="M199" s="2"/>
+      <c r="N199" s="2"/>
+      <c r="O199" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P199" s="2"/>
+      <c r="Q199" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R199" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S199" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T199" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U199" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V199" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W199" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X199" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y199" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z199" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA199" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB199" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC199" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD199" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE199" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="AF199" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG199" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH199" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI199" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ199" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="AK199" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL199" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="B200" s="2"/>
+      <c r="C200" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D200" s="2"/>
+      <c r="E200" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F200" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G200" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H200" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I200" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J200" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="K200" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="L200" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="M200" s="2"/>
+      <c r="N200" s="2"/>
+      <c r="O200" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P200" s="2"/>
+      <c r="Q200" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R200" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S200" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T200" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U200" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V200" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W200" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X200" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y200" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z200" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA200" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB200" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC200" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD200" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE200" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="AF200" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG200" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH200" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI200" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ200" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="AK200" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL200" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="B201" s="2"/>
+      <c r="C201" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D201" s="2"/>
+      <c r="E201" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F201" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G201" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H201" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I201" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J201" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="K201" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="L201" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="M201" s="2"/>
+      <c r="N201" s="2"/>
+      <c r="O201" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P201" s="2"/>
+      <c r="Q201" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R201" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S201" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T201" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U201" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V201" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W201" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X201" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y201" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z201" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA201" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB201" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC201" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD201" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE201" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="AF201" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG201" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH201" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI201" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ201" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="AK201" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL201" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="B202" s="2"/>
+      <c r="C202" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D202" s="2"/>
+      <c r="E202" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F202" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G202" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H202" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I202" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J202" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="K202" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="L202" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="M202" s="2"/>
+      <c r="N202" s="2"/>
+      <c r="O202" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P202" s="2"/>
+      <c r="Q202" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R202" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S202" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T202" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U202" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V202" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W202" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="X202" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="Y202" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="Z202" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA202" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB202" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC202" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD202" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE202" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="AF202" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG202" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH202" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI202" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ202" t="s" s="2">
         <v>583</v>
       </c>
-      <c r="AK180" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL180" t="s" s="2">
+      <c r="AK202" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL202" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="B203" s="2"/>
+      <c r="C203" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D203" s="2"/>
+      <c r="E203" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F203" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G203" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H203" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I203" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J203" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="K203" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="L203" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="M203" s="2"/>
+      <c r="N203" s="2"/>
+      <c r="O203" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P203" s="2"/>
+      <c r="Q203" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R203" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S203" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T203" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U203" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V203" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W203" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X203" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y203" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z203" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA203" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB203" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC203" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD203" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE203" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="AF203" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG203" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH203" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI203" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="AJ203" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="AK203" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL203" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="B204" s="2"/>
+      <c r="C204" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D204" s="2"/>
+      <c r="E204" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F204" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G204" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H204" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I204" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J204" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="K204" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="L204" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="M204" s="2"/>
+      <c r="N204" s="2"/>
+      <c r="O204" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P204" s="2"/>
+      <c r="Q204" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R204" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S204" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T204" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U204" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V204" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W204" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X204" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y204" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z204" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA204" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB204" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC204" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD204" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE204" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AF204" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG204" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH204" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI204" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ204" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK204" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL204" t="s" s="2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="B205" s="2"/>
+      <c r="C205" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="D205" s="2"/>
+      <c r="E205" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F205" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G205" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H205" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I205" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J205" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K205" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L205" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="M205" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="N205" s="2"/>
+      <c r="O205" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P205" s="2"/>
+      <c r="Q205" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R205" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S205" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T205" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U205" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V205" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W205" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X205" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y205" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z205" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA205" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB205" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC205" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD205" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE205" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AF205" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG205" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH205" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI205" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AJ205" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK205" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL205" t="s" s="2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="B206" s="2"/>
+      <c r="C206" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="D206" s="2"/>
+      <c r="E206" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F206" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G206" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H206" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I206" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J206" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K206" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="L206" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="M206" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="N206" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="O206" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P206" s="2"/>
+      <c r="Q206" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R206" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S206" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T206" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U206" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V206" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W206" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X206" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y206" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z206" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA206" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB206" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC206" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD206" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE206" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="AF206" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG206" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH206" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI206" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AJ206" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK206" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL206" t="s" s="2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="B207" s="2"/>
+      <c r="C207" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D207" s="2"/>
+      <c r="E207" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="F207" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G207" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H207" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I207" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J207" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="K207" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="L207" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="M207" s="2"/>
+      <c r="N207" s="2"/>
+      <c r="O207" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P207" s="2"/>
+      <c r="Q207" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R207" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S207" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T207" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U207" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V207" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W207" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="X207" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="Y207" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="Z207" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA207" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB207" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC207" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD207" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE207" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="AF207" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AG207" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH207" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI207" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ207" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="AK207" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL207" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="B208" s="2"/>
+      <c r="C208" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D208" s="2"/>
+      <c r="E208" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F208" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G208" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H208" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I208" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J208" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="K208" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="L208" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="M208" s="2"/>
+      <c r="N208" s="2"/>
+      <c r="O208" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P208" s="2"/>
+      <c r="Q208" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R208" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S208" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T208" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U208" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V208" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W208" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X208" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y208" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z208" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA208" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB208" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC208" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD208" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE208" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="AF208" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG208" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH208" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI208" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ208" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="AK208" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL208" t="s" s="2">
         <v>73</v>
       </c>
     </row>

--- a/StructureDefinition-PPLMedicinalProductDefinition.xlsx
+++ b/StructureDefinition-PPLMedicinalProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T20:12:04+00:00</t>
+    <t>2022-11-20T20:23:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLMedicinalProductDefinition.xlsx
+++ b/StructureDefinition-PPLMedicinalProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T20:23:35+00:00</t>
+    <t>2022-11-21T10:47:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLMedicinalProductDefinition.xlsx
+++ b/StructureDefinition-PPLMedicinalProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-21T10:47:26+00:00</t>
+    <t>2022-11-22T13:07:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLMedicinalProductDefinition.xlsx
+++ b/StructureDefinition-PPLMedicinalProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-22T20:42:27+00:00</t>
+    <t>2022-11-24T22:13:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
